--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="P2 Flux not control subtracted" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="RLS calc" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="P1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2018" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="rate calcs" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="200">
   <si>
     <t xml:space="preserve">P2</t>
   </si>
@@ -190,6 +191,9 @@
     <t xml:space="preserve">Keil 3-21</t>
   </si>
   <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
     <t xml:space="preserve">top collector: 600 mL</t>
   </si>
   <si>
@@ -259,9 +263,6 @@
     <t xml:space="preserve">fz0 is 1.29</t>
   </si>
   <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
     <t xml:space="preserve">mg org N/m2-d</t>
   </si>
   <si>
@@ -319,18 +320,322 @@
     <t xml:space="preserve">Time of OC accumulation</t>
   </si>
   <si>
+    <t xml:space="preserve">Org C flux (umol C/m2/day) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org C flux mg org C/m2-d</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic C fluxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flux (mg/m2/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-30_151m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-30_151m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-31_121m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-31_121m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_top_remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_+P_remainder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-32_147m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw1 (does this exist?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_368m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-33_586m_nw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_87m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-34_221m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_85m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_147m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-36_147m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_+P1/top1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_+P/top2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_50m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_+P/top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-37_120m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-38_122m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_120m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-39_190m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_123m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-40_201m_nw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_+P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_+P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_221m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-42_586m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_145m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-43_288m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-44_93m_ctl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_143m_nw5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_+P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-45_843m_nw4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N production rate (nM N/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic C flux </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -420,12 +725,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,13 +748,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4BD97"/>
-        <bgColor rgb="FFB3B3B3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
   </fills>
@@ -482,7 +789,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -503,7 +810,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -528,6 +843,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +880,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FFC4BD97"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -582,13 +905,13 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFC4BD97"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -604,7 +927,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -616,10 +939,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10145979514477"/>
-          <c:y val="0.164468697892982"/>
-          <c:w val="0.85652068715219"/>
-          <c:h val="0.785356980445657"/>
+          <c:x val="0.101467978706243"/>
+          <c:y val="0.164481164253771"/>
+          <c:w val="0.856428456202613"/>
+          <c:h val="0.785264913211552"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -775,11 +1098,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75121779"/>
-        <c:axId val="93023214"/>
+        <c:axId val="88712158"/>
+        <c:axId val="73599663"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75121779"/>
+        <c:axId val="88712158"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,13 +1168,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93023214"/>
+        <c:crossAx val="73599663"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93023214"/>
+        <c:axId val="73599663"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -884,7 +1207,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75121779"/>
+        <c:crossAx val="88712158"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -911,7 +1234,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -923,10 +1246,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101480226820826"/>
-          <c:y val="0.164493026762156"/>
-          <c:w val="0.856469548567641"/>
-          <c:h val="0.785299660761402"/>
+          <c:x val="0.101487700692296"/>
+          <c:y val="0.164505428226779"/>
+          <c:w val="0.856385329209015"/>
+          <c:h val="0.785208082026538"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1078,11 +1401,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41966885"/>
-        <c:axId val="16208391"/>
+        <c:axId val="69074976"/>
+        <c:axId val="28684446"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41966885"/>
+        <c:axId val="69074976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1149,13 +1472,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16208391"/>
+        <c:crossAx val="28684446"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16208391"/>
+        <c:axId val="28684446"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1188,7 +1511,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41966885"/>
+        <c:crossAx val="69074976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1215,7 +1538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1227,10 +1550,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206218774651591"/>
-          <c:y val="0.16439775081385"/>
-          <c:w val="0.73126479095451"/>
-          <c:h val="0.785365492749334"/>
+          <c:x val="0.206232331865098"/>
+          <c:y val="0.16440991490936"/>
+          <c:w val="0.731247123791993"/>
+          <c:h val="0.785275619681835"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1382,11 +1705,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1874869"/>
-        <c:axId val="24236978"/>
+        <c:axId val="39654700"/>
+        <c:axId val="20551887"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1874869"/>
+        <c:axId val="39654700"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1454,12 +1777,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24236978"/>
+        <c:crossAx val="20551887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24236978"/>
+        <c:axId val="20551887"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1526,7 +1849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1874869"/>
+        <c:crossAx val="39654700"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1553,7 +1876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1565,10 +1888,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206257934433575"/>
-          <c:y val="0.19674461582202"/>
-          <c:w val="0.731312075274438"/>
-          <c:h val="0.753003056365058"/>
+          <c:x val="0.206273338312173"/>
+          <c:y val="0.196758601080466"/>
+          <c:w val="0.731292008961912"/>
+          <c:h val="0.752914415695195"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1872,11 +2195,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37015161"/>
-        <c:axId val="10932627"/>
+        <c:axId val="91083477"/>
+        <c:axId val="48984556"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37015161"/>
+        <c:axId val="91083477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1914,8 +2237,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.170039578821597"/>
-              <c:y val="0.00525979102992395"/>
+              <c:x val="0.170126960418223"/>
+              <c:y val="0.00526016491327836"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1952,13 +2275,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10932627"/>
+        <c:crossAx val="48984556"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10932627"/>
+        <c:axId val="48984556"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2025,7 +2348,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37015161"/>
+        <c:crossAx val="91083477"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,7 +2375,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2064,10 +2387,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206261510128913"/>
-          <c:y val="0.164478536657324"/>
-          <c:w val="0.731307550644567"/>
-          <c:h val="0.785366573240891"/>
+          <c:x val="0.20627417275462"/>
+          <c:y val="0.164490669027071"/>
+          <c:w val="0.731291055313402"/>
+          <c:h val="0.785276978682599"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2078,7 +2401,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"FLux"</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2135,7 +2458,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$P$3:$P$13</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2177,7 +2500,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2219,11 +2542,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25754701"/>
-        <c:axId val="83791684"/>
+        <c:axId val="708680"/>
+        <c:axId val="83440693"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25754701"/>
+        <c:axId val="708680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2291,12 +2614,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83791684"/>
+        <c:crossAx val="83440693"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83791684"/>
+        <c:axId val="83440693"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2363,7 +2686,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25754701"/>
+        <c:crossAx val="708680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2390,7 +2713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2402,10 +2725,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101490499487996"/>
-          <c:y val="0.164469347396177"/>
-          <c:w val="0.856525201956992"/>
-          <c:h val="0.785299934080422"/>
+          <c:x val="0.101496273539284"/>
+          <c:y val="0.164480189860901"/>
+          <c:w val="0.856460146782727"/>
+          <c:h val="0.785219856285846"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2546,11 +2869,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65488482"/>
-        <c:axId val="18341432"/>
+        <c:axId val="68348182"/>
+        <c:axId val="17388416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65488482"/>
+        <c:axId val="68348182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,13 +2905,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18341432"/>
+        <c:crossAx val="17388416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18341432"/>
+        <c:axId val="17388416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2621,7 +2944,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65488482"/>
+        <c:crossAx val="68348182"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -2649,7 +2972,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2661,10 +2984,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101522842639594"/>
-          <c:y val="0.164412568306011"/>
-          <c:w val="0.856488633855661"/>
-          <c:h val="0.785382513661202"/>
+          <c:x val="0.101528444518016"/>
+          <c:y val="0.164423799439852"/>
+          <c:w val="0.856425536610936"/>
+          <c:h val="0.785299542318464"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2962,11 +3285,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25280481"/>
-        <c:axId val="33705648"/>
+        <c:axId val="18753577"/>
+        <c:axId val="24535336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25280481"/>
+        <c:axId val="18753577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -2999,13 +3322,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33705648"/>
+        <c:crossAx val="24535336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33705648"/>
+        <c:axId val="24535336"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3038,7 +3361,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25280481"/>
+        <c:crossAx val="18753577"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3066,7 +3389,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3078,10 +3401,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206240212022648"/>
-          <c:y val="0.19681660899654"/>
-          <c:w val="0.731297434044091"/>
-          <c:h val="0.753010380622837"/>
+          <c:x val="0.206252635383411"/>
+          <c:y val="0.196830230465776"/>
+          <c:w val="0.731281248117583"/>
+          <c:h val="0.752924077790851"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3236,11 +3559,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39720592"/>
-        <c:axId val="70388769"/>
+        <c:axId val="65033328"/>
+        <c:axId val="73699289"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39720592"/>
+        <c:axId val="65033328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3274,13 +3597,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70388769"/>
+        <c:crossAx val="73699289"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70388769"/>
+        <c:axId val="73699289"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3313,7 +3636,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39720592"/>
+        <c:crossAx val="65033328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3340,7 +3663,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3352,10 +3675,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206237894877446"/>
-          <c:y val="0.164444781093774"/>
-          <c:w val="0.731316369465037"/>
-          <c:h val="0.785335555218906"/>
+          <c:x val="0.206251669783596"/>
+          <c:y val="0.164457238088024"/>
+          <c:w val="0.731298423724285"/>
+          <c:h val="0.785243542155897"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3366,7 +3689,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"FLux"</c:f>
+              <c:f>label 1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3423,7 +3746,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$O$3:$O$13</c:f>
+              <c:f>0</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3465,7 +3788,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:f>1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3507,11 +3830,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48968474"/>
-        <c:axId val="56929570"/>
+        <c:axId val="24972402"/>
+        <c:axId val="36981604"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48968474"/>
+        <c:axId val="24972402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3579,13 +3902,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56929570"/>
+        <c:crossAx val="36981604"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56929570"/>
+        <c:axId val="36981604"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3652,7 +3975,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48968474"/>
+        <c:crossAx val="24972402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3679,7 +4002,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3691,10 +4014,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206266318537859"/>
-          <c:y val="0.196755994358251"/>
-          <c:w val="0.731319159517593"/>
-          <c:h val="0.75296191819464"/>
+          <c:x val="0.206279142057818"/>
+          <c:y val="0.196769870935891"/>
+          <c:w val="0.731302455704072"/>
+          <c:h val="0.752873968545031"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3921,11 +4244,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40683306"/>
-        <c:axId val="60545066"/>
+        <c:axId val="51553277"/>
+        <c:axId val="90449933"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40683306"/>
+        <c:axId val="51553277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -3959,13 +4282,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60545066"/>
+        <c:crossAx val="90449933"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60545066"/>
+        <c:axId val="90449933"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3998,7 +4321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40683306"/>
+        <c:crossAx val="51553277"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4025,7 +4348,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4037,10 +4360,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101533197341581"/>
-          <c:y val="0.164399179144182"/>
-          <c:w val="0.856484832532737"/>
-          <c:h val="0.785361404575511"/>
+          <c:x val="0.101539878915504"/>
+          <c:y val="0.164411675281241"/>
+          <c:w val="0.856409581468808"/>
+          <c:h val="0.78526907874734"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4184,11 +4507,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96567995"/>
-        <c:axId val="90693581"/>
+        <c:axId val="83753133"/>
+        <c:axId val="41325808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96567995"/>
+        <c:axId val="83753133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4225,8 +4548,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.23234848983352"/>
-              <c:y val="0.0241696435357604"/>
+              <c:x val="0.23236377994209"/>
+              <c:y val="0.024247491638796"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4263,13 +4586,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90693581"/>
+        <c:crossAx val="41325808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90693581"/>
+        <c:axId val="41325808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4302,7 +4625,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96567995"/>
+        <c:crossAx val="83753133"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4329,280 +4652,20 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2018'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sediment trap rate nM/d</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2018'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2018'!$D$2:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="91176904"/>
-        <c:axId val="59063862"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="91176904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>N loss [ nM N/day]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="59063862"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="59063862"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="0">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91176904"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>648720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>660240</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:colOff>443160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4610,8 +4673,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1668240" y="2857680"/>
-        <a:ext cx="4463280" cy="4749480"/>
+        <a:off x="1679760" y="4836960"/>
+        <a:ext cx="4462920" cy="4749120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4624,15 +4687,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>743760</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>831960</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
+      <xdr:colOff>633240</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4640,8 +4703,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6443280" y="2857680"/>
-        <a:ext cx="4888080" cy="4775040"/>
+        <a:off x="6531480" y="5376960"/>
+        <a:ext cx="4887720" cy="4774680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4653,16 +4716,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>103320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:colOff>1674000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4670,8 +4733,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11357640" y="2857680"/>
-        <a:ext cx="5475960" cy="4865400"/>
+        <a:off x="12412440" y="5376960"/>
+        <a:ext cx="5475600" cy="4865040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4683,16 +4746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>775080</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>932040</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>359280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4700,8 +4763,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="38612160" y="3048480"/>
-        <a:ext cx="4820400" cy="5064480"/>
+        <a:off x="41099040" y="3196800"/>
+        <a:ext cx="4820040" cy="5064120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4714,15 +4777,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1051200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>1379880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>354600</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:colOff>578880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4730,8 +4793,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17265240" y="2857680"/>
-        <a:ext cx="5864040" cy="4880520"/>
+        <a:off x="17593920" y="5334480"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4744,7 +4807,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -4752,7 +4815,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>635040</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4760,8 +4823,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2046600" y="8191440"/>
-        <a:ext cx="6327720" cy="5460840"/>
+        <a:off x="2046960" y="8191440"/>
+        <a:ext cx="6327360" cy="5460480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4780,9 +4843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>139680</xdr:colOff>
+      <xdr:colOff>139320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4791,7 +4854,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8711640" y="8381880"/>
-        <a:ext cx="6524280" cy="5270040"/>
+        <a:ext cx="6523920" cy="5269680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4804,9 +4867,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>718560</xdr:colOff>
+      <xdr:colOff>718920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
@@ -4820,8 +4883,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44238600" y="2857680"/>
-        <a:ext cx="5976360" cy="5201640"/>
+        <a:off x="44238960" y="2858040"/>
+        <a:ext cx="5976000" cy="5201280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4840,9 +4903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1016280</xdr:colOff>
+      <xdr:colOff>1015920</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4851,7 +4914,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16214040" y="8381880"/>
-        <a:ext cx="5389920" cy="4752360"/>
+        <a:ext cx="5389560" cy="4752000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4864,7 +4927,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>360</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
@@ -4872,7 +4935,7 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>691560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4880,8 +4943,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50658840" y="2844720"/>
-        <a:ext cx="5790600" cy="5104440"/>
+        <a:off x="50659200" y="2844720"/>
+        <a:ext cx="5790240" cy="5104080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4905,9 +4968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4916,42 +4979,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846600" y="3048480"/>
-        <a:ext cx="5470560" cy="4736160"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476280</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="5352840" y="447120"/>
-        <a:ext cx="5763600" cy="3243240"/>
+        <a:ext cx="5470200" cy="4735800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4969,13 +4997,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB3" activeCellId="0" sqref="AB3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
@@ -5208,6 +5236,12 @@
         <f aca="false">N3/$AD$2</f>
         <v>0.651632371191503</v>
       </c>
+      <c r="W3" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y3" s="0" t="n">
         <v>100</v>
       </c>
@@ -5293,6 +5327,12 @@
         <f aca="false">N4/$AD$2</f>
         <v>0.153050454961832</v>
       </c>
+      <c r="W4" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y4" s="0" t="n">
         <v>100</v>
       </c>
@@ -5377,6 +5417,12 @@
       <c r="U5" s="0" t="n">
         <f aca="false">N5/$AD$2</f>
         <v>0.117400681314305</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>100</v>
@@ -5462,6 +5508,12 @@
         <f aca="false">N6/$AD$2</f>
         <v>0.155434020577497</v>
       </c>
+      <c r="W6" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y6" s="0" t="n">
         <v>113</v>
       </c>
@@ -5554,6 +5606,12 @@
         <f aca="false">N7/$AD$2</f>
         <v>0.0430258344442376</v>
       </c>
+      <c r="W7" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y7" s="0" t="n">
         <v>120</v>
       </c>
@@ -5646,6 +5704,12 @@
         <f aca="false">N8/$AD$2</f>
         <v>0.0759534858280783</v>
       </c>
+      <c r="W8" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y8" s="0" t="n">
         <v>120</v>
       </c>
@@ -5738,6 +5802,12 @@
         <f aca="false">N9/$AD$2</f>
         <v>0.0586321683113014</v>
       </c>
+      <c r="W9" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y9" s="0" t="n">
         <v>140</v>
       </c>
@@ -5825,6 +5895,12 @@
         <f aca="false">N10/$AD$2</f>
         <v>0.0561179373182394</v>
       </c>
+      <c r="W10" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y10" s="0" t="n">
         <v>150</v>
       </c>
@@ -5899,15 +5975,25 @@
         <f aca="false">N11/12</f>
         <v>0.0356523414634146</v>
       </c>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="S11" s="0" t="n">
+        <f aca="false">(H11/1000)/F11</f>
+        <v>0.70163808</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">(S11/12)*1000</f>
+        <v>58.46984</v>
+      </c>
       <c r="U11" s="4" t="n">
         <f aca="false">N11/$AD$2</f>
         <v>0.0506208817724819</v>
       </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
+      <c r="W11" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="Y11" s="4" t="n">
         <v>150</v>
       </c>
@@ -6018,21 +6104,31 @@
         <f aca="false">N12/12</f>
         <v>0.0528342341463415</v>
       </c>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="S12" s="0" t="n">
+        <f aca="false">(H12/1000)/F12</f>
+        <v>1.039777728</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <f aca="false">(S12/12)*1000</f>
+        <v>86.648144</v>
+      </c>
       <c r="U12" s="4" t="n">
         <f aca="false">N12/$AD$2</f>
         <v>0.0750165461925154</v>
       </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4" t="n">
+      <c r="W12" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="n">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5" t="n">
         <v>16</v>
       </c>
       <c r="AC12" s="4"/>
@@ -6137,128 +6233,503 @@
         <f aca="false">(H13/1000)/F13</f>
         <v>0.52786602</v>
       </c>
-      <c r="Y13" s="5" t="n">
+      <c r="T13" s="0" t="n">
+        <f aca="false">(S13/12)*1000</f>
+        <v>43.988835</v>
+      </c>
+      <c r="U13" s="4" t="n">
+        <f aca="false">N13/$AD$2</f>
+        <v>0.0214273680526883</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6" t="n">
         <v>179</v>
       </c>
-      <c r="Z13" s="5" t="n">
+      <c r="Z13" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="AA13" s="5" t="n">
+      <c r="AA13" s="6" t="n">
         <f aca="false">Z13/S9</f>
         <v>33.2905400742214</v>
       </c>
-      <c r="AB13" s="5" t="n">
+      <c r="AB13" s="6" t="n">
         <f aca="false">AA13*U9</f>
         <v>1.95189654880588</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y14" s="5" t="n">
+      <c r="A14" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>0.35039640768</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <f aca="false">N14/12</f>
+        <v>0.02919970064</v>
+      </c>
+      <c r="U14" s="4" t="n">
+        <f aca="false">N14/$AD$2</f>
+        <v>0.0414591169392366</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6" t="n">
         <v>180</v>
       </c>
-      <c r="Z14" s="5" t="n">
+      <c r="Z14" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="AA14" s="5" t="n">
+      <c r="AA14" s="6" t="n">
         <f aca="false">Z14/S9</f>
         <v>41.8816471901496</v>
       </c>
-      <c r="AB14" s="5" t="n">
+      <c r="AB14" s="6" t="n">
         <f aca="false">AA14*U9</f>
         <v>2.45561178720739</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>0.58685784336</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <f aca="false">N15/12</f>
+        <v>0.04890482028</v>
+      </c>
+      <c r="U15" s="4" t="n">
+        <f aca="false">N15/$AD$2</f>
+        <v>0.0694373784128244</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="Z15" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="7" t="n">
+        <f aca="false">AA15*U10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>0.24311220636</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <f aca="false">N16/12</f>
+        <v>0.02025935053</v>
+      </c>
+      <c r="U16" s="4" t="n">
+        <f aca="false">N16/$AD$2</f>
+        <v>0.0287651847219847</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="Z16" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="7" t="n">
+        <f aca="false">AA16*U11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>0.2981113254</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <f aca="false">N17/12</f>
+        <v>0.02484261045</v>
+      </c>
+      <c r="U17" s="4" t="n">
+        <f aca="false">N17/$AD$2</f>
+        <v>0.0352727140740458</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="Z17" s="6" t="n">
+        <v>181</v>
+      </c>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="7" t="n">
+        <f aca="false">AA17*U12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>1.3821818328</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <f aca="false">N18/12</f>
+        <v>0.1151818194</v>
+      </c>
+      <c r="U18" s="4" t="n">
+        <f aca="false">N18/$AD$2</f>
+        <v>0.163540598537405</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="Z18" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="7" t="n">
+        <f aca="false">AA18*U13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.65778210996</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <f aca="false">N19/12</f>
+        <v>0.05481517583</v>
+      </c>
+      <c r="U19" s="4" t="n">
+        <f aca="false">N19/$AD$2</f>
+        <v>0.0778291809494656</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z19" s="6" t="n">
+        <v>530</v>
+      </c>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="7" t="n">
+        <f aca="false">AA19*U14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1.7063034312</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <f aca="false">N20/12</f>
+        <v>0.1421919526</v>
+      </c>
+      <c r="U20" s="4" t="n">
+        <f aca="false">N20/$AD$2</f>
+        <v>0.201890863996947</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="Z20" s="6" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="7" t="n">
+        <f aca="false">AA20*U15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.073060043712</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">N21/12</f>
+        <v>0.006088336976</v>
+      </c>
+      <c r="U21" s="4" t="n">
+        <f aca="false">N21/$AD$2</f>
+        <v>0.00864450898882443</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="7" t="n">
+        <f aca="false">AA21*U16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <f aca="false">N22/12</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="n">
+        <f aca="false">N22/$AD$2</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="Z22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="7" t="n">
+        <f aca="false">AA22*U17</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S23" s="0" t="s">
-        <v>55</v>
+      <c r="A23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>0.44133636708</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <f aca="false">N23/12</f>
+        <v>0.03677803059</v>
+      </c>
+      <c r="U23" s="4" t="n">
+        <f aca="false">N23/$AD$2</f>
+        <v>0.0522191884712977</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="6" t="n">
+        <v>221</v>
+      </c>
+      <c r="Z23" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="7" t="n">
+        <f aca="false">AA23*U18</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S24" s="0" t="s">
+      <c r="W24" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="6" t="n">
+        <v>368</v>
+      </c>
+      <c r="Z24" s="6" t="n">
+        <v>375</v>
+      </c>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="7" t="n">
+        <f aca="false">AA24*U19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S31" s="0" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S25" s="0" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S32" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="T25" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S33" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S26" s="0" t="s">
+      <c r="T33" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="T26" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S34" s="0" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W27" s="0" t="s">
+      <c r="T34" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S28" s="0" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W35" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="T28" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S36" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="T36" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="U36" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="V36" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="W36" s="0" t="n">
         <f aca="false">PI()*(21/2)^2</f>
         <v>346.360590058275</v>
       </c>
-      <c r="X28" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S29" s="0" t="s">
+      <c r="X36" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="T29" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S37" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="U29" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="W29" s="0" t="n">
+      <c r="T37" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="W37" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
-      <c r="X29" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y29" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y30" s="0" t="n">
-        <f aca="false">W28*(1-0.064)</f>
+      <c r="X37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y37" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y38" s="0" t="n">
+        <f aca="false">W36*(1-0.064)</f>
         <v>324.193512294545</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W31" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="X31" s="0" t="n">
-        <f aca="false">W29/Y30</f>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <f aca="false">W37/Y38</f>
         <v>3.51670155241584</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W32" s="0" t="s">
-        <v>71</v>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W40" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -6284,34 +6755,34 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="9" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>75</v>
+      <c r="C2" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>100</v>
@@ -6329,7 +6800,7 @@
         <v>21.3983044092961</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>1.2935232</v>
@@ -6461,11 +6932,11 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.84"/>
@@ -6479,7 +6950,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>6</v>
@@ -6512,7 +6983,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -6599,10 +7070,10 @@
       <c r="G3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="I3" s="9" t="n">
+      <c r="I3" s="11" t="n">
         <v>103.2737</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -6643,21 +7114,21 @@
       <c r="G4" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="12" t="n">
         <v>142.7073</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">I4*3.52</f>
         <v>502.329696</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="12" t="n">
         <v>111.2036</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="0" t="n">
         <f aca="false">(J4/1000)/(E4*(H4/24))</f>
         <v>0.819015808695652</v>
@@ -6695,7 +7166,7 @@
       <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="11" t="n">
         <v>56.6686</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -6739,7 +7210,7 @@
       <c r="H6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="11" t="n">
         <v>77.1038</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -6783,7 +7254,7 @@
       <c r="H7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="11" t="n">
         <v>72.3089</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -6824,17 +7295,17 @@
       <c r="G8" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="H8" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="11" t="n">
         <v>275.9063</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">I8*3.52</f>
         <v>971.190176</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="11" t="n">
         <v>54.3155</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -6886,7 +7357,7 @@
       <c r="H9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="11" t="n">
         <v>149.5976</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -6932,7 +7403,7 @@
       <c r="H10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="11" t="n">
         <v>88.8127</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -6978,14 +7449,14 @@
       <c r="H11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="11" t="n">
         <v>175.4337</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">I11*3.52</f>
         <v>617.526624</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="11" t="n">
         <v>27.7126</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -7037,14 +7508,14 @@
       <c r="H12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="11" t="n">
         <v>418.4212</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12*3.52</f>
         <v>1472.842624</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="11" t="n">
         <v>49.3413</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -7096,17 +7567,17 @@
       <c r="H13" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="11" t="n">
         <v>224.1651</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">I13*3.52</f>
         <v>789.061152</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="12" t="n">
         <v>71.9624</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="11" t="n">
         <v>28.1653</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -7159,15 +7630,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB13"/>
+  <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>94</v>
       </c>
@@ -7183,10 +7654,16 @@
       <c r="E1" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>93</v>
@@ -7200,10 +7677,17 @@
       <c r="E2" s="0" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="n">
+        <v>29.19970064</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">F2*12/1000</f>
+        <v>0.35039640768</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>122</v>
@@ -7217,13 +7701,20 @@
       <c r="E3" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>48.90482028</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">F3*12/1000</f>
+        <v>0.58685784336</v>
+      </c>
       <c r="AB3" s="0" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>145</v>
@@ -7237,10 +7728,17 @@
       <c r="E4" s="0" t="n">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="0" t="n">
+        <v>20.25935053</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">F4*12/1000</f>
+        <v>0.24311220636</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>190</v>
@@ -7253,6 +7751,13 @@
       </c>
       <c r="E5" s="0" t="n">
         <v>20</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>24.84261045</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">F5*12/1000</f>
+        <v>0.2981113254</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7273,7 +7778,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>0</v>
       </c>
@@ -7289,8 +7794,15 @@
       <c r="E8" s="0" t="n">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="n">
+        <v>115.1818194</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">F8*12/1000</f>
+        <v>1.3821818328</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>0</v>
       </c>
@@ -7306,8 +7818,15 @@
       <c r="E9" s="0" t="n">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="0" t="n">
+        <v>54.81517583</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">F9*12/1000</f>
+        <v>0.65778210996</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>0</v>
       </c>
@@ -7320,8 +7839,15 @@
       <c r="E10" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="0" t="n">
+        <v>142.1919526</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">F10*12/1000</f>
+        <v>1.7063034312</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>0</v>
       </c>
@@ -7337,8 +7863,15 @@
       <c r="E11" s="0" t="n">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="0" t="n">
+        <v>6.088336976</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">F11*12/1000</f>
+        <v>0.073060043712</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>0</v>
       </c>
@@ -7355,7 +7888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>0</v>
       </c>
@@ -7370,6 +7903,1227 @@
       </c>
       <c r="E13" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>36.77803059</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">F13*12/1000</f>
+        <v>0.44133636708</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>59.93179319</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>114.4817664</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>151</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>140.2346446</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>142.1919526</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>135.5691057</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>6.088336976</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>5.577733349</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>36.77803059</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>586</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>8.164440297</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>49.69913676</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>24.18012422</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>54.81517583</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>26.58868425</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>115.1818194</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>244.4055742</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>32.66219522</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>48.90482028</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>144.5962733</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>47.19008443</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>31.86596927</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>24.84261045</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>127.6422764</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>201</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>18.53988134</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>206.4532045</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="G81" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>7.360697997</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>94.40429427</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="0" t="n">
+        <v>586</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>5.35131205</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>54.4451539</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>16.09712027</v>
+      </c>
+      <c r="F92" s="0" t="n">
+        <v>20.25935053</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>288</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>9.216589862</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>113.4440422</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>13.12777285</v>
+      </c>
+      <c r="F96" s="0" t="n">
+        <v>29.19970064</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>54.63414634</v>
+      </c>
+      <c r="F99" s="0" t="n">
+        <v>44.60837344</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>843</v>
+      </c>
+      <c r="F105" s="0" t="n">
+        <v>28.51596639</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -7380,6 +9134,412 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="15" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>5.50734455652174</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>1.2935232</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.992225113043478</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>1.31366817391304</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>0.363637697560976</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="n">
+        <v>0.641929460869565</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15" t="n">
+        <v>140</v>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>0.495536390243902</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="n">
+        <v>0.474287083141249</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>24</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>0.427828097560976</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>0.634010809756098</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15" t="n">
+        <v>179</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>31</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>0.181095820316269</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="D13" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>0.35039640768</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="15" t="n">
+        <v>93</v>
+      </c>
+      <c r="D14" s="15" t="n">
+        <v>160</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>0.58685784336</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15" t="n">
+        <v>122</v>
+      </c>
+      <c r="D15" s="15" t="n">
+        <v>54</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>0.24311220636</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="15" t="n">
+        <v>145</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>181</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>0.2981113254</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="15" t="n">
+        <v>190</v>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>64</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>1.3821818328</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15" t="n">
+        <v>85</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>530</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>1.3821818328</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>87</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>0.65778210996</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="15" t="n">
+        <v>120</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>1.7063034312</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>0.073060043712</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15" t="n">
+        <v>221</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="15" t="n">
+        <v>368</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>375</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>0.44133636708</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="P2 Flux not control subtracted" sheetId="1" state="visible" r:id="rId2"/>
@@ -635,7 +635,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -725,17 +725,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -748,7 +752,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC4BD97"/>
-        <bgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFB3B3B3"/>
       </patternFill>
     </fill>
   </fills>
@@ -789,7 +793,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,14 +811,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -850,10 +846,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,7 +872,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC4BD97"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -905,7 +897,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFC4BD97"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -914,7 +906,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -927,7 +919,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -939,10 +931,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101467978706243"/>
-          <c:y val="0.164481164253771"/>
-          <c:w val="0.856428456202613"/>
-          <c:h val="0.785264913211552"/>
+          <c:x val="0.101476163587965"/>
+          <c:y val="0.164493632504548"/>
+          <c:w val="0.856336210373477"/>
+          <c:h val="0.785172832019406"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1098,11 +1090,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="88712158"/>
-        <c:axId val="73599663"/>
+        <c:axId val="7990269"/>
+        <c:axId val="47948748"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88712158"/>
+        <c:axId val="7990269"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,13 +1160,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73599663"/>
+        <c:crossAx val="47948748"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73599663"/>
+        <c:axId val="47948748"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1207,7 +1199,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88712158"/>
+        <c:crossAx val="7990269"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1234,7 +1226,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1246,2778 +1238,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101487700692296"/>
-          <c:y val="0.164505428226779"/>
-          <c:w val="0.856385329209015"/>
-          <c:h val="0.785208082026538"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="69074976"/>
-        <c:axId val="28684446"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="69074976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28684446"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="28684446"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69074976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206232331865098"/>
-          <c:y val="0.16440991490936"/>
-          <c:w val="0.731247123791993"/>
-          <c:h val="0.785275619681835"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$R$3:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.458945379710145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1077936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0826854260869565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.109472347826087</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0303031414634146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0534941217391305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0412946991869919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0395239235951041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0356523414634146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0528342341463415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0150913183596891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="39654700"/>
-        <c:axId val="20551887"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="39654700"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20551887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20551887"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39654700"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206273338312173"/>
-          <c:y val="0.196758601080466"/>
-          <c:w val="0.731292008961912"/>
-          <c:h val="0.752914415695195"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="91083477"/>
-        <c:axId val="48984556"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="91083477"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.170126960418223"/>
-              <c:y val="0.00526016491327836"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48984556"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="48984556"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91083477"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20627417275462"/>
-          <c:y val="0.164490669027071"/>
-          <c:w val="0.731291055313402"/>
-          <c:h val="0.785276978682599"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>53.5384347826087</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1684472049689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.26771677018634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.77089192546584</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.99702299651568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.37509565217391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.93745505226481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.99882289696366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.82317073170732</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.75685993031359</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3486059807788</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="708680"/>
-        <c:axId val="83440693"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="708680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="83440693"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="83440693"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="708680"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.101496273539284"/>
-          <c:y val="0.164480189860901"/>
-          <c:w val="0.856460146782727"/>
-          <c:h val="0.785219856285846"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="68348182"/>
-        <c:axId val="17388416"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="68348182"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17388416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="17388416"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="68348182"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.101528444518016"/>
-          <c:y val="0.164423799439852"/>
-          <c:w val="0.856425536610936"/>
-          <c:h val="0.785299542318464"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="18753577"/>
-        <c:axId val="24535336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="18753577"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24535336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="24535336"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="18753577"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206252635383411"/>
-          <c:y val="0.196830230465776"/>
-          <c:w val="0.731281248117583"/>
-          <c:h val="0.752924077790851"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030a0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030a0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="65033328"/>
-        <c:axId val="73699289"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="65033328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73699289"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="73699289"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="65033328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206251669783596"/>
-          <c:y val="0.164457238088024"/>
-          <c:w val="0.731298423724285"/>
-          <c:h val="0.785243542155897"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.749538086956522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.170358260869565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0737480347826087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.136792486956522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0279583219512195</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0612513391304348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0691243707317073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0839835205574913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0535243902439024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0665960390243902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0188804837309032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="24972402"/>
-        <c:axId val="36981604"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="24972402"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36981604"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="36981604"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24972402"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206279142057818"/>
-          <c:y val="0.196769870935891"/>
-          <c:w val="0.731302455704072"/>
-          <c:h val="0.752873968545031"/>
+          <c:x val="0.206291967172345"/>
+          <c:y val="0.196783749471011"/>
+          <c:w val="0.731285749813479"/>
+          <c:h val="0.752786006488926"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4244,11 +1468,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51553277"/>
-        <c:axId val="90449933"/>
+        <c:axId val="45514441"/>
+        <c:axId val="57720678"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51553277"/>
+        <c:axId val="45514441"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4282,13 +1506,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90449933"/>
+        <c:crossAx val="57720678"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90449933"/>
+        <c:axId val="57720678"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4321,7 +1545,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51553277"/>
+        <c:crossAx val="45514441"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4348,7 +1572,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4360,10 +1584,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101539878915504"/>
-          <c:y val="0.164411675281241"/>
-          <c:w val="0.856409581468808"/>
-          <c:h val="0.78526907874734"/>
+          <c:x val="0.101546561368871"/>
+          <c:y val="0.16442417331813"/>
+          <c:w val="0.856334320500165"/>
+          <c:h val="0.785176738882554"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4507,11 +1731,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="83753133"/>
-        <c:axId val="41325808"/>
+        <c:axId val="96152557"/>
+        <c:axId val="25150893"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83753133"/>
+        <c:axId val="96152557"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4548,8 +1772,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.23236377994209"/>
-              <c:y val="0.024247491638796"/>
+              <c:x val="0.232379072063179"/>
+              <c:y val="0.024325351577347"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4586,13 +1810,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41325808"/>
+        <c:crossAx val="25150893"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="41325808"/>
+        <c:axId val="25150893"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4625,7 +1849,3050 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83753133"/>
+        <c:crossAx val="96152557"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>April 2018 Station P1 N production rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'rate calcs'!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'rate calcs'!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="58240901"/>
+        <c:axId val="65142872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="58240901"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>N production rates (nM N/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65142872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65142872"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58240901"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101495175664727"/>
+          <c:y val="0.164517831561487"/>
+          <c:w val="0.856301097444207"/>
+          <c:h val="0.785116489482018"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="99686335"/>
+        <c:axId val="25850292"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99686335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25850292"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="25850292"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="99686335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206245890861275"/>
+          <c:y val="0.164422080805091"/>
+          <c:w val="0.731229454306377"/>
+          <c:h val="0.785185733313601"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.458945379710145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1077936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0826854260869565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.109472347826087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0303031414634146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0534941217391305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0412946991869919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0395239235951041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0356523414634146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0528342341463415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0150913183596891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="61931296"/>
+        <c:axId val="1276219"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61931296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276219"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1276219"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61931296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206288744491747"/>
+          <c:y val="0.196772588327291"/>
+          <c:w val="0.731271939651953"/>
+          <c:h val="0.752825762422691"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="28825243"/>
+        <c:axId val="66765116"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28825243"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.170214355067593"/>
+              <c:y val="0.00526053884979029"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66765116"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66765116"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28825243"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206262891430714"/>
+          <c:y val="0.164462718079787"/>
+          <c:w val="0.73123320207513"/>
+          <c:h val="0.785198355372819"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.5384347826087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1684472049689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.26771677018634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.77089192546584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99702299651568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.37509565217391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.93745505226481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99882289696366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.82317073170732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75685993031359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3486059807788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="26574962"/>
+        <c:axId val="66340166"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="26574962"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66340166"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66340166"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26574962"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10150204824761"/>
+          <c:y val="0.164491033755274"/>
+          <c:w val="0.856395084205735"/>
+          <c:h val="0.785139767932489"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="73898590"/>
+        <c:axId val="26333342"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="73898590"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="26333342"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26333342"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73898590"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101534047014678"/>
+          <c:y val="0.164435032108212"/>
+          <c:w val="0.856362432402605"/>
+          <c:h val="0.785216559639295"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="84986081"/>
+        <c:axId val="19942502"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84986081"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19942502"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="19942502"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84986081"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206265060240964"/>
+          <c:y val="0.196843853820598"/>
+          <c:w val="0.731265060240964"/>
+          <c:h val="0.752837763012182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030a0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030a0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="62581869"/>
+        <c:axId val="41968245"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62581869"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="41968245"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41968245"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62581869"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206265446529958"/>
+          <c:y val="0.164469696969697"/>
+          <c:w val="0.731280475586133"/>
+          <c:h val="0.785151515151515"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.749538086956522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.170358260869565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0737480347826087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136792486956522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0279583219512195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0612513391304348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0691243707317073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0839835205574913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0535243902439024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0665960390243902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0188804837309032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="36200379"/>
+        <c:axId val="78802236"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36200379"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78802236"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78802236"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36200379"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4663,9 +4930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>443160</xdr:colOff>
+      <xdr:colOff>442800</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4674,7 +4941,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1679760" y="4836960"/>
-        <a:ext cx="4462920" cy="4749120"/>
+        <a:ext cx="4462560" cy="4748760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4693,9 +4960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>633240</xdr:colOff>
+      <xdr:colOff>632880</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4704,7 +4971,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6531480" y="5376960"/>
-        <a:ext cx="4887720" cy="4774680"/>
+        <a:ext cx="4887360" cy="4774320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4723,9 +4990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1674000</xdr:colOff>
+      <xdr:colOff>1673640</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4734,7 +5001,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12412440" y="5376960"/>
-        <a:ext cx="5475600" cy="4865040"/>
+        <a:ext cx="5475240" cy="4864680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4753,9 +5020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>359280</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4764,7 +5031,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="41099040" y="3196800"/>
-        <a:ext cx="4820040" cy="5064120"/>
+        <a:ext cx="4819680" cy="5063760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4783,9 +5050,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4794,7 +5061,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17593920" y="5334480"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5759280" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4813,9 +5080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634680</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4824,7 +5091,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2046960" y="8191440"/>
-        <a:ext cx="6327360" cy="5460480"/>
+        <a:ext cx="6327000" cy="5460120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4843,9 +5110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>139320</xdr:colOff>
+      <xdr:colOff>138960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4854,7 +5121,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8711640" y="8381880"/>
-        <a:ext cx="6523920" cy="5269680"/>
+        <a:ext cx="6523560" cy="5269320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4873,9 +5140,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>576000</xdr:colOff>
+      <xdr:colOff>575640</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4884,7 +5151,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="44238960" y="2858040"/>
-        <a:ext cx="5976000" cy="5201280"/>
+        <a:ext cx="5975640" cy="5200920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4903,9 +5170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1015920</xdr:colOff>
+      <xdr:colOff>1015560</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4914,7 +5181,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16214040" y="8381880"/>
-        <a:ext cx="5389560" cy="4752000"/>
+        <a:ext cx="5389200" cy="4751640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4933,9 +5200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>691560</xdr:colOff>
+      <xdr:colOff>691200</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4944,7 +5211,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="50659200" y="2844720"/>
-        <a:ext cx="5790240" cy="5104080"/>
+        <a:ext cx="5789880" cy="5103720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4968,9 +5235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4979,7 +5246,42 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846600" y="3048480"/>
-        <a:ext cx="5470200" cy="4735800"/>
+        <a:ext cx="5469840" cy="4735440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>550440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5155920" y="555480"/>
+        <a:ext cx="3522240" cy="4040280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6123,12 +6425,12 @@
       <c r="X12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5" t="n">
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4" t="n">
         <v>16</v>
       </c>
       <c r="AC12" s="4"/>
@@ -6247,17 +6549,17 @@
       <c r="X13" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="6" t="n">
+      <c r="Y13" s="0" t="n">
         <v>179</v>
       </c>
-      <c r="Z13" s="6" t="n">
+      <c r="Z13" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="AA13" s="6" t="n">
+      <c r="AA13" s="0" t="n">
         <f aca="false">Z13/S9</f>
         <v>33.2905400742214</v>
       </c>
-      <c r="AB13" s="6" t="n">
+      <c r="AB13" s="0" t="n">
         <f aca="false">AA13*U9</f>
         <v>1.95189654880588</v>
       </c>
@@ -6286,17 +6588,17 @@
       <c r="X14" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y14" s="6" t="n">
+      <c r="Y14" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="Z14" s="6" t="n">
+      <c r="Z14" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="AA14" s="6" t="n">
+      <c r="AA14" s="0" t="n">
         <f aca="false">Z14/S9</f>
         <v>41.8816471901496</v>
       </c>
-      <c r="AB14" s="6" t="n">
+      <c r="AB14" s="0" t="n">
         <f aca="false">AA14*U9</f>
         <v>2.45561178720739</v>
       </c>
@@ -6325,14 +6627,13 @@
       <c r="X15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Y15" s="6" t="n">
+      <c r="Y15" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="Z15" s="6" t="n">
+      <c r="Z15" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="7" t="n">
+      <c r="AB15" s="5" t="n">
         <f aca="false">AA15*U10</f>
         <v>0</v>
       </c>
@@ -6361,14 +6662,13 @@
       <c r="X16" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Y16" s="6" t="n">
+      <c r="Y16" s="0" t="n">
         <v>122</v>
       </c>
-      <c r="Z16" s="6" t="n">
+      <c r="Z16" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="7" t="n">
+      <c r="AB16" s="5" t="n">
         <f aca="false">AA16*U11</f>
         <v>0</v>
       </c>
@@ -6397,14 +6697,13 @@
       <c r="X17" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Y17" s="6" t="n">
+      <c r="Y17" s="0" t="n">
         <v>145</v>
       </c>
-      <c r="Z17" s="6" t="n">
+      <c r="Z17" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="7" t="n">
+      <c r="AB17" s="5" t="n">
         <f aca="false">AA17*U12</f>
         <v>0</v>
       </c>
@@ -6433,14 +6732,13 @@
       <c r="X18" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Y18" s="6" t="n">
+      <c r="Y18" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="Z18" s="6" t="n">
+      <c r="Z18" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="7" t="n">
+      <c r="AB18" s="5" t="n">
         <f aca="false">AA18*U13</f>
         <v>0</v>
       </c>
@@ -6469,14 +6767,13 @@
       <c r="X19" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y19" s="6" t="n">
+      <c r="Y19" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="Z19" s="6" t="n">
+      <c r="Z19" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="7" t="n">
+      <c r="AB19" s="5" t="n">
         <f aca="false">AA19*U14</f>
         <v>0</v>
       </c>
@@ -6505,14 +6802,13 @@
       <c r="X20" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y20" s="6" t="n">
+      <c r="Y20" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="Z20" s="6" t="n">
+      <c r="Z20" s="0" t="n">
         <v>38.5</v>
       </c>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="7" t="n">
+      <c r="AB20" s="5" t="n">
         <f aca="false">AA20*U15</f>
         <v>0</v>
       </c>
@@ -6541,12 +6837,10 @@
       <c r="X21" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y21" s="6" t="n">
+      <c r="Y21" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="7" t="n">
+      <c r="AB21" s="5" t="n">
         <f aca="false">AA21*U16</f>
         <v>0</v>
       </c>
@@ -6572,14 +6866,13 @@
       <c r="X22" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y22" s="6" t="n">
+      <c r="Y22" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="Z22" s="6" t="n">
+      <c r="Z22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="7" t="n">
+      <c r="AB22" s="5" t="n">
         <f aca="false">AA22*U17</f>
         <v>0</v>
       </c>
@@ -6608,14 +6901,13 @@
       <c r="X23" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y23" s="6" t="n">
+      <c r="Y23" s="0" t="n">
         <v>221</v>
       </c>
-      <c r="Z23" s="6" t="n">
+      <c r="Z23" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="7" t="n">
+      <c r="AB23" s="5" t="n">
         <f aca="false">AA23*U18</f>
         <v>0</v>
       </c>
@@ -6627,14 +6919,13 @@
       <c r="X24" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y24" s="6" t="n">
+      <c r="Y24" s="0" t="n">
         <v>368</v>
       </c>
-      <c r="Z24" s="6" t="n">
+      <c r="Z24" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="7" t="n">
+      <c r="AB24" s="5" t="n">
         <f aca="false">AA24*U19</f>
         <v>0</v>
       </c>
@@ -6751,34 +7042,34 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="7" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>76</v>
       </c>
       <c r="F2" s="0" t="s">
@@ -7070,10 +7361,10 @@
       <c r="G3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="9" t="n">
         <v>103.2737</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -7114,21 +7405,21 @@
       <c r="G4" s="4" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="8" t="n">
         <v>32</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="10" t="n">
         <v>142.7073</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">I4*3.52</f>
         <v>502.329696</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="10" t="n">
         <v>111.2036</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="0" t="n">
         <f aca="false">(J4/1000)/(E4*(H4/24))</f>
         <v>0.819015808695652</v>
@@ -7166,7 +7457,7 @@
       <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="9" t="n">
         <v>56.6686</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -7210,7 +7501,7 @@
       <c r="H6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="9" t="n">
         <v>77.1038</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -7254,7 +7545,7 @@
       <c r="H7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="9" t="n">
         <v>72.3089</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -7295,17 +7586,17 @@
       <c r="G8" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="9" t="n">
         <v>275.9063</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">I8*3.52</f>
         <v>971.190176</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="9" t="n">
         <v>54.3155</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -7357,7 +7648,7 @@
       <c r="H9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="9" t="n">
         <v>149.5976</v>
       </c>
       <c r="J9" s="0" t="n">
@@ -7403,7 +7694,7 @@
       <c r="H10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="9" t="n">
         <v>88.8127</v>
       </c>
       <c r="J10" s="0" t="n">
@@ -7449,14 +7740,14 @@
       <c r="H11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="9" t="n">
         <v>175.4337</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">I11*3.52</f>
         <v>617.526624</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="9" t="n">
         <v>27.7126</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -7508,14 +7799,14 @@
       <c r="H12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="9" t="n">
         <v>418.4212</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12*3.52</f>
         <v>1472.842624</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="9" t="n">
         <v>49.3413</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -7567,17 +7858,17 @@
       <c r="H13" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="9" t="n">
         <v>224.1651</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">I13*3.52</f>
         <v>789.061152</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="10" t="n">
         <v>71.9624</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="9" t="n">
         <v>28.1653</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -7633,10 +7924,10 @@
   <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -7657,7 +7948,7 @@
       <c r="F1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7760,7 +8051,6 @@
         <v>0.2981113254</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>94</v>
@@ -9144,392 +9434,392 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="15" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="12" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="n">
+      <c r="A2" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="n">
+      <c r="C2" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="15" t="n">
+      <c r="D2" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="n">
+      <c r="E2" s="12" t="n">
         <v>5.50734455652174</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="n">
+      <c r="A3" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="n">
+      <c r="C3" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="12" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="15" t="n">
+      <c r="E3" s="12" t="n">
         <v>1.2935232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="n">
+      <c r="A4" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="12" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="15" t="n">
+      <c r="E4" s="12" t="n">
         <v>0.992225113043478</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="n">
+      <c r="A5" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="n">
+      <c r="C5" s="12" t="n">
         <v>113</v>
       </c>
-      <c r="D5" s="15" t="n">
+      <c r="D5" s="12" t="n">
         <v>34</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E5" s="12" t="n">
         <v>1.31366817391304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="n">
+      <c r="A6" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="n">
+      <c r="C6" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="D6" s="15" t="n">
+      <c r="D6" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="n">
+      <c r="E6" s="12" t="n">
         <v>0.363637697560976</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="n">
+      <c r="A7" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="12" t="n">
         <v>0.641929460869565</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="n">
+      <c r="A8" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="15" t="n">
+      <c r="C8" s="12" t="n">
         <v>140</v>
       </c>
-      <c r="D8" s="15" t="n">
+      <c r="D8" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="n">
+      <c r="E8" s="12" t="n">
         <v>0.495536390243902</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="n">
+      <c r="A9" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="15" t="n">
+      <c r="C9" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="D9" s="15" t="n">
+      <c r="D9" s="12" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="15" t="n">
+      <c r="E9" s="12" t="n">
         <v>0.474287083141249</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="n">
+      <c r="A10" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="15" t="n">
+      <c r="C10" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="15" t="n">
+      <c r="E10" s="12" t="n">
         <v>0.427828097560976</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15" t="n">
+      <c r="A11" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="12" t="n">
         <v>0.634010809756098</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="12" t="n">
         <v>179</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="12" t="n">
         <v>31</v>
       </c>
-      <c r="E12" s="15" t="n">
+      <c r="E12" s="12" t="n">
         <v>0.181095820316269</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="12" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="E13" s="15" t="n">
+      <c r="E13" s="12" t="n">
         <v>0.35039640768</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="n">
+      <c r="A14" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15" t="n">
+      <c r="C14" s="12" t="n">
         <v>93</v>
       </c>
-      <c r="D14" s="15" t="n">
+      <c r="D14" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="E14" s="15" t="n">
+      <c r="E14" s="12" t="n">
         <v>0.58685784336</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="15" t="n">
+      <c r="C15" s="12" t="n">
         <v>122</v>
       </c>
-      <c r="D15" s="15" t="n">
+      <c r="D15" s="12" t="n">
         <v>54</v>
       </c>
-      <c r="E15" s="15" t="n">
+      <c r="E15" s="12" t="n">
         <v>0.24311220636</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="15" t="n">
+      <c r="A16" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="15" t="n">
+      <c r="C16" s="12" t="n">
         <v>145</v>
       </c>
-      <c r="D16" s="15" t="n">
+      <c r="D16" s="12" t="n">
         <v>181</v>
       </c>
-      <c r="E16" s="15" t="n">
+      <c r="E16" s="12" t="n">
         <v>0.2981113254</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="n">
+      <c r="A17" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="15" t="n">
+      <c r="C17" s="12" t="n">
         <v>190</v>
       </c>
-      <c r="D17" s="15" t="n">
+      <c r="D17" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="E17" s="15" t="n">
+      <c r="E17" s="12" t="n">
         <v>1.3821818328</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="15" t="n">
+      <c r="A18" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="15" t="n">
+      <c r="C18" s="12" t="n">
         <v>85</v>
       </c>
-      <c r="D18" s="15" t="n">
+      <c r="D18" s="12" t="n">
         <v>530</v>
       </c>
-      <c r="E18" s="15" t="n">
+      <c r="E18" s="12" t="n">
         <v>1.3821818328</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="n">
+      <c r="A19" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="15" t="n">
+      <c r="C19" s="12" t="n">
         <v>87</v>
       </c>
-      <c r="D19" s="15" t="n">
+      <c r="D19" s="12" t="n">
         <v>38.5</v>
       </c>
-      <c r="E19" s="15" t="n">
+      <c r="E19" s="12" t="n">
         <v>0.65778210996</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15" t="n">
+      <c r="A20" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="15" t="n">
+      <c r="C20" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="E20" s="15" t="n">
+      <c r="E20" s="12" t="n">
         <v>1.7063034312</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15" t="n">
+      <c r="A21" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="15" t="n">
+      <c r="C21" s="12" t="n">
         <v>150</v>
       </c>
-      <c r="D21" s="15" t="n">
+      <c r="D21" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="15" t="n">
+      <c r="E21" s="12" t="n">
         <v>0.073060043712</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15" t="n">
+      <c r="A22" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="15" t="n">
+      <c r="C22" s="12" t="n">
         <v>221</v>
       </c>
-      <c r="D22" s="15" t="n">
+      <c r="D22" s="12" t="n">
         <v>13</v>
       </c>
       <c r="E22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15" t="n">
+      <c r="A23" s="12" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="15" t="n">
+      <c r="C23" s="12" t="n">
         <v>368</v>
       </c>
-      <c r="D23" s="15" t="n">
+      <c r="D23" s="12" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="15" t="n">
+      <c r="E23" s="12" t="n">
         <v>0.44133636708</v>
       </c>
     </row>
@@ -9541,5 +9831,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="P2 Flux not control subtracted" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="RLS calc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="2017 P2 Flux not control subtra" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2017 RLS calc" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="P1" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="2018" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="rate calcs" sheetId="5" state="visible" r:id="rId6"/>
@@ -919,7 +919,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -931,10 +931,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101476163587965"/>
-          <c:y val="0.164493632504548"/>
-          <c:w val="0.856336210373477"/>
-          <c:h val="0.785172832019406"/>
+          <c:x val="0.101502651738362"/>
+          <c:y val="0.164530236766702"/>
+          <c:w val="0.856216853270477"/>
+          <c:h val="0.785024883124717"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -943,6 +943,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -982,31 +993,16 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1048,7 +1044,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1090,13 +1086,14 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7990269"/>
-        <c:axId val="47948748"/>
+        <c:axId val="58380140"/>
+        <c:axId val="97936432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7990269"/>
+        <c:axId val="58380140"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1121,7 +1118,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>P2: Org C flux (mg C/m2-d)</a:t>
+                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1160,16 +1157,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47948748"/>
+        <c:crossAx val="97936432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47948748"/>
+        <c:axId val="97936432"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1199,7 +1196,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7990269"/>
+        <c:crossAx val="58380140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1226,7 +1223,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1238,10 +1235,2474 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206291967172345"/>
-          <c:y val="0.196783749471011"/>
-          <c:w val="0.731285749813479"/>
-          <c:h val="0.752786006488926"/>
+          <c:x val="0.206259451640476"/>
+          <c:y val="0.164434248501443"/>
+          <c:w val="0.731211782497206"/>
+          <c:h val="0.785095833641678"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.458945379710145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1077936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0826854260869565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.109472347826087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0303031414634146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0534941217391305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0412946991869919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0395239235951041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0356523414634146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0528342341463415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0150913183596891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="14097265"/>
+        <c:axId val="8096343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="14097265"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8096343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="8096343"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14097265"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206304152972811"/>
+          <c:y val="0.196786577562918"/>
+          <c:w val="0.73125186734389"/>
+          <c:h val="0.75273709654486"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="74197107"/>
+        <c:axId val="92485894"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74197107"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.17022706901703"/>
+              <c:y val="0.00526091283947107"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92485894"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="92485894"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74197107"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206275784473059"/>
+          <c:y val="0.164480995776839"/>
+          <c:w val="0.731216402050256"/>
+          <c:h val="0.785063347410536"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.5384347826087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1684472049689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.26771677018634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.77089192546584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99702299651568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.37509565217391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.93745505226481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99882289696366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.82317073170732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75685993031359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3486059807788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="96045290"/>
+        <c:axId val="14580634"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="96045290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14580634"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="14580634"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96045290"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101507823613087"/>
+          <c:y val="0.164501879079581"/>
+          <c:w val="0.856330014224751"/>
+          <c:h val="0.785059669018263"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="92638708"/>
+        <c:axId val="6110414"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92638708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="6110414"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="6110414"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92638708"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101539650129684"/>
+          <c:y val="0.164446266311403"/>
+          <c:w val="0.856299321229513"/>
+          <c:h val="0.78513356562137"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="4558718"/>
+        <c:axId val="30456787"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4558718"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30456787"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30456787"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4558718"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206277486595578"/>
+          <c:y val="0.196857479061397"/>
+          <c:w val="0.73124887041388"/>
+          <c:h val="0.75275143628435"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030a0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030a0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="24511708"/>
+        <c:axId val="30447867"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="24511708"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30447867"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="30447867"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24511708"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2062792251169"/>
+          <c:y val="0.164482157739223"/>
+          <c:w val="0.7312625250501"/>
+          <c:h val="0.785059474202591"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.749538086956522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.170358260869565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0737480347826087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136792486956522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0279583219512195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0612513391304348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0691243707317073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0839835205574913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0535243902439024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0665960390243902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0188804837309032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="92346369"/>
+        <c:axId val="36064037"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="92346369"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36064037"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="36064037"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92346369"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206304793881738"/>
+          <c:y val="0.196797629964026"/>
+          <c:w val="0.731269041845427"/>
+          <c:h val="0.7526980320237"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1372,7 +3833,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1381,7 +3842,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1423,7 +3884,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1468,11 +3929,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45514441"/>
-        <c:axId val="57720678"/>
+        <c:axId val="11938180"/>
+        <c:axId val="3378977"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45514441"/>
+        <c:axId val="11938180"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -1506,13 +3967,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57720678"/>
+        <c:crossAx val="3378977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57720678"/>
+        <c:axId val="3378977"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1545,7 +4006,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45514441"/>
+        <c:crossAx val="11938180"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1572,7 +4033,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1584,10 +4045,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101546561368871"/>
-          <c:y val="0.16442417331813"/>
-          <c:w val="0.856334320500165"/>
-          <c:h val="0.785176738882554"/>
+          <c:x val="0.101553244701856"/>
+          <c:y val="0.164436673255284"/>
+          <c:w val="0.856259049624852"/>
+          <c:h val="0.785084384977954"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1638,7 +4099,7 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -1731,11 +4192,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96152557"/>
-        <c:axId val="25150893"/>
+        <c:axId val="91107945"/>
+        <c:axId val="84390597"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96152557"/>
+        <c:axId val="91107945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1772,8 +4233,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.232379072063179"/>
-              <c:y val="0.024325351577347"/>
+              <c:x val="0.232394366197183"/>
+              <c:y val="0.0244032233541128"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1810,13 +4271,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25150893"/>
+        <c:crossAx val="84390597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25150893"/>
+        <c:axId val="84390597"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -1849,7 +4310,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96152557"/>
+        <c:crossAx val="91107945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1876,7 +4337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1946,13 +4407,14 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -2003,11 +4465,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58240901"/>
-        <c:axId val="65142872"/>
+        <c:axId val="75682182"/>
+        <c:axId val="87047372"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58240901"/>
+        <c:axId val="75682182"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +4503,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2063,12 +4525,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65142872"/>
+        <c:crossAx val="87047372"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65142872"/>
+        <c:axId val="87047372"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2102,7 +4564,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2124,9 +4586,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58240901"/>
+        <c:crossAx val="75682182"/>
         <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2151,7 +4613,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2163,10 +4625,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101495175664727"/>
-          <c:y val="0.164517831561487"/>
-          <c:w val="0.856301097444207"/>
-          <c:h val="0.785116489482018"/>
+          <c:x val="0.101484349790255"/>
+          <c:y val="0.164506102645743"/>
+          <c:w val="0.856243949661181"/>
+          <c:h val="0.785080736866045"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2175,17 +4637,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -2225,16 +4676,31 @@
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2276,7 +4742,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2318,14 +4784,13 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="99686335"/>
-        <c:axId val="25850292"/>
+        <c:axId val="32607835"/>
+        <c:axId val="35584253"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99686335"/>
+        <c:axId val="32607835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2350,7 +4815,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
+                  <a:t>P2: Org C flux (mg C/m2-d)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2389,16 +4854,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25850292"/>
+        <c:crossAx val="35584253"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25850292"/>
+        <c:axId val="35584253"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="300"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2428,2471 +4893,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99686335"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206245890861275"/>
-          <c:y val="0.164422080805091"/>
-          <c:w val="0.731229454306377"/>
-          <c:h val="0.785185733313601"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$R$3:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.458945379710145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1077936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0826854260869565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.109472347826087</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0303031414634146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0534941217391305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0412946991869919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0395239235951041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0356523414634146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0528342341463415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0150913183596891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="61931296"/>
-        <c:axId val="1276219"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="61931296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1276219"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1276219"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="61931296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206288744491747"/>
-          <c:y val="0.196772588327291"/>
-          <c:w val="0.731271939651953"/>
-          <c:h val="0.752825762422691"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="28825243"/>
-        <c:axId val="66765116"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="28825243"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.170214355067593"/>
-              <c:y val="0.00526053884979029"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66765116"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="66765116"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="28825243"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206262891430714"/>
-          <c:y val="0.164462718079787"/>
-          <c:w val="0.73123320207513"/>
-          <c:h val="0.785198355372819"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>53.5384347826087</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1684472049689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.26771677018634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.77089192546584</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.99702299651568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.37509565217391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.93745505226481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.99882289696366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.82317073170732</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.75685993031359</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3486059807788</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="26574962"/>
-        <c:axId val="66340166"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="26574962"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="66340166"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="66340166"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26574962"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10150204824761"/>
-          <c:y val="0.164491033755274"/>
-          <c:w val="0.856395084205735"/>
-          <c:h val="0.785139767932489"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="73898590"/>
-        <c:axId val="26333342"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="73898590"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26333342"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="26333342"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73898590"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.101534047014678"/>
-          <c:y val="0.164435032108212"/>
-          <c:w val="0.856362432402605"/>
-          <c:h val="0.785216559639295"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="84986081"/>
-        <c:axId val="19942502"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="84986081"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="19942502"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="19942502"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84986081"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206265060240964"/>
-          <c:y val="0.196843853820598"/>
-          <c:w val="0.731265060240964"/>
-          <c:h val="0.752837763012182"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030a0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030a0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'P2 Flux not control subtracted'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="62581869"/>
-        <c:axId val="41968245"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="62581869"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41968245"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="41968245"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62581869"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206265446529958"/>
-          <c:y val="0.164469696969697"/>
-          <c:w val="0.731280475586133"/>
-          <c:h val="0.785151515151515"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.749538086956522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.170358260869565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0737480347826087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.136792486956522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0279583219512195</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0612513391304348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0691243707317073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0839835205574913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0535243902439024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0665960390243902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0188804837309032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="36200379"/>
-        <c:axId val="78802236"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="36200379"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="78802236"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="78802236"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36200379"/>
+        <c:crossAx val="32607835"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4930,9 +4931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
+      <xdr:colOff>442440</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4941,7 +4942,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1679760" y="4836960"/>
-        <a:ext cx="4462560" cy="4748760"/>
+        <a:ext cx="4462200" cy="4748400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4960,9 +4961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>632880</xdr:colOff>
+      <xdr:colOff>632520</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4971,7 +4972,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6531480" y="5376960"/>
-        <a:ext cx="4887360" cy="4774320"/>
+        <a:ext cx="4887000" cy="4773960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4990,9 +4991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1673640</xdr:colOff>
+      <xdr:colOff>1673280</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5001,7 +5002,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12412440" y="5376960"/>
-        <a:ext cx="5475240" cy="4864680"/>
+        <a:ext cx="5474880" cy="4864320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5020,9 +5021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>358920</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5031,7 +5032,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="41099040" y="3196800"/>
-        <a:ext cx="4819680" cy="5063760"/>
+        <a:ext cx="4819320" cy="5063400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5050,9 +5051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>578520</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5061,7 +5062,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17593920" y="5334480"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5080,9 +5081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>634680</xdr:colOff>
+      <xdr:colOff>634320</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5091,7 +5092,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2046960" y="8191440"/>
-        <a:ext cx="6327000" cy="5460120"/>
+        <a:ext cx="6326640" cy="5459760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5110,9 +5111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5121,7 +5122,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8711640" y="8381880"/>
-        <a:ext cx="6523560" cy="5269320"/>
+        <a:ext cx="6523200" cy="5268960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5140,9 +5141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
+      <xdr:colOff>575280</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5151,7 +5152,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="44238960" y="2858040"/>
-        <a:ext cx="5975640" cy="5200920"/>
+        <a:ext cx="5975280" cy="5200560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5170,9 +5171,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1015560</xdr:colOff>
+      <xdr:colOff>1015200</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5181,7 +5182,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16214040" y="8381880"/>
-        <a:ext cx="5389200" cy="4751640"/>
+        <a:ext cx="5388840" cy="4751280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5200,9 +5201,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>691200</xdr:colOff>
+      <xdr:colOff>690840</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5211,7 +5212,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="50659200" y="2844720"/>
-        <a:ext cx="5789880" cy="5103720"/>
+        <a:ext cx="5789520" cy="5103360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5235,9 +5236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5246,7 +5247,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846600" y="3048480"/>
-        <a:ext cx="5469840" cy="4735440"/>
+        <a:ext cx="5469480" cy="4735080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5270,9 +5271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>550440</xdr:colOff>
+      <xdr:colOff>550080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5281,7 +5282,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5155920" y="555480"/>
-        <a:ext cx="3522240" cy="4040280"/>
+        <a:ext cx="3521880" cy="4039920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7026,7 +7027,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7043,10 +7044,10 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.66"/>
   </cols>
@@ -7208,7 +7209,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7907,7 +7908,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9419,7 +9420,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -9826,7 +9827,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 Flux not control subtra" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="202">
   <si>
     <t xml:space="preserve">P2</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t xml:space="preserve">Organic C flux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2 predicted C remin (nM C/day) if all denit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2 predicted C remin (nM C/day) if 60% denit</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -931,10 +937,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101502651738362"/>
-          <c:y val="0.164530236766702"/>
-          <c:w val="0.856216853270477"/>
-          <c:h val="0.785024883124717"/>
+          <c:x val="0.101492537313433"/>
+          <c:y val="0.164518574677786"/>
+          <c:w val="0.856151674062122"/>
+          <c:h val="0.784988627748294"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -943,17 +949,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -1000,6 +995,21 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9360">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
@@ -1086,14 +1096,13 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="58380140"/>
-        <c:axId val="97936432"/>
+        <c:axId val="58141622"/>
+        <c:axId val="80687897"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58380140"/>
+        <c:axId val="58141622"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1118,7 +1127,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
+                  <a:t>P2: Org C flux (mg C/m2-d)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1157,16 +1166,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97936432"/>
+        <c:crossAx val="80687897"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97936432"/>
+        <c:axId val="80687897"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="300"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1196,7 +1205,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58380140"/>
+        <c:crossAx val="58141622"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1223,7 +1232,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1235,2474 +1244,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206259451640476"/>
-          <c:y val="0.164434248501443"/>
-          <c:w val="0.731211782497206"/>
-          <c:h val="0.785095833641678"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$R$3:$R$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.458945379710145</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1077936</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0826854260869565</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.109472347826087</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0303031414634146</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0534941217391305</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0412946991869919</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0395239235951041</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0356523414634146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0528342341463415</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0150913183596891</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="14097265"/>
-        <c:axId val="8096343"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="14097265"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="0.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="8096343"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="8096343"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14097265"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206304152972811"/>
-          <c:y val="0.196786577562918"/>
-          <c:w val="0.73125186734389"/>
-          <c:h val="0.75273709654486"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="74197107"/>
-        <c:axId val="92485894"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="74197107"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.17022706901703"/>
-              <c:y val="0.00526091283947107"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92485894"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="92485894"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="74197107"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206275784473059"/>
-          <c:y val="0.164480995776839"/>
-          <c:w val="0.731216402050256"/>
-          <c:h val="0.785063347410536"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>53.5384347826087</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.1684472049689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.26771677018634</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.77089192546584</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.99702299651568</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.37509565217391</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.93745505226481</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.99882289696366</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.82317073170732</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.75685993031359</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3486059807788</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="96045290"/>
-        <c:axId val="14580634"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="96045290"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="60"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14580634"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="14580634"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="96045290"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.101507823613087"/>
-          <c:y val="0.164501879079581"/>
-          <c:w val="0.856330014224751"/>
-          <c:h val="0.785059669018263"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="92638708"/>
-        <c:axId val="6110414"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="92638708"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="6110414"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="6110414"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92638708"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.101539650129684"/>
-          <c:y val="0.164446266311403"/>
-          <c:w val="0.856299321229513"/>
-          <c:h val="0.78513356562137"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00b050"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="16"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00b050"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>5.50734455652174</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2935232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.992225113043478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.31366817391304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.363637697560976</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.641929460869565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.495536390243902</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.474287083141249</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.427828097560976</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.634010809756098</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.181095820316269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="4558718"/>
-        <c:axId val="30456787"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="4558718"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="6"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30456787"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="30456787"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="4558718"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="50"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206277486595578"/>
-          <c:y val="0.196857479061397"/>
-          <c:w val="0.73124887041388"/>
-          <c:h val="0.75275143628435"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030a0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030a0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="24511708"/>
-        <c:axId val="30447867"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="24511708"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="30447867"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="30447867"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="24511708"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2062792251169"/>
-          <c:y val="0.164482157739223"/>
-          <c:w val="0.7312625250501"/>
-          <c:h val="0.785059474202591"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070c0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0070c0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.749538086956522</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.170358260869565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0737480347826087</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.136792486956522</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.0279583219512195</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0612513391304348</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.0691243707317073</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.0839835205574913</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.0535243902439024</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0665960390243902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0188804837309032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>452</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>965</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="92346369"/>
-        <c:axId val="36064037"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="92346369"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36064037"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="36064037"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92346369"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206304793881738"/>
-          <c:y val="0.196797629964026"/>
-          <c:w val="0.731269041845427"/>
-          <c:h val="0.7526980320237"/>
+          <c:x val="0.206317622186295"/>
+          <c:y val="0.19681151241535"/>
+          <c:w val="0.731252331799527"/>
+          <c:h val="0.752610045146727"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3929,11 +1474,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11938180"/>
-        <c:axId val="3378977"/>
+        <c:axId val="72362696"/>
+        <c:axId val="35471675"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11938180"/>
+        <c:axId val="72362696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -3967,13 +1512,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3378977"/>
+        <c:crossAx val="35471675"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="3378977"/>
+        <c:axId val="35471675"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4006,7 +1551,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11938180"/>
+        <c:crossAx val="72362696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4033,7 +1578,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4045,10 +1590,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101553244701856"/>
-          <c:y val="0.164436673255284"/>
-          <c:w val="0.856259049624852"/>
-          <c:h val="0.785084384977954"/>
+          <c:x val="0.101559928914632"/>
+          <c:y val="0.164449175093135"/>
+          <c:w val="0.856183768840914"/>
+          <c:h val="0.784992017030335"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4192,11 +1737,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="91107945"/>
-        <c:axId val="84390597"/>
+        <c:axId val="91607210"/>
+        <c:axId val="2829536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91107945"/>
+        <c:axId val="91607210"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4233,8 +1778,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.232394366197183"/>
-              <c:y val="0.0244032233541128"/>
+              <c:x val="0.232409662344501"/>
+              <c:y val="0.0244811069717935"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4271,13 +1816,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84390597"/>
+        <c:crossAx val="2829536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84390597"/>
+        <c:axId val="2829536"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4310,7 +1855,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91107945"/>
+        <c:crossAx val="91607210"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4337,7 +1882,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4465,11 +2010,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75682182"/>
-        <c:axId val="87047372"/>
+        <c:axId val="21583493"/>
+        <c:axId val="60015099"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75682182"/>
+        <c:axId val="21583493"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4525,12 +2070,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87047372"/>
+        <c:crossAx val="60015099"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87047372"/>
+        <c:axId val="60015099"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4586,7 +2131,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75682182"/>
+        <c:crossAx val="21583493"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4613,7 +2158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4625,10 +2170,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101484349790255"/>
-          <c:y val="0.164506102645743"/>
-          <c:w val="0.856243949661181"/>
-          <c:h val="0.785080736866045"/>
+          <c:x val="0.101510128913444"/>
+          <c:y val="0.164542643842847"/>
+          <c:w val="0.856132596685083"/>
+          <c:h val="0.784933262951512"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4637,6 +2182,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -4683,21 +2239,6 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9360">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-            </c:spPr>
-            <c:trendlineType val="power"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
@@ -4784,13 +2325,14 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32607835"/>
-        <c:axId val="35584253"/>
+        <c:axId val="32175431"/>
+        <c:axId val="60644456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32607835"/>
+        <c:axId val="32175431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4815,7 +2357,7 @@
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:rPr>
-                  <a:t>P2: Org C flux (mg C/m2-d)</a:t>
+                  <a:t>P2 2017: C flux (mg C/m2-d)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4854,16 +2396,16 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35584253"/>
+        <c:crossAx val="60644456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35584253"/>
+        <c:axId val="60644456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="1000"/>
+          <c:max val="300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4893,7 +2435,2471 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32607835"/>
+        <c:crossAx val="32175431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206273014203051"/>
+          <c:y val="0.164446417998816"/>
+          <c:w val="0.731194108364019"/>
+          <c:h val="0.785005920663114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$R$3:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.458945379710145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1077936</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0826854260869565</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.109472347826087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0303031414634146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0534941217391305</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0412946991869919</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0395239235951041</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0356523414634146</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0528342341463415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0150913183596891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="30839056"/>
+        <c:axId val="75592514"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="30839056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mmol C/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="75592514"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75592514"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30839056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206319563755883"/>
+          <c:y val="0.196800568787771"/>
+          <c:w val="0.731231792037051"/>
+          <c:h val="0.752648418059012"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffffff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="43176056"/>
+        <c:axId val="88614064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="43176056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.170239784865915"/>
+              <c:y val="0.00526128688233203"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88614064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="88614064"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="43176056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206288679127336"/>
+          <c:y val="0.164499277536957"/>
+          <c:w val="0.731199599924986"/>
+          <c:h val="0.784928309436479"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>53.5384347826087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.1684472049689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.26771677018634</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.77089192546584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.99702299651568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.37509565217391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.93745505226481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.99882289696366</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.82317073170732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75685993031359</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3486059807788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="4808518"/>
+        <c:axId val="24541732"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="4808518"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (umol N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24541732"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24541732"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4808518"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101513599635826"/>
+          <c:y val="0.164512725834103"/>
+          <c:w val="0.856264936838512"/>
+          <c:h val="0.784979559541079"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="66643135"/>
+        <c:axId val="95911245"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66643135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95911245"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95911245"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66643135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.101545253863135"/>
+          <c:y val="0.16445750204974"/>
+          <c:w val="0.856236203090508"/>
+          <c:h val="0.785050560262367"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="99ccff"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00b050"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="16"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00b050"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.50734455652174</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2935232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.992225113043478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31366817391304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.363637697560976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.641929460869565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.495536390243902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.474287083141249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.427828097560976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.634010809756098</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.181095820316269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Q$3:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="57113566"/>
+        <c:axId val="50166557"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="57113566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50166557"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50166557"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57113566"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206289914447524"/>
+          <c:y val="0.196871106188564"/>
+          <c:w val="0.73123267863598"/>
+          <c:h val="0.752665097604873"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030a0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030a0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$AB$3:$AB$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.52542014905108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.88247895483209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.80415754312583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.69378149232115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.53558820867151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.88893214400569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51114571520455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.95189654880588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.45561178720739</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2017 P2 Flux not control subtra'!$Y$3:$Y$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="7986392"/>
+        <c:axId val="3658480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="7986392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3658480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="3658480"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="7986392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.206293005544793"/>
+          <c:y val="0.16449462039703"/>
+          <c:w val="0.731244572115706"/>
+          <c:h val="0.784967419305955"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0070c0"/>
+            </a:solidFill>
+            <a:ln w="47520">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070c0"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="square"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.749538086956522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.170358260869565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0737480347826087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.136792486956522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0279583219512195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0612513391304348</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0691243707317073</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0839835205574913</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0535243902439024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0665960390243902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0188804837309032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>965</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="72256931"/>
+        <c:axId val="61505070"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72256931"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>P2 2017: Flux (mg N/m2-d)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="61505070"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="61505070"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9360">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72256931"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4931,9 +4937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>442440</xdr:colOff>
+      <xdr:colOff>442080</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4942,7 +4948,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1679760" y="4836960"/>
-        <a:ext cx="4462200" cy="4748400"/>
+        <a:ext cx="4461840" cy="4748040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4961,9 +4967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4972,7 +4978,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6531480" y="5376960"/>
-        <a:ext cx="4887000" cy="4773960"/>
+        <a:ext cx="4886640" cy="4773600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4991,9 +4997,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1673280</xdr:colOff>
+      <xdr:colOff>1672920</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5002,7 +5008,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12412440" y="5376960"/>
-        <a:ext cx="5474880" cy="4864320"/>
+        <a:ext cx="5474520" cy="4863960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5021,9 +5027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>358560</xdr:colOff>
+      <xdr:colOff>358200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5032,7 +5038,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="41099040" y="3196800"/>
-        <a:ext cx="4819320" cy="5063400"/>
+        <a:ext cx="4818960" cy="5063040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5051,9 +5057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>578160</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:colOff>577800</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5062,7 +5068,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17593920" y="5334480"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5081,9 +5087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>634320</xdr:colOff>
+      <xdr:colOff>633960</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5092,7 +5098,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2046960" y="8191440"/>
-        <a:ext cx="6326640" cy="5459760"/>
+        <a:ext cx="6326280" cy="5459400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5111,9 +5117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>138600</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5122,7 +5128,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8711640" y="8381880"/>
-        <a:ext cx="6523200" cy="5268960"/>
+        <a:ext cx="6522840" cy="5268600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5141,9 +5147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>574920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5152,7 +5158,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="44238960" y="2858040"/>
-        <a:ext cx="5975280" cy="5200560"/>
+        <a:ext cx="5974920" cy="5200200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5171,9 +5177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1015200</xdr:colOff>
+      <xdr:colOff>1014840</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5182,7 +5188,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16214040" y="8381880"/>
-        <a:ext cx="5388840" cy="4751280"/>
+        <a:ext cx="5388480" cy="4750920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5201,9 +5207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>690840</xdr:colOff>
+      <xdr:colOff>690480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5212,7 +5218,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="50659200" y="2844720"/>
-        <a:ext cx="5789520" cy="5103360"/>
+        <a:ext cx="5789160" cy="5103000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5236,9 +5242,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>137880</xdr:colOff>
+      <xdr:colOff>137520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5247,7 +5253,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846600" y="3048480"/>
-        <a:ext cx="5469480" cy="4735080"/>
+        <a:ext cx="5469120" cy="4734720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5264,16 +5270,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>797400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>255240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5281,8 +5287,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5155920" y="555480"/>
-        <a:ext cx="3521880" cy="4039920"/>
+        <a:off x="8112600" y="364680"/>
+        <a:ext cx="3521520" cy="4039560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5302,8 +5308,8 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z3" activeCellId="0" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7043,11 +7049,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.66"/>
   </cols>
@@ -9433,10 +9439,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9444,7 +9450,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="12" width="8.36"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>103</v>
       </c>
@@ -9460,8 +9466,14 @@
       <c r="E1" s="12" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9477,8 +9489,16 @@
       <c r="E2" s="12" t="n">
         <v>5.50734455652174</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="12" t="n">
+        <f aca="false">D2*2.2457</f>
+        <v>33.6855</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <f aca="false">F2*0.6</f>
+        <v>20.2113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9494,8 +9514,16 @@
       <c r="E3" s="12" t="n">
         <v>1.2935232</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="12" t="n">
+        <f aca="false">D3*2.2457</f>
+        <v>65.1253</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <f aca="false">F3*0.6</f>
+        <v>39.07518</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9508,8 +9536,16 @@
       <c r="E4" s="12" t="n">
         <v>0.992225113043478</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F4" s="12" t="n">
+        <f aca="false">D4*2.2457</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <f aca="false">F4*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9525,8 +9561,16 @@
       <c r="E5" s="12" t="n">
         <v>1.31366817391304</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="12" t="n">
+        <f aca="false">D5*2.2457</f>
+        <v>76.3538</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <f aca="false">F5*0.6</f>
+        <v>45.81228</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9542,8 +9586,16 @@
       <c r="E6" s="12" t="n">
         <v>0.363637697560976</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F6" s="12" t="n">
+        <f aca="false">D6*2.2457</f>
+        <v>35.9312</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <f aca="false">F6*0.6</f>
+        <v>21.55872</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9559,8 +9611,16 @@
       <c r="E7" s="12" t="n">
         <v>0.641929460869565</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="12" t="n">
+        <f aca="false">D7*2.2457</f>
+        <v>47.1597</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <f aca="false">F7*0.6</f>
+        <v>28.29582</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9576,8 +9636,16 @@
       <c r="E8" s="12" t="n">
         <v>0.495536390243902</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="12" t="n">
+        <f aca="false">D8*2.2457</f>
+        <v>22.457</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <f aca="false">F8*0.6</f>
+        <v>13.4742</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9593,8 +9661,16 @@
       <c r="E9" s="12" t="n">
         <v>0.474287083141249</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="12" t="n">
+        <f aca="false">D9*2.2457</f>
+        <v>67.371</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <f aca="false">F9*0.6</f>
+        <v>40.4226</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9610,8 +9686,16 @@
       <c r="E10" s="12" t="n">
         <v>0.427828097560976</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F10" s="12" t="n">
+        <f aca="false">D10*2.2457</f>
+        <v>53.8968</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <f aca="false">F10*0.6</f>
+        <v>32.33808</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9624,8 +9708,16 @@
       <c r="E11" s="12" t="n">
         <v>0.634010809756098</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="12" t="n">
+        <f aca="false">D11*2.2457</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <f aca="false">F11*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9641,8 +9733,16 @@
       <c r="E12" s="12" t="n">
         <v>0.181095820316269</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="12" t="n">
+        <f aca="false">D12*2.2457</f>
+        <v>69.6167</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <f aca="false">F12*0.6</f>
+        <v>41.77002</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="n">
         <v>2017</v>
       </c>
@@ -9658,8 +9758,16 @@
       <c r="E13" s="12" t="n">
         <v>0.35039640768</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="12" t="n">
+        <f aca="false">D13*2.2457</f>
+        <v>87.5823</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <f aca="false">F13*0.6</f>
+        <v>52.54938</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9675,8 +9783,16 @@
       <c r="E14" s="12" t="n">
         <v>0.58685784336</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="12" t="n">
+        <f aca="false">D14*2.2457</f>
+        <v>359.312</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">F14*0.6</f>
+        <v>215.5872</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9692,8 +9808,16 @@
       <c r="E15" s="12" t="n">
         <v>0.24311220636</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="12" t="n">
+        <f aca="false">D15*2.2457</f>
+        <v>121.2678</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <f aca="false">F15*0.6</f>
+        <v>72.76068</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9709,8 +9833,16 @@
       <c r="E16" s="12" t="n">
         <v>0.2981113254</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="12" t="n">
+        <f aca="false">D16*2.2457</f>
+        <v>406.4717</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <f aca="false">F16*0.6</f>
+        <v>243.88302</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9726,8 +9858,16 @@
       <c r="E17" s="12" t="n">
         <v>1.3821818328</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="12" t="n">
+        <f aca="false">D17*2.2457</f>
+        <v>143.7248</v>
+      </c>
+      <c r="G17" s="12" t="n">
+        <f aca="false">F17*0.6</f>
+        <v>86.23488</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9743,8 +9883,16 @@
       <c r="E18" s="12" t="n">
         <v>1.3821818328</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="12" t="n">
+        <f aca="false">D18*2.2457</f>
+        <v>1190.221</v>
+      </c>
+      <c r="G18" s="12" t="n">
+        <f aca="false">F18*0.6</f>
+        <v>714.1326</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9760,8 +9908,16 @@
       <c r="E19" s="12" t="n">
         <v>0.65778210996</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="12" t="n">
+        <f aca="false">D19*2.2457</f>
+        <v>86.45945</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <f aca="false">F19*0.6</f>
+        <v>51.87567</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9774,8 +9930,16 @@
       <c r="E20" s="12" t="n">
         <v>1.7063034312</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="12" t="n">
+        <f aca="false">D20*2.2457</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="n">
+        <f aca="false">F20*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9790,6 +9954,14 @@
       </c>
       <c r="E21" s="12" t="n">
         <v>0.073060043712</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <f aca="false">D21*2.2457</f>
+        <v>22.457</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <f aca="false">F21*0.6</f>
+        <v>13.4742</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,8 +9978,16 @@
         <v>13</v>
       </c>
       <c r="E22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="12" t="n">
+        <f aca="false">D22*2.2457</f>
+        <v>29.1941</v>
+      </c>
+      <c r="G22" s="12" t="n">
+        <f aca="false">F22*0.6</f>
+        <v>17.51646</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="n">
         <v>2018</v>
       </c>
@@ -9822,6 +10002,14 @@
       </c>
       <c r="E23" s="12" t="n">
         <v>0.44133636708</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <f aca="false">D23*2.2457</f>
+        <v>842.1375</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <f aca="false">F23*0.6</f>
+        <v>505.2825</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="216">
   <si>
     <t xml:space="preserve">P2</t>
   </si>
@@ -192,79 +192,103 @@
     <t xml:space="preserve">Keil 3-21</t>
   </si>
   <si>
+    <t xml:space="preserve">top collector: 600 mL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incubation bottle: 1 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of cone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area of net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23 m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Their punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4% of their punch would be white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">green circle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38.1 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adjusted area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conversion factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org C flux (not ctl sub) mg OC/m2/d</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1</t>
   </si>
   <si>
     <t xml:space="preserve">Keil 3-44</t>
   </si>
   <si>
-    <t xml:space="preserve">top collector: 600 mL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incubation bottle: 1 L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of cone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area of net</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.23 m2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Their punch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4% of their punch would be white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mm2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">green circle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38.1 mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adjusted area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conversion factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trap type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vol sampled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Org C flux (not ctl sub) mg OC/m2/d</t>
+    <t xml:space="preserve">Keil 2-38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 2-43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 3-39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 3-36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 4-34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 1-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 2-33</t>
   </si>
   <si>
     <t xml:space="preserve">P2 Flux (fz)                      (control not subtracted)</t>
@@ -343,6 +367,9 @@
   </si>
   <si>
     <t xml:space="preserve">Org C flux mg org C/m2-d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vol sampled for filtering</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -657,7 +684,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -691,6 +718,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -815,7 +849,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -825,6 +859,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,23 +882,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -868,7 +902,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -936,7 +974,7 @@
       <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -945,7 +983,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1116,11 +1154,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93300701"/>
-        <c:axId val="48630381"/>
+        <c:axId val="62169073"/>
+        <c:axId val="37693027"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93300701"/>
+        <c:axId val="62169073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,13 +1224,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48630381"/>
+        <c:crossAx val="37693027"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48630381"/>
+        <c:axId val="37693027"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1225,7 +1263,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93300701"/>
+        <c:crossAx val="62169073"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1252,7 +1290,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1419,11 +1457,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22019908"/>
-        <c:axId val="43876681"/>
+        <c:axId val="52859360"/>
+        <c:axId val="31672390"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22019908"/>
+        <c:axId val="52859360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1490,13 +1528,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43876681"/>
+        <c:crossAx val="31672390"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="43876681"/>
+        <c:axId val="31672390"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1529,7 +1567,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22019908"/>
+        <c:crossAx val="52859360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1556,7 +1594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1723,11 +1761,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72092904"/>
-        <c:axId val="63533541"/>
+        <c:axId val="24928325"/>
+        <c:axId val="88202695"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72092904"/>
+        <c:axId val="24928325"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1795,12 +1833,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63533541"/>
+        <c:crossAx val="88202695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63533541"/>
+        <c:axId val="88202695"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1867,7 +1905,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72092904"/>
+        <c:crossAx val="24928325"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1894,7 +1932,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1987,9 +2025,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -2004,9 +2039,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -2136,9 +2168,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -2153,9 +2182,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -2213,11 +2239,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6026944"/>
-        <c:axId val="5141772"/>
+        <c:axId val="73290245"/>
+        <c:axId val="26326788"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6026944"/>
+        <c:axId val="73290245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2293,13 +2319,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5141772"/>
+        <c:crossAx val="26326788"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5141772"/>
+        <c:axId val="26326788"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2366,7 +2392,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6026944"/>
+        <c:crossAx val="73290245"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2393,7 +2419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2560,11 +2586,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="60582392"/>
-        <c:axId val="24572511"/>
+        <c:axId val="48286331"/>
+        <c:axId val="52475171"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60582392"/>
+        <c:axId val="48286331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2632,12 +2658,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24572511"/>
+        <c:crossAx val="52475171"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24572511"/>
+        <c:axId val="52475171"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2704,7 +2730,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60582392"/>
+        <c:crossAx val="48286331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2731,7 +2757,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2887,11 +2913,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11780003"/>
-        <c:axId val="12020816"/>
+        <c:axId val="42003289"/>
+        <c:axId val="48598526"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11780003"/>
+        <c:axId val="42003289"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2923,13 +2949,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12020816"/>
+        <c:crossAx val="48598526"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12020816"/>
+        <c:axId val="48598526"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2962,7 +2988,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11780003"/>
+        <c:crossAx val="42003289"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -2990,7 +3016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3303,11 +3329,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14423818"/>
-        <c:axId val="24541765"/>
+        <c:axId val="42519133"/>
+        <c:axId val="46314170"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14423818"/>
+        <c:axId val="42519133"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3340,13 +3366,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24541765"/>
+        <c:crossAx val="46314170"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24541765"/>
+        <c:axId val="46314170"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3379,7 +3405,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14423818"/>
+        <c:crossAx val="42519133"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3407,7 +3433,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3500,9 +3526,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -3517,9 +3540,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -3577,11 +3597,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="35033584"/>
-        <c:axId val="5958620"/>
+        <c:axId val="31320666"/>
+        <c:axId val="38217924"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35033584"/>
+        <c:axId val="31320666"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3615,13 +3635,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5958620"/>
+        <c:crossAx val="38217924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5958620"/>
+        <c:axId val="38217924"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3654,7 +3674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35033584"/>
+        <c:crossAx val="31320666"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3681,7 +3701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3848,11 +3868,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75317700"/>
-        <c:axId val="54652617"/>
+        <c:axId val="70190566"/>
+        <c:axId val="19969720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75317700"/>
+        <c:axId val="70190566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3920,13 +3940,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54652617"/>
+        <c:crossAx val="19969720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54652617"/>
+        <c:axId val="19969720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3993,7 +4013,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75317700"/>
+        <c:crossAx val="70190566"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4020,7 +4040,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4185,9 +4205,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -4202,9 +4219,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -4262,11 +4276,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54495883"/>
-        <c:axId val="54363861"/>
+        <c:axId val="9428900"/>
+        <c:axId val="44536541"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54495883"/>
+        <c:axId val="9428900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4300,13 +4314,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54363861"/>
+        <c:crossAx val="44536541"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54363861"/>
+        <c:axId val="44536541"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4339,7 +4353,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54495883"/>
+        <c:crossAx val="9428900"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4366,7 +4380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4453,7 +4467,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4495,7 +4509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4537,11 +4551,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63081981"/>
-        <c:axId val="5755261"/>
+        <c:axId val="14122102"/>
+        <c:axId val="98093888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63081981"/>
+        <c:axId val="14122102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4607,13 +4621,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5755261"/>
+        <c:crossAx val="98093888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5755261"/>
+        <c:axId val="98093888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4646,7 +4660,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63081981"/>
+        <c:crossAx val="14122102"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4673,7 +4687,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4697,6 +4711,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -4745,7 +4770,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4787,7 +4812,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4829,11 +4854,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67452678"/>
-        <c:axId val="10280877"/>
+        <c:axId val="20971435"/>
+        <c:axId val="59366475"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67452678"/>
+        <c:axId val="20971435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4900,13 +4925,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10280877"/>
+        <c:crossAx val="59366475"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10280877"/>
+        <c:axId val="59366475"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4939,7 +4964,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67452678"/>
+        <c:crossAx val="20971435"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4966,7 +4991,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4990,6 +5015,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -5038,7 +5074,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$R$3:$R$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$R$3:$R$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5080,7 +5116,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5122,11 +5158,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8689037"/>
-        <c:axId val="12200104"/>
+        <c:axId val="31667658"/>
+        <c:axId val="80198625"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8689037"/>
+        <c:axId val="31667658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5194,12 +5230,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12200104"/>
+        <c:crossAx val="80198625"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12200104"/>
+        <c:axId val="80198625"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5266,7 +5302,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8689037"/>
+        <c:crossAx val="31667658"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5293,7 +5329,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5317,6 +5353,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="99ccff"/>
@@ -5365,7 +5412,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5375,9 +5422,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -5392,9 +5436,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -5407,7 +5448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5455,6 +5496,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ffffff"/>
@@ -5503,7 +5555,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5513,9 +5565,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -5530,9 +5579,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -5545,7 +5591,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5590,11 +5636,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="29586489"/>
-        <c:axId val="37974124"/>
+        <c:axId val="53101104"/>
+        <c:axId val="62336270"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29586489"/>
+        <c:axId val="53101104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5670,13 +5716,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37974124"/>
+        <c:crossAx val="62336270"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37974124"/>
+        <c:axId val="62336270"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -5743,7 +5789,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29586489"/>
+        <c:crossAx val="53101104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5770,7 +5816,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5937,11 +5983,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62841802"/>
-        <c:axId val="19465218"/>
+        <c:axId val="43767619"/>
+        <c:axId val="14241142"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62841802"/>
+        <c:axId val="43767619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -6009,12 +6055,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19465218"/>
+        <c:crossAx val="14241142"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19465218"/>
+        <c:axId val="14241142"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6081,7 +6127,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62841802"/>
+        <c:crossAx val="43767619"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6108,7 +6154,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6180,7 +6226,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6222,7 +6268,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6264,11 +6310,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="71980667"/>
-        <c:axId val="87282361"/>
+        <c:axId val="74572577"/>
+        <c:axId val="47733590"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71980667"/>
+        <c:axId val="74572577"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6300,13 +6346,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87282361"/>
+        <c:crossAx val="47733590"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87282361"/>
+        <c:axId val="47733590"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6339,7 +6385,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71980667"/>
+        <c:crossAx val="74572577"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -6367,7 +6413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6391,6 +6437,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="99ccff"/>
@@ -6439,7 +6496,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6481,7 +6538,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6526,6 +6583,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"FLux"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FLux</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="00b050"/>
@@ -6574,7 +6642,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$N$3:$N$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6616,7 +6684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2018 P1 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
+              <c:f>'2017 P2 rates not ctl sub'!$Q$3:$Q$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6658,11 +6726,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41135345"/>
-        <c:axId val="91963952"/>
+        <c:axId val="84469433"/>
+        <c:axId val="81483636"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41135345"/>
+        <c:axId val="84469433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6695,13 +6763,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91963952"/>
+        <c:crossAx val="81483636"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91963952"/>
+        <c:axId val="81483636"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6734,7 +6802,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41135345"/>
+        <c:crossAx val="84469433"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6762,7 +6830,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6855,9 +6923,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -6872,9 +6937,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -6932,11 +6994,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63141008"/>
-        <c:axId val="77031930"/>
+        <c:axId val="67019887"/>
+        <c:axId val="26389140"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63141008"/>
+        <c:axId val="67019887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -6970,13 +7032,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77031930"/>
+        <c:crossAx val="26389140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77031930"/>
+        <c:axId val="26389140"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -7009,7 +7071,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63141008"/>
+        <c:crossAx val="67019887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7036,7 +7098,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7203,11 +7265,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45302511"/>
-        <c:axId val="52808265"/>
+        <c:axId val="55913875"/>
+        <c:axId val="35668121"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45302511"/>
+        <c:axId val="55913875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7275,13 +7337,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52808265"/>
+        <c:crossAx val="35668121"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52808265"/>
+        <c:axId val="35668121"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -7348,7 +7410,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45302511"/>
+        <c:crossAx val="55913875"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7375,7 +7437,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7540,9 +7602,6 @@
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>4.80415754312583</c:v>
                 </c:pt>
@@ -7557,9 +7616,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.95189654880588</c:v>
@@ -7617,11 +7673,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="5073589"/>
-        <c:axId val="52970777"/>
+        <c:axId val="57500162"/>
+        <c:axId val="88294037"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="5073589"/>
+        <c:axId val="57500162"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -7655,13 +7711,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52970777"/>
+        <c:crossAx val="88294037"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52970777"/>
+        <c:axId val="88294037"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -7694,7 +7750,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5073589"/>
+        <c:crossAx val="57500162"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7721,7 +7777,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7880,11 +7936,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="15515014"/>
-        <c:axId val="79091731"/>
+        <c:axId val="8726868"/>
+        <c:axId val="68525461"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="15515014"/>
+        <c:axId val="8726868"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7959,13 +8015,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79091731"/>
+        <c:crossAx val="68525461"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79091731"/>
+        <c:axId val="68525461"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -7998,7 +8054,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15515014"/>
+        <c:crossAx val="8726868"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8025,7 +8081,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8153,11 +8209,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61360884"/>
-        <c:axId val="4636997"/>
+        <c:axId val="18264447"/>
+        <c:axId val="10268159"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61360884"/>
+        <c:axId val="18264447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8213,12 +8269,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4636997"/>
+        <c:crossAx val="10268159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4636997"/>
+        <c:axId val="10268159"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8274,7 +8330,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61360884"/>
+        <c:crossAx val="18264447"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8308,13 +8364,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>660240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>441720</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8338,13 +8394,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>831960</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>631800</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8368,13 +8424,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>103320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1672560</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8398,13 +8454,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>412200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>357840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8427,14 +8483,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>577440</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8457,14 +8513,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633600</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8487,14 +8543,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>972360</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137880</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8517,14 +8573,14 @@
     <xdr:from>
       <xdr:col>30</xdr:col>
       <xdr:colOff>718920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>574560</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8547,14 +8603,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1014480</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8578,13 +8634,13 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>690120</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8613,13 +8669,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>660600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>442080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8643,13 +8699,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>832320</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>632160</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8673,13 +8729,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>103680</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1672920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8703,13 +8759,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>412200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>357840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8732,14 +8788,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>577440</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8762,14 +8818,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633960</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8792,14 +8848,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>972360</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137880</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8829,7 +8885,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>574920</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>48960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8852,14 +8908,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1014480</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8889,7 +8945,7 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>690480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8988,8 +9044,8 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W15" activeCellId="0" sqref="W15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z9" activeCellId="0" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9416,16 +9472,16 @@
       <c r="Y5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="Z5" s="3" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -9517,13 +9573,13 @@
         <f aca="false">AA6*U4</f>
         <v>4.80415754312583</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -9615,13 +9671,13 @@
         <f aca="false">AA7*U5</f>
         <v>2.69378149232115</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -9713,13 +9769,13 @@
         <f aca="false">AA8*U6</f>
         <v>3.53558820867151</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -9800,16 +9856,16 @@
       <c r="Y9" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="Z9" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -9906,61 +9962,61 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>199.329</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <f aca="false">G11*3.52</f>
         <v>701.63808</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="2" t="n">
         <v>24.9375</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <f aca="false">J11*3.52</f>
         <v>87.78</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <f aca="false">(H11/1000)/(M11*(L11/24))</f>
         <v>0.427828097560976</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <f aca="false">(K11/1000)/($M11*($L11/24))</f>
         <v>0.0535243902439024</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="5" t="n">
         <f aca="false">(O11/14)*1000</f>
         <v>3.82317073170732</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="5" t="n">
         <v>365</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <f aca="false">N11/12</f>
         <v>0.0356523414634146</v>
       </c>
@@ -9972,124 +10028,124 @@
         <f aca="false">(S11/12)*1000</f>
         <v>58.46984</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <f aca="false">N11/$AD$2</f>
         <v>0.0506208817724819</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <f aca="false">Z11/S7</f>
         <v>35.1218223823881</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <f aca="false">AA11*U7</f>
         <v>1.51114571520455</v>
       </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>295.3914</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <f aca="false">G12*3.52</f>
         <v>1039.777728</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="2" t="n">
         <v>31.0277</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <f aca="false">J12*3.52</f>
         <v>109.217504</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <f aca="false">(H12/1000)/(M12*(L12/24))</f>
         <v>0.634010809756098</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <f aca="false">(K12/1000)/($M12*($L12/24))</f>
         <v>0.0665960390243902</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <f aca="false">(O12/14)*1000</f>
         <v>4.75685993031359</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>452</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <f aca="false">N12/12</f>
         <v>0.0528342341463415</v>
       </c>
@@ -10101,61 +10157,59 @@
         <f aca="false">(S12/12)*1000</f>
         <v>86.648144</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <f aca="false">N12/$AD$2</f>
         <v>0.0750165461925154</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="n">
+      <c r="Z12" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -10226,7 +10280,7 @@
         <f aca="false">(S13/12)*1000</f>
         <v>43.988835</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="5" t="n">
         <f aca="false">N13/$AD$2</f>
         <v>0.0214273680526883</v>
       </c>
@@ -10251,25 +10305,9 @@
         <v>1.95189654880588</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="5" t="n">
-        <v>600</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>511.6531819</v>
-      </c>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="6"/>
+      <c r="H14" s="6"/>
       <c r="N14" s="0" t="n">
         <v>0.35039640768</v>
       </c>
@@ -10277,15 +10315,15 @@
         <f aca="false">N14/12</f>
         <v>0.02919970064</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="S14" s="0" t="e">
         <f aca="false">(H14/1000)/F14</f>
-        <v>0.000852755303166667</v>
-      </c>
-      <c r="T14" s="0" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" s="0" t="e">
         <f aca="false">(S14/12)*1000</f>
-        <v>0.0710629419305556</v>
-      </c>
-      <c r="U14" s="4" t="n">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" s="5" t="n">
         <f aca="false">N14/$AD$2</f>
         <v>0.0414591169392366</v>
       </c>
@@ -10311,445 +10349,115 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.58685784336</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <f aca="false">N15/12</f>
-        <v>0.04890482028</v>
-      </c>
-      <c r="S15" s="0" t="e">
-        <f aca="false">(H15/1000)/F15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T15" s="0" t="e">
-        <f aca="false">(S15/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U15" s="4" t="n">
-        <f aca="false">N15/$AD$2</f>
-        <v>0.0694373784128244</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB15" s="6"/>
+      <c r="U15" s="5"/>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.24311220636</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <f aca="false">N16/12</f>
-        <v>0.02025935053</v>
-      </c>
-      <c r="S16" s="0" t="e">
-        <f aca="false">(H16/1000)/F16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="0" t="e">
-        <f aca="false">(S16/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="4" t="n">
-        <f aca="false">N16/$AD$2</f>
-        <v>0.0287651847219847</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="AB16" s="6"/>
+      <c r="U16" s="5"/>
+      <c r="AB16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.2981113254</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <f aca="false">N17/12</f>
-        <v>0.02484261045</v>
-      </c>
-      <c r="S17" s="0" t="e">
-        <f aca="false">(H17/1000)/F17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="0" t="e">
-        <f aca="false">(S17/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="4" t="n">
-        <f aca="false">N17/$AD$2</f>
-        <v>0.0352727140740458</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="AB17" s="6"/>
+      <c r="U17" s="5"/>
+      <c r="AB17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>1.3821818328</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <f aca="false">N18/12</f>
-        <v>0.1151818194</v>
-      </c>
-      <c r="S18" s="0" t="e">
-        <f aca="false">(H18/1000)/F18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="0" t="e">
-        <f aca="false">(S18/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="4" t="n">
-        <f aca="false">N18/$AD$2</f>
-        <v>0.163540598537405</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="AB18" s="6"/>
+      <c r="U18" s="5"/>
+      <c r="AB18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>0.65778210996</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <f aca="false">N19/12</f>
-        <v>0.05481517583</v>
-      </c>
-      <c r="S19" s="0" t="e">
-        <f aca="false">(H19/1000)/F19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="0" t="e">
-        <f aca="false">(S19/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="4" t="n">
-        <f aca="false">N19/$AD$2</f>
-        <v>0.0778291809494656</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>530</v>
-      </c>
-      <c r="AB19" s="6"/>
+      <c r="U19" s="5"/>
+      <c r="AB19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>1.7063034312</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <f aca="false">N20/12</f>
-        <v>0.1421919526</v>
-      </c>
-      <c r="S20" s="0" t="e">
-        <f aca="false">(H20/1000)/F20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="0" t="e">
-        <f aca="false">(S20/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="4" t="n">
-        <f aca="false">N20/$AD$2</f>
-        <v>0.201890863996947</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="AB20" s="6"/>
+      <c r="U20" s="5"/>
+      <c r="AB20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>0.073060043712</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <f aca="false">N21/12</f>
-        <v>0.006088336976</v>
-      </c>
-      <c r="S21" s="0" t="e">
-        <f aca="false">(H21/1000)/F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="0" t="e">
-        <f aca="false">(S21/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="4" t="n">
-        <f aca="false">N21/$AD$2</f>
-        <v>0.00864450898882443</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB21" s="6"/>
+      <c r="U21" s="5"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <f aca="false">N22/12</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="0" t="e">
-        <f aca="false">(H22/1000)/F22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="0" t="e">
-        <f aca="false">(S22/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="4" t="n">
-        <f aca="false">N22/$AD$2</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB22" s="6"/>
+      <c r="U22" s="5"/>
+      <c r="AB22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>0.44133636708</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <f aca="false">N23/12</f>
-        <v>0.03677803059</v>
-      </c>
-      <c r="S23" s="0" t="e">
-        <f aca="false">(H23/1000)/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="0" t="e">
-        <f aca="false">(S23/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="4" t="n">
-        <f aca="false">N23/$AD$2</f>
-        <v>0.0522191884712977</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB23" s="6"/>
+      <c r="U23" s="5"/>
+      <c r="AB23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W24" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="AB24" s="6"/>
+      <c r="AB24" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S31" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T33" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S34" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W35" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S36" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U36" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="T36" s="0" t="s">
+      <c r="V36" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="U36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="W36" s="0" t="n">
         <f aca="false">PI()*(21/2)^2</f>
         <v>346.360590058275</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S37" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T37" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="W37" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10760,7 +10468,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W39" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X39" s="0" t="n">
         <f aca="false">W37/Y38</f>
@@ -10769,7 +10477,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W40" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -10791,8 +10499,8 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB15" activeCellId="0" sqref="AB15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11222,13 +10930,13 @@
       <c r="AB5" s="0" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE5" s="3" t="s">
+      <c r="AE5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -11320,13 +11028,13 @@
         <f aca="false">AA6*U4</f>
         <v>4.80415754312583</v>
       </c>
-      <c r="AE6" s="3" t="s">
+      <c r="AE6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -11418,13 +11126,13 @@
         <f aca="false">AA7*U5</f>
         <v>2.69378149232115</v>
       </c>
-      <c r="AE7" s="3" t="s">
+      <c r="AE7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -11516,13 +11224,13 @@
         <f aca="false">AA8*U6</f>
         <v>3.53558820867151</v>
       </c>
-      <c r="AE8" s="3" t="s">
+      <c r="AE8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -11606,13 +11314,13 @@
       <c r="Z9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AE9" s="3" t="s">
+      <c r="AE9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -11709,61 +11417,61 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>199.329</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="5" t="n">
         <f aca="false">G11*3.52</f>
         <v>701.63808</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="2" t="n">
         <v>24.9375</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="5" t="n">
         <f aca="false">J11*3.52</f>
         <v>87.78</v>
       </c>
-      <c r="L11" s="4" t="n">
+      <c r="L11" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="M11" s="4" t="n">
+      <c r="M11" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="N11" s="4" t="n">
+      <c r="N11" s="5" t="n">
         <f aca="false">(H11/1000)/(M11*(L11/24))</f>
         <v>0.427828097560976</v>
       </c>
-      <c r="O11" s="4" t="n">
+      <c r="O11" s="5" t="n">
         <f aca="false">(K11/1000)/($M11*($L11/24))</f>
         <v>0.0535243902439024</v>
       </c>
-      <c r="P11" s="4" t="n">
+      <c r="P11" s="5" t="n">
         <f aca="false">(O11/14)*1000</f>
         <v>3.82317073170732</v>
       </c>
-      <c r="Q11" s="4" t="n">
+      <c r="Q11" s="5" t="n">
         <v>365</v>
       </c>
-      <c r="R11" s="4" t="n">
+      <c r="R11" s="5" t="n">
         <f aca="false">N11/12</f>
         <v>0.0356523414634146</v>
       </c>
@@ -11775,124 +11483,124 @@
         <f aca="false">(S11/12)*1000</f>
         <v>58.46984</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <f aca="false">N11/$AD$2</f>
         <v>0.0506208817724819</v>
       </c>
-      <c r="V11" s="4"/>
+      <c r="V11" s="5"/>
       <c r="W11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>24</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <f aca="false">Z11/S7</f>
         <v>35.1218223823881</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <f aca="false">AA11*U7</f>
         <v>1.51114571520455</v>
       </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-      <c r="BE11" s="4"/>
-      <c r="BF11" s="4"/>
-      <c r="BG11" s="4"/>
-      <c r="BH11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+      <c r="BL11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>295.3914</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="5" t="n">
         <f aca="false">G12*3.52</f>
         <v>1039.777728</v>
       </c>
-      <c r="I12" s="4"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="2" t="n">
         <v>31.0277</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="5" t="n">
         <f aca="false">J12*3.52</f>
         <v>109.217504</v>
       </c>
-      <c r="L12" s="4" t="n">
+      <c r="L12" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="M12" s="4" t="n">
+      <c r="M12" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="N12" s="4" t="n">
+      <c r="N12" s="5" t="n">
         <f aca="false">(H12/1000)/(M12*(L12/24))</f>
         <v>0.634010809756098</v>
       </c>
-      <c r="O12" s="4" t="n">
+      <c r="O12" s="5" t="n">
         <f aca="false">(K12/1000)/($M12*($L12/24))</f>
         <v>0.0665960390243902</v>
       </c>
-      <c r="P12" s="4" t="n">
+      <c r="P12" s="5" t="n">
         <f aca="false">(O12/14)*1000</f>
         <v>4.75685993031359</v>
       </c>
-      <c r="Q12" s="4" t="n">
+      <c r="Q12" s="5" t="n">
         <v>452</v>
       </c>
-      <c r="R12" s="4" t="n">
+      <c r="R12" s="5" t="n">
         <f aca="false">N12/12</f>
         <v>0.0528342341463415</v>
       </c>
@@ -11904,61 +11612,61 @@
         <f aca="false">(S12/12)*1000</f>
         <v>86.648144</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <f aca="false">N12/$AD$2</f>
         <v>0.0750165461925154</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="5"/>
       <c r="W12" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>150</v>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4" t="n">
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5" t="n">
         <v>16</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
-      <c r="BG12" s="4"/>
-      <c r="BH12" s="4"/>
-      <c r="BI12" s="4"/>
-      <c r="BJ12" s="4"/>
-      <c r="BK12" s="4"/>
-      <c r="BL12" s="4"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+      <c r="BH12" s="5"/>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -12029,7 +11737,7 @@
         <f aca="false">(S13/12)*1000</f>
         <v>43.988835</v>
       </c>
-      <c r="U13" s="4" t="n">
+      <c r="U13" s="5" t="n">
         <f aca="false">N13/$AD$2</f>
         <v>0.0214273680526883</v>
       </c>
@@ -12056,22 +11764,22 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="F14" s="0" t="s">
         <v>76</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>78</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="0" t="s">
@@ -12080,9 +11788,9 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="N14" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="U14" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="U14" s="5"/>
       <c r="W14" s="0" t="n">
         <v>2017</v>
       </c>
@@ -12106,21 +11814,21 @@
     </row>
     <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>93</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H15" s="5" t="n">
+      <c r="F15" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6" t="n">
         <v>511.6531819</v>
       </c>
       <c r="N15" s="0" t="n">
@@ -12135,13 +11843,13 @@
       </c>
       <c r="S15" s="0" t="n">
         <f aca="false">(H15/1000)/F15</f>
-        <v>0.852755303166667</v>
+        <v>0.5116531819</v>
       </c>
       <c r="T15" s="0" t="n">
         <f aca="false">(S15/12)*1000</f>
-        <v>71.0629419305556</v>
-      </c>
-      <c r="U15" s="4" t="n">
+        <v>42.6377651583333</v>
+      </c>
+      <c r="U15" s="5" t="n">
         <f aca="false">N15/$AD$2</f>
         <v>0.0414591169392366</v>
       </c>
@@ -12149,7 +11857,7 @@
         <v>2018</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>93</v>
@@ -12159,36 +11867,52 @@
       </c>
       <c r="AA15" s="0" t="n">
         <f aca="false">Z15/S15</f>
-        <v>187.627094672818</v>
-      </c>
-      <c r="AB15" s="6" t="n">
+        <v>312.711824454697</v>
+      </c>
+      <c r="AB15" s="7" t="n">
         <f aca="false">AA15*U15</f>
-        <v>7.7788536590096</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12.9647560983493</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>122</v>
       </c>
+      <c r="C16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>379.411123</v>
+      </c>
       <c r="N16" s="0" t="n">
         <v>0.58685784336</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <f aca="false">B16</f>
+        <v>122</v>
       </c>
       <c r="R16" s="0" t="n">
         <f aca="false">N16/12</f>
         <v>0.04890482028</v>
       </c>
-      <c r="S16" s="0" t="e">
+      <c r="S16" s="0" t="n">
         <f aca="false">(H16/1000)/F16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T16" s="0" t="e">
+        <v>0.379411123</v>
+      </c>
+      <c r="T16" s="0" t="n">
         <f aca="false">(S16/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U16" s="4" t="n">
+        <v>31.6175935833333</v>
+      </c>
+      <c r="U16" s="5" t="n">
         <f aca="false">N16/$AD$2</f>
         <v>0.0694373784128244</v>
       </c>
@@ -12196,7 +11920,7 @@
         <v>2018</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>122</v>
@@ -12204,31 +11928,54 @@
       <c r="Z16" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="AB16" s="6"/>
+      <c r="AA16" s="0" t="n">
+        <f aca="false">Z16/S16</f>
+        <v>142.325822113549</v>
+      </c>
+      <c r="AB16" s="7" t="n">
+        <f aca="false">AA16*U16</f>
+        <v>9.88273196801486</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>145</v>
       </c>
+      <c r="C17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>707.0476014</v>
+      </c>
       <c r="N17" s="0" t="n">
         <v>0.24311220636</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <f aca="false">B17</f>
+        <v>145</v>
       </c>
       <c r="R17" s="0" t="n">
         <f aca="false">N17/12</f>
         <v>0.02025935053</v>
       </c>
-      <c r="S17" s="0" t="e">
+      <c r="S17" s="0" t="n">
         <f aca="false">(H17/1000)/F17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="0" t="e">
+        <v>0.7070476014</v>
+      </c>
+      <c r="T17" s="0" t="n">
         <f aca="false">(S17/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="4" t="n">
+        <v>58.92063345</v>
+      </c>
+      <c r="U17" s="5" t="n">
         <f aca="false">N17/$AD$2</f>
         <v>0.0287651847219847</v>
       </c>
@@ -12236,7 +11983,7 @@
         <v>2018</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>145</v>
@@ -12244,31 +11991,54 @@
       <c r="Z17" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="AB17" s="6"/>
+      <c r="AA17" s="0" t="n">
+        <f aca="false">Z17/S17</f>
+        <v>255.994079665369</v>
+      </c>
+      <c r="AB17" s="7" t="n">
+        <f aca="false">AA17*U17</f>
+        <v>7.36371698930883</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>190</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>323.8504172</v>
+      </c>
       <c r="N18" s="0" t="n">
         <v>0.2981113254</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <f aca="false">B18</f>
+        <v>190</v>
       </c>
       <c r="R18" s="0" t="n">
         <f aca="false">N18/12</f>
         <v>0.02484261045</v>
       </c>
-      <c r="S18" s="0" t="e">
+      <c r="S18" s="0" t="n">
         <f aca="false">(H18/1000)/F18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="0" t="e">
+        <v>0.3238504172</v>
+      </c>
+      <c r="T18" s="0" t="n">
         <f aca="false">(S18/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="4" t="n">
+        <v>26.9875347666667</v>
+      </c>
+      <c r="U18" s="5" t="n">
         <f aca="false">N18/$AD$2</f>
         <v>0.0352727140740458</v>
       </c>
@@ -12276,7 +12046,7 @@
         <v>2018</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>190</v>
@@ -12284,7 +12054,14 @@
       <c r="Z18" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="AB18" s="6"/>
+      <c r="AA18" s="0" t="n">
+        <f aca="false">Z18/S18</f>
+        <v>197.622101442209</v>
+      </c>
+      <c r="AB18" s="7" t="n">
+        <f aca="false">AA18*U18</f>
+        <v>6.9706678788831</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -12293,22 +12070,38 @@
       <c r="B19" s="0" t="n">
         <v>85</v>
       </c>
+      <c r="C19" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>4109.152077</v>
+      </c>
       <c r="N19" s="0" t="n">
         <v>1.3821818328</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <f aca="false">B19</f>
+        <v>85</v>
       </c>
       <c r="R19" s="0" t="n">
         <f aca="false">N19/12</f>
         <v>0.1151818194</v>
       </c>
-      <c r="S19" s="0" t="e">
+      <c r="S19" s="0" t="n">
         <f aca="false">(H19/1000)/F19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="0" t="e">
+        <v>4.109152077</v>
+      </c>
+      <c r="T19" s="0" t="n">
         <f aca="false">(S19/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="4" t="n">
+        <v>342.42933975</v>
+      </c>
+      <c r="U19" s="5" t="n">
         <f aca="false">N19/$AD$2</f>
         <v>0.163540598537405</v>
       </c>
@@ -12324,7 +12117,14 @@
       <c r="Z19" s="0" t="n">
         <v>530</v>
       </c>
-      <c r="AB19" s="6"/>
+      <c r="AA19" s="0" t="n">
+        <f aca="false">Z19/S19</f>
+        <v>128.980380883577</v>
+      </c>
+      <c r="AB19" s="7" t="n">
+        <f aca="false">AA19*U19</f>
+        <v>21.0935286892825</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -12333,22 +12133,38 @@
       <c r="B20" s="0" t="n">
         <v>87</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>409.4551795</v>
+      </c>
       <c r="N20" s="0" t="n">
         <v>0.65778210996</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <f aca="false">B20</f>
+        <v>87</v>
       </c>
       <c r="R20" s="0" t="n">
         <f aca="false">N20/12</f>
         <v>0.05481517583</v>
       </c>
-      <c r="S20" s="0" t="e">
+      <c r="S20" s="0" t="n">
         <f aca="false">(H20/1000)/F20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="0" t="e">
+        <v>0.4094551795</v>
+      </c>
+      <c r="T20" s="0" t="n">
         <f aca="false">(S20/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="4" t="n">
+        <v>34.1212649583333</v>
+      </c>
+      <c r="U20" s="5" t="n">
         <f aca="false">N20/$AD$2</f>
         <v>0.0778291809494656</v>
       </c>
@@ -12364,7 +12180,14 @@
       <c r="Z20" s="0" t="n">
         <v>38.5</v>
       </c>
-      <c r="AB20" s="6"/>
+      <c r="AA20" s="0" t="n">
+        <f aca="false">Z20/S20</f>
+        <v>94.0273854809059</v>
+      </c>
+      <c r="AB20" s="7" t="n">
+        <f aca="false">AA20*U20</f>
+        <v>7.31807439879858</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -12373,22 +12196,32 @@
       <c r="B21" s="0" t="n">
         <v>120</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="0" t="n">
         <v>1.7063034312</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <f aca="false">B21</f>
+        <v>120</v>
       </c>
       <c r="R21" s="0" t="n">
         <f aca="false">N21/12</f>
         <v>0.1421919526</v>
       </c>
-      <c r="S21" s="0" t="e">
-        <f aca="false">(H21/1000)/F21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="0" t="e">
+      <c r="S21" s="0" t="n">
+        <f aca="false">(H21/1000)/F22</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
         <f aca="false">(S21/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="n">
         <f aca="false">N21/$AD$2</f>
         <v>0.201890863996947</v>
       </c>
@@ -12401,7 +12234,7 @@
       <c r="Y21" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="AB21" s="6"/>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -12410,22 +12243,38 @@
       <c r="B22" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>399.3593388</v>
+      </c>
       <c r="N22" s="0" t="n">
         <v>0.073060043712</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <f aca="false">B22</f>
+        <v>150</v>
       </c>
       <c r="R22" s="0" t="n">
         <f aca="false">N22/12</f>
         <v>0.006088336976</v>
       </c>
-      <c r="S22" s="0" t="e">
+      <c r="S22" s="0" t="n">
         <f aca="false">(H22/1000)/F22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T22" s="0" t="e">
+        <v>0.3993593388</v>
+      </c>
+      <c r="T22" s="0" t="n">
         <f aca="false">(S22/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="4" t="n">
+        <v>33.2799449</v>
+      </c>
+      <c r="U22" s="5" t="n">
         <f aca="false">N22/$AD$2</f>
         <v>0.00864450898882443</v>
       </c>
@@ -12441,7 +12290,14 @@
       <c r="Z22" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="AB22" s="6"/>
+      <c r="AA22" s="0" t="n">
+        <f aca="false">Z22/S22</f>
+        <v>25.0401055601908</v>
+      </c>
+      <c r="AB22" s="7" t="n">
+        <f aca="false">AA22*U22</f>
+        <v>0.216459417596182</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -12450,21 +12306,40 @@
       <c r="B23" s="0" t="n">
         <v>221</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>290.9490265</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>3.491388318</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <f aca="false">B23</f>
+        <v>221</v>
+      </c>
       <c r="R23" s="0" t="n">
         <f aca="false">N23/12</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="0" t="e">
+        <v>0.2909490265</v>
+      </c>
+      <c r="S23" s="0" t="n">
         <f aca="false">(H23/1000)/F23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T23" s="0" t="e">
+        <v>0.2909490265</v>
+      </c>
+      <c r="T23" s="0" t="n">
         <f aca="false">(S23/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="4" t="n">
+        <v>24.2457522083333</v>
+      </c>
+      <c r="U23" s="5" t="n">
         <f aca="false">N23/$AD$2</f>
-        <v>0</v>
+        <v>0.413103197931298</v>
       </c>
       <c r="W23" s="0" t="n">
         <v>2018</v>
@@ -12478,7 +12353,14 @@
       <c r="Z23" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="AB23" s="6"/>
+      <c r="AA23" s="0" t="n">
+        <f aca="false">Z23/S23</f>
+        <v>44.6813662048806</v>
+      </c>
+      <c r="AB23" s="7" t="n">
+        <f aca="false">AA23*U23</f>
+        <v>18.4580152671756</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -12487,22 +12369,38 @@
       <c r="B24" s="0" t="n">
         <v>368</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1619.81745</v>
+      </c>
       <c r="N24" s="0" t="n">
         <v>0.44133636708</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <f aca="false">B24</f>
+        <v>368</v>
       </c>
       <c r="R24" s="0" t="n">
         <f aca="false">N24/12</f>
         <v>0.03677803059</v>
       </c>
-      <c r="S24" s="0" t="e">
+      <c r="S24" s="0" t="n">
         <f aca="false">(H24/1000)/F24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="0" t="e">
+        <v>1.61981745</v>
+      </c>
+      <c r="T24" s="0" t="n">
         <f aca="false">(S24/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="4" t="n">
+        <v>134.9847875</v>
+      </c>
+      <c r="U24" s="5" t="n">
         <f aca="false">N24/$AD$2</f>
         <v>0.0522191884712977</v>
       </c>
@@ -12518,35 +12416,42 @@
       <c r="Z24" s="0" t="n">
         <v>375</v>
       </c>
-      <c r="AB24" s="6"/>
+      <c r="AA24" s="0" t="n">
+        <f aca="false">Z24/S24</f>
+        <v>231.507568954761</v>
+      </c>
+      <c r="AB24" s="7" t="n">
+        <f aca="false">AA24*U24</f>
+        <v>12.0891373757806</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S34" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S35" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12555,42 +12460,42 @@
         <v>346.360590058275</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S37" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="U37" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="T37" s="0" t="s">
+      <c r="V37" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="U37" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>67</v>
       </c>
       <c r="W37" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Y37" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S38" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="T38" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y38" s="0" t="n">
         <f aca="false">W36*(1-0.064)</f>
@@ -12599,7 +12504,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W39" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X39" s="0" t="n">
         <f aca="false">W37/Y38</f>
@@ -12608,7 +12513,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W40" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -12636,159 +12541,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="24.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="7" width="10.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="24.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="8" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>81</v>
+      <c r="B1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="7" t="n">
+      <c r="C2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="8" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>5.50734455652174</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <f aca="false">-(A3-$G$2)/(LN(B3)-LN($G$3))</f>
         <v>21.3983044092961</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="7" t="n">
+      <c r="F3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8" t="n">
         <v>1.2935232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>1.2935232</v>
       </c>
-      <c r="C4" s="7" t="e">
+      <c r="C4" s="8" t="e">
         <f aca="false">-(A4-$G$2)/(LN(B4)-LN($G$3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>0.992225113043478</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <f aca="false">-(A5-$G$2)/(LN(B5)-LN($G$3))</f>
         <v>75.4219118853255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>1.31366817391304</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <f aca="false">-(A6-$G$2)/(LN(B6)-LN($G$3))</f>
         <v>-1294.18856517165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>0.363637697560976</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <f aca="false">-(A7-$G$2)/(LN(B7)-LN($G$3))</f>
         <v>39.4021309245151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>159</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>0.641929460869565</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <f aca="false">-(A8-$G$2)/(LN(B8)-LN($G$3))</f>
         <v>84.2079405920815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>0.495536390243903</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <f aca="false">-(A9-$G$2)/(LN(B9)-LN($G$3))</f>
         <v>83.378136508636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>265</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>0.474287083141249</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <f aca="false">-(A10-$G$2)/(LN(B10)-LN($G$3))</f>
         <v>164.455301296949</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>365</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>965</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>0.181095820316269</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <f aca="false">-(A13-$G$2)/(LN(B13)-LN($G$3))</f>
         <v>439.957577447259</v>
       </c>
@@ -12829,15 +12734,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -12862,7 +12767,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -12884,16 +12789,16 @@
       <c r="D2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -12915,27 +12820,27 @@
         <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>39</v>
@@ -12949,10 +12854,10 @@
       <c r="G3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="n">
+      <c r="I3" s="12" t="n">
         <v>103.2737</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -12973,13 +12878,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -12987,27 +12892,27 @@
       <c r="E4" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="4" t="n">
+      <c r="F4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="I4" s="12" t="n">
+      <c r="I4" s="13" t="n">
         <v>142.7073</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">I4*3.52</f>
         <v>502.329696</v>
       </c>
-      <c r="K4" s="12" t="n">
+      <c r="K4" s="13" t="n">
         <v>111.2036</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="0" t="n">
         <f aca="false">(J4/1000)/(E4*(H4/24))</f>
         <v>0.819015808695652</v>
@@ -13022,13 +12927,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
@@ -13045,7 +12950,7 @@
       <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="12" t="n">
         <v>56.6686</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -13066,13 +12971,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
@@ -13089,7 +12994,7 @@
       <c r="H6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="12" t="n">
         <v>77.1038</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -13110,13 +13015,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>39</v>
@@ -13133,7 +13038,7 @@
       <c r="H7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="12" t="n">
         <v>72.3089</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -13154,13 +13059,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>39</v>
@@ -13174,17 +13079,17 @@
       <c r="G8" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" s="13" t="n">
+      <c r="H8" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="I8" s="11" t="n">
+      <c r="I8" s="12" t="n">
         <v>275.9063</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">I8*3.52</f>
         <v>971.190176</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="12" t="n">
         <v>54.3155</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -13213,13 +13118,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>132</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>47</v>
@@ -13236,15 +13141,15 @@
       <c r="H9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I9" s="12" t="n">
         <v>149.5976</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">I9*3.52</f>
         <v>526.583552</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
       <c r="N9" s="0" t="n">
         <f aca="false">(J9/1000)/(E9*(H9/24))</f>
         <v>0.934072819512195</v>
@@ -13259,13 +13164,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>39</v>
@@ -13282,15 +13187,15 @@
       <c r="H10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I10" s="11" t="n">
+      <c r="I10" s="12" t="n">
         <v>88.8127</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">I10*3.52</f>
         <v>312.620704</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="0" t="n">
         <f aca="false">(J10/1000)/(E10*(H10/24))</f>
         <v>1.35922045217391</v>
@@ -13305,13 +13210,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>47</v>
@@ -13328,14 +13233,14 @@
       <c r="H11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I11" s="11" t="n">
+      <c r="I11" s="12" t="n">
         <v>175.4337</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">I11*3.52</f>
         <v>617.526624</v>
       </c>
-      <c r="L11" s="11" t="n">
+      <c r="L11" s="12" t="n">
         <v>27.7126</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -13364,13 +13269,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>355</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>47</v>
@@ -13387,14 +13292,14 @@
       <c r="H12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="11" t="n">
+      <c r="I12" s="12" t="n">
         <v>418.4212</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12*3.52</f>
         <v>1472.842624</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="12" t="n">
         <v>49.3413</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -13423,13 +13328,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>700</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>47</v>
@@ -13446,17 +13351,17 @@
       <c r="H13" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I13" s="11" t="n">
+      <c r="I13" s="12" t="n">
         <v>224.1651</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">I13*3.52</f>
         <v>789.061152</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="13" t="n">
         <v>71.9624</v>
       </c>
-      <c r="L13" s="11" t="n">
+      <c r="L13" s="12" t="n">
         <v>28.1653</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -13484,12 +13389,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -13512,1498 +13417,1547 @@
   <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="7" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="8" width="8.37"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="C1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>93</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <v>29.19970064</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">F2*12/1000</f>
         <v>0.35039640768</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="7" t="n">
+      <c r="H2" s="8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <v>48.90482028</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">F3*12/1000</f>
         <v>0.58685784336</v>
       </c>
-      <c r="AB3" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="7" t="n">
+      <c r="H3" s="8" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="J3" s="0"/>
+      <c r="AB3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="8" t="n">
         <v>145</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="8" t="n">
         <v>181</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <v>20.25935053</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <f aca="false">F4*12/1000</f>
         <v>0.24311220636</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="7" t="n">
+      <c r="H4" s="8" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <v>24.84261045</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <f aca="false">F5*12/1000</f>
         <v>0.2981113254</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="H5" s="8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>530</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <v>115.1818194</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <f aca="false">F8*12/1000</f>
         <v>1.3821818328</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>38.5</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <v>54.81517583</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="8" t="n">
         <f aca="false">F9*12/1000</f>
         <v>0.65778210996</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="H9" s="8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="8" t="n">
         <f aca="false">F10*12/1000</f>
         <v>1.7063034312</v>
       </c>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>4.2</v>
       </c>
-      <c r="D11" s="7" t="n">
+      <c r="D11" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <v>6.088336976</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="8" t="n">
         <f aca="false">F11*12/1000</f>
         <v>0.073060043712</v>
       </c>
+      <c r="H11" s="8" t="n">
+        <v>0.016</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>2.2</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>35</v>
       </c>
+      <c r="F12" s="8" t="n">
+        <v>290.9490265</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <f aca="false">F12*12/1000</f>
+        <v>3.491388318</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>368</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>1.5</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>375</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="8" t="n">
         <v>36.77803059</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="8" t="n">
         <f aca="false">F13*12/1000</f>
         <v>0.44133636708</v>
       </c>
+      <c r="H13" s="8" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>107</v>
+      <c r="A16" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="A17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="7" t="s">
+      <c r="A18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>59.93179319</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="7" t="s">
+      <c r="A19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="8" t="n">
         <v>151</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="A20" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>140.2346446</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="A21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>121</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="7" t="s">
+      <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="A23" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <v>135.5691057</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="8" t="n">
         <v>6.088336976</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="A26" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="8" t="n">
         <v>147</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>368</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>5.577733349</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>36.77803059</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>586</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>8.164440297</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>49.69913676</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v>87</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>24.18012422</v>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>54.81517583</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="8" t="n">
+        <v>221</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8" t="n">
+        <v>85</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>26.58868425</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>115.1818194</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>244.4055742</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="G58" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="G28" s="7" t="s">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="E63" s="8" t="n">
+        <v>32.66219522</v>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v>48.90482028</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="8" t="n">
+        <v>120</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>144.5962733</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>47.19008443</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="8" t="n">
+        <v>190</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>31.86596927</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>24.84261045</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D70" s="8" t="n">
+        <v>123</v>
+      </c>
+      <c r="E70" s="8" t="n">
+        <v>127.6422764</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="8" t="n">
+        <v>201</v>
+      </c>
+      <c r="E74" s="8" t="n">
+        <v>18.53988134</v>
+      </c>
+      <c r="F74" s="8" t="n">
+        <v>206.4532045</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="8" t="n">
+        <v>221</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7" t="n">
-        <v>368</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>5.577733349</v>
-      </c>
-      <c r="F30" s="7" t="n">
-        <v>36.77803059</v>
-      </c>
-      <c r="G30" s="7" t="s">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E82" s="8" t="n">
+        <v>7.360697997</v>
+      </c>
+      <c r="F82" s="8" t="n">
+        <v>94.40429427</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7" t="s">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7" t="s">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7" t="s">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" s="8" t="n">
+        <v>586</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>5.35131205</v>
+      </c>
+      <c r="F87" s="8" t="n">
+        <v>54.4451539</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>586</v>
-      </c>
-      <c r="E36" s="7" t="n">
-        <v>8.164440297</v>
-      </c>
-      <c r="F36" s="7" t="n">
-        <v>49.69913676</v>
-      </c>
-      <c r="G36" s="7" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G90" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7" t="s">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7" t="n">
-        <v>87</v>
-      </c>
-      <c r="E40" s="7" t="n">
-        <v>24.18012422</v>
-      </c>
-      <c r="F40" s="7" t="n">
-        <v>54.81517583</v>
-      </c>
-      <c r="G40" s="7" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" s="8" t="n">
+        <v>145</v>
+      </c>
+      <c r="E92" s="8" t="n">
+        <v>16.09712027</v>
+      </c>
+      <c r="F92" s="8" t="n">
+        <v>20.25935053</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7" t="n">
-        <v>221</v>
-      </c>
-      <c r="G43" s="7" t="s">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" s="8" t="n">
+        <v>288</v>
+      </c>
+      <c r="E95" s="8" t="n">
+        <v>9.216589862</v>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>113.4440422</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7" t="s">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="8" t="n">
+        <v>93</v>
+      </c>
+      <c r="E96" s="8" t="n">
+        <v>13.12777285</v>
+      </c>
+      <c r="F96" s="8" t="n">
+        <v>29.19970064</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7" t="s">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="7" t="n">
-        <v>85</v>
-      </c>
-      <c r="E46" s="7" t="n">
-        <v>26.58868425</v>
-      </c>
-      <c r="F46" s="7" t="n">
-        <v>115.1818194</v>
-      </c>
-      <c r="G46" s="7" t="s">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="8" t="n">
+        <v>143</v>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>54.63414634</v>
+      </c>
+      <c r="F99" s="8" t="n">
+        <v>44.60837344</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="7" t="s">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7" t="s">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="7" t="n">
-        <v>147</v>
-      </c>
-      <c r="G52" s="7" t="s">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="8" t="n">
+        <v>843</v>
+      </c>
+      <c r="F105" s="8" t="n">
+        <v>28.51596639</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7" t="s">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="F54" s="7" t="n">
-        <v>244.4055742</v>
-      </c>
-      <c r="G54" s="7" t="s">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="7" t="s">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="7" t="n">
-        <v>120</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="7" t="n">
-        <v>122</v>
-      </c>
-      <c r="E63" s="7" t="n">
-        <v>32.66219522</v>
-      </c>
-      <c r="F63" s="7" t="n">
-        <v>48.90482028</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="7" t="n">
-        <v>120</v>
-      </c>
-      <c r="E66" s="7" t="n">
-        <v>144.5962733</v>
-      </c>
-      <c r="F66" s="7" t="n">
-        <v>47.19008443</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D67" s="7" t="n">
-        <v>190</v>
-      </c>
-      <c r="E67" s="7" t="n">
-        <v>31.86596927</v>
-      </c>
-      <c r="F67" s="7" t="n">
-        <v>24.84261045</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="7" t="n">
-        <v>123</v>
-      </c>
-      <c r="E70" s="7" t="n">
-        <v>127.6422764</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="7" t="n">
-        <v>201</v>
-      </c>
-      <c r="E74" s="7" t="n">
-        <v>18.53988134</v>
-      </c>
-      <c r="F74" s="7" t="n">
-        <v>206.4532045</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" s="7" t="n">
-        <v>221</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="7" t="n">
-        <v>7.360697997</v>
-      </c>
-      <c r="F82" s="7" t="n">
-        <v>94.40429427</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="7" t="n">
-        <v>586</v>
-      </c>
-      <c r="E87" s="7" t="n">
-        <v>5.35131205</v>
-      </c>
-      <c r="F87" s="7" t="n">
-        <v>54.4451539</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="7" t="n">
-        <v>145</v>
-      </c>
-      <c r="E92" s="7" t="n">
-        <v>16.09712027</v>
-      </c>
-      <c r="F92" s="7" t="n">
-        <v>20.25935053</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="7" t="n">
-        <v>288</v>
-      </c>
-      <c r="E95" s="7" t="n">
-        <v>9.216589862</v>
-      </c>
-      <c r="F95" s="7" t="n">
-        <v>113.4440422</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D96" s="7" t="n">
-        <v>93</v>
-      </c>
-      <c r="E96" s="7" t="n">
-        <v>13.12777285</v>
-      </c>
-      <c r="F96" s="7" t="n">
-        <v>29.19970064</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D99" s="7" t="n">
-        <v>143</v>
-      </c>
-      <c r="E99" s="7" t="n">
-        <v>54.63414634</v>
-      </c>
-      <c r="F99" s="7" t="n">
-        <v>44.60837344</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G102" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D105" s="7" t="n">
-        <v>843</v>
-      </c>
-      <c r="F105" s="7" t="n">
-        <v>28.51596639</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G106" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G109" s="7" t="s">
+      <c r="A109" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -15026,572 +14980,572 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="7" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="8" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>206</v>
+      <c r="D1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="n">
+      <c r="A2" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="8" t="n">
         <v>5.50734455652174</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="8" t="n">
         <f aca="false">D2*2.2457</f>
         <v>33.6855</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">F2*0.6</f>
         <v>20.2113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="8" t="n">
         <v>1.2935232</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="8" t="n">
         <f aca="false">D3*2.2457</f>
         <v>65.1253</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">F3*0.6</f>
         <v>39.07518</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="8" t="n">
         <v>0.992225113043478</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="8" t="n">
         <f aca="false">D4*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <f aca="false">F4*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="8" t="n">
         <v>113</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="8" t="n">
         <v>1.31366817391304</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="8" t="n">
         <f aca="false">D5*2.2457</f>
         <v>76.3538</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="8" t="n">
         <f aca="false">F5*0.6</f>
         <v>45.81228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="8" t="n">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="8" t="n">
         <v>0.363637697560976</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="8" t="n">
         <f aca="false">D6*2.2457</f>
         <v>35.9312</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="8" t="n">
         <f aca="false">F6*0.6</f>
         <v>21.55872</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="8" t="n">
         <v>0.641929460869565</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="8" t="n">
         <f aca="false">D7*2.2457</f>
         <v>47.1597</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="8" t="n">
         <f aca="false">F7*0.6</f>
         <v>28.29582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="8" t="n">
         <v>0.495536390243902</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="8" t="n">
         <f aca="false">D8*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <f aca="false">F8*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="8" t="n">
         <v>0.474287083141249</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="8" t="n">
         <f aca="false">D9*2.2457</f>
         <v>67.371</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="8" t="n">
         <f aca="false">F9*0.6</f>
         <v>40.4226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="8" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="8" t="n">
         <v>0.427828097560976</v>
       </c>
-      <c r="F10" s="7" t="n">
+      <c r="F10" s="8" t="n">
         <f aca="false">D10*2.2457</f>
         <v>53.8968</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="8" t="n">
         <f aca="false">F10*0.6</f>
         <v>32.33808</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="7" t="n">
+      <c r="E11" s="8" t="n">
         <v>0.634010809756098</v>
       </c>
-      <c r="F11" s="7" t="n">
+      <c r="F11" s="8" t="n">
         <f aca="false">D11*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="8" t="n">
         <f aca="false">F11*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="8" t="n">
         <v>179</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="8" t="n">
         <v>0.181095820316269</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="8" t="n">
         <f aca="false">D12*2.2457</f>
         <v>69.6167</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="8" t="n">
         <f aca="false">F12*0.6</f>
         <v>41.77002</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>2017</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="7" t="n">
+      <c r="C13" s="8" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="8" t="n">
         <v>0.35039640768</v>
       </c>
-      <c r="F13" s="7" t="n">
+      <c r="F13" s="8" t="n">
         <f aca="false">D13*2.2457</f>
         <v>87.5823</v>
       </c>
-      <c r="G13" s="7" t="n">
+      <c r="G13" s="8" t="n">
         <f aca="false">F13*0.6</f>
         <v>52.54938</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="7" t="n">
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="n">
         <v>93</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="8" t="n">
         <v>160</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="8" t="n">
         <v>0.58685784336</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="8" t="n">
         <f aca="false">D14*2.2457</f>
         <v>359.312</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="8" t="n">
         <f aca="false">F14*0.6</f>
         <v>215.5872</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="7" t="n">
+      <c r="B15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="8" t="n">
         <v>54</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="8" t="n">
         <v>0.24311220636</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="8" t="n">
         <f aca="false">D15*2.2457</f>
         <v>121.2678</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="8" t="n">
         <f aca="false">F15*0.6</f>
         <v>72.76068</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="7" t="n">
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="8" t="n">
         <v>145</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="8" t="n">
         <v>181</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="8" t="n">
         <v>0.2981113254</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="8" t="n">
         <f aca="false">D16*2.2457</f>
         <v>406.4717</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="8" t="n">
         <f aca="false">F16*0.6</f>
         <v>243.88302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="n">
+      <c r="B17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="8" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="8" t="n">
         <f aca="false">D17*2.2457</f>
         <v>143.7248</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <f aca="false">F17*0.6</f>
         <v>86.23488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="8" t="n">
         <v>530</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="8" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="8" t="n">
         <f aca="false">D18*2.2457</f>
         <v>1190.221</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="8" t="n">
         <f aca="false">F18*0.6</f>
         <v>714.1326</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="8" t="n">
         <v>38.5</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="8" t="n">
         <v>0.65778210996</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="8" t="n">
         <f aca="false">D19*2.2457</f>
         <v>86.45945</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="8" t="n">
         <f aca="false">F19*0.6</f>
         <v>51.87567</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="8" t="n">
         <v>120</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="8" t="n">
         <v>1.7063034312</v>
       </c>
-      <c r="F20" s="7" t="n">
+      <c r="F20" s="8" t="n">
         <f aca="false">D20*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="8" t="n">
         <f aca="false">F20*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="7" t="n">
+      <c r="C21" s="8" t="n">
         <v>150</v>
       </c>
-      <c r="D21" s="7" t="n">
+      <c r="D21" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="7" t="n">
+      <c r="E21" s="8" t="n">
         <v>0.073060043712</v>
       </c>
-      <c r="F21" s="7" t="n">
+      <c r="F21" s="8" t="n">
         <f aca="false">D21*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G21" s="7" t="n">
+      <c r="G21" s="8" t="n">
         <f aca="false">F21*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="8" t="n">
         <v>221</v>
       </c>
-      <c r="D22" s="7" t="n">
+      <c r="D22" s="8" t="n">
         <v>13</v>
       </c>
       <c r="E22" s="0"/>
-      <c r="F22" s="7" t="n">
+      <c r="F22" s="8" t="n">
         <f aca="false">D22*2.2457</f>
         <v>29.1941</v>
       </c>
-      <c r="G22" s="7" t="n">
+      <c r="G22" s="8" t="n">
         <f aca="false">F22*0.6</f>
         <v>17.51646</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="8" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="8" t="n">
         <v>368</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="8" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="8" t="n">
         <v>0.44133636708</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="8" t="n">
         <f aca="false">D23*2.2457</f>
         <v>842.1375</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="8" t="n">
         <f aca="false">F23*0.6</f>
         <v>505.2825</v>
       </c>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,15 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="2018 P1 P2 rates not ctl sub" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="2017 RLS calc" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="P1" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="P1 2017 fluxes" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="2018" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="rate calcs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Remin from N2 rate calcs" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="power law fitting" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Lit N2 rate comparison" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="223">
   <si>
     <t xml:space="preserve">P2</t>
   </si>
@@ -261,6 +263,9 @@
     <t xml:space="preserve">Org C flux (not ctl sub) mg OC/m2/d</t>
   </si>
   <si>
+    <t xml:space="preserve">m</t>
+  </si>
+  <si>
     <t xml:space="preserve">P1</t>
   </si>
   <si>
@@ -300,9 +305,6 @@
     <t xml:space="preserve">Depth (z)</t>
   </si>
   <si>
-    <t xml:space="preserve">m</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0 is 100 m</t>
   </si>
   <si>
@@ -673,6 +675,27 @@
   </si>
   <si>
     <t xml:space="preserve">N2 predicted C remin (nM C/day) if 60% denit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted N2 production rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized to 93 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized to 87 m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized to average 100  m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of 100 m rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region</t>
   </si>
 </sst>
 </file>
@@ -684,7 +707,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -797,6 +820,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -849,7 +879,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -910,6 +940,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,7 +1001,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -983,7 +1017,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart175.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1154,11 +1188,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="62169073"/>
-        <c:axId val="37693027"/>
+        <c:axId val="36673720"/>
+        <c:axId val="8549633"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62169073"/>
+        <c:axId val="36673720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,13 +1258,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37693027"/>
+        <c:crossAx val="8549633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37693027"/>
+        <c:axId val="8549633"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1263,7 +1297,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62169073"/>
+        <c:crossAx val="36673720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1290,7 +1324,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1457,11 +1491,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52859360"/>
-        <c:axId val="31672390"/>
+        <c:axId val="92005976"/>
+        <c:axId val="9703263"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52859360"/>
+        <c:axId val="92005976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1528,13 +1562,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31672390"/>
+        <c:crossAx val="9703263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31672390"/>
+        <c:axId val="9703263"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1567,7 +1601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52859360"/>
+        <c:crossAx val="92005976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1594,7 +1628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1761,11 +1795,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="24928325"/>
-        <c:axId val="88202695"/>
+        <c:axId val="32369215"/>
+        <c:axId val="42638459"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="24928325"/>
+        <c:axId val="32369215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1833,12 +1867,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88202695"/>
+        <c:crossAx val="42638459"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88202695"/>
+        <c:axId val="42638459"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1905,7 +1939,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24928325"/>
+        <c:crossAx val="32369215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1932,7 +1966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2239,11 +2273,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="73290245"/>
-        <c:axId val="26326788"/>
+        <c:axId val="3851748"/>
+        <c:axId val="4725229"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73290245"/>
+        <c:axId val="3851748"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2319,13 +2353,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26326788"/>
+        <c:crossAx val="4725229"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="26326788"/>
+        <c:axId val="4725229"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2392,7 +2426,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73290245"/>
+        <c:crossAx val="3851748"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2419,7 +2453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart179.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2586,11 +2620,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="48286331"/>
-        <c:axId val="52475171"/>
+        <c:axId val="52910524"/>
+        <c:axId val="60859848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48286331"/>
+        <c:axId val="52910524"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2658,12 +2692,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52475171"/>
+        <c:crossAx val="60859848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52475171"/>
+        <c:axId val="60859848"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2730,7 +2764,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48286331"/>
+        <c:crossAx val="52910524"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2757,7 +2791,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart180.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2913,11 +2947,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42003289"/>
-        <c:axId val="48598526"/>
+        <c:axId val="57634619"/>
+        <c:axId val="49739104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42003289"/>
+        <c:axId val="57634619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,13 +2983,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48598526"/>
+        <c:crossAx val="49739104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48598526"/>
+        <c:axId val="49739104"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2988,7 +3022,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42003289"/>
+        <c:crossAx val="57634619"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3016,7 +3050,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart181.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3329,11 +3363,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42519133"/>
-        <c:axId val="46314170"/>
+        <c:axId val="22768590"/>
+        <c:axId val="37274405"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42519133"/>
+        <c:axId val="22768590"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3366,13 +3400,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46314170"/>
+        <c:crossAx val="37274405"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46314170"/>
+        <c:axId val="37274405"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3405,7 +3439,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42519133"/>
+        <c:crossAx val="22768590"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3433,7 +3467,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart182.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3597,11 +3631,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31320666"/>
-        <c:axId val="38217924"/>
+        <c:axId val="38543826"/>
+        <c:axId val="86858815"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31320666"/>
+        <c:axId val="38543826"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3635,13 +3669,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38217924"/>
+        <c:crossAx val="86858815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38217924"/>
+        <c:axId val="86858815"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3674,7 +3708,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31320666"/>
+        <c:crossAx val="38543826"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3701,7 +3735,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart183.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3868,11 +3902,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="70190566"/>
-        <c:axId val="19969720"/>
+        <c:axId val="8199457"/>
+        <c:axId val="23627567"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70190566"/>
+        <c:axId val="8199457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3940,13 +3974,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19969720"/>
+        <c:crossAx val="23627567"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19969720"/>
+        <c:axId val="23627567"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4013,7 +4047,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70190566"/>
+        <c:crossAx val="8199457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4040,7 +4074,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart184.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4276,11 +4310,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9428900"/>
-        <c:axId val="44536541"/>
+        <c:axId val="57568444"/>
+        <c:axId val="63943596"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9428900"/>
+        <c:axId val="57568444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4314,13 +4348,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44536541"/>
+        <c:crossAx val="63943596"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44536541"/>
+        <c:axId val="63943596"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4353,7 +4387,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9428900"/>
+        <c:crossAx val="57568444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4380,7 +4414,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart185.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4551,11 +4585,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14122102"/>
-        <c:axId val="98093888"/>
+        <c:axId val="56452275"/>
+        <c:axId val="84017535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14122102"/>
+        <c:axId val="56452275"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,13 +4655,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98093888"/>
+        <c:crossAx val="84017535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98093888"/>
+        <c:axId val="84017535"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4660,7 +4694,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14122102"/>
+        <c:crossAx val="56452275"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4687,7 +4721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart186.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4854,11 +4888,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20971435"/>
-        <c:axId val="59366475"/>
+        <c:axId val="81304966"/>
+        <c:axId val="14853173"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20971435"/>
+        <c:axId val="81304966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4925,13 +4959,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59366475"/>
+        <c:crossAx val="14853173"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59366475"/>
+        <c:axId val="14853173"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4964,7 +4998,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20971435"/>
+        <c:crossAx val="81304966"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4991,7 +5025,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart187.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5158,11 +5192,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31667658"/>
-        <c:axId val="80198625"/>
+        <c:axId val="10043835"/>
+        <c:axId val="99264074"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31667658"/>
+        <c:axId val="10043835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5230,12 +5264,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80198625"/>
+        <c:crossAx val="99264074"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80198625"/>
+        <c:axId val="99264074"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5302,7 +5336,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31667658"/>
+        <c:crossAx val="10043835"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5329,494 +5363,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206334976841476"/>
-          <c:y val="0.196814562002275"/>
-          <c:w val="0.731211713730763"/>
-          <c:h val="0.752559726962457"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="99ccff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="99ccff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffffff"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="53101104"/>
-        <c:axId val="62336270"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="53101104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Adjusted N2 production rates (nM N/d)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.170252502614672"/>
-              <c:y val="0.00526166097838453"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62336270"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="62336270"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t>Depth (m)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="53101104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart188.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5983,11 +5530,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="43767619"/>
-        <c:axId val="14241142"/>
+        <c:axId val="7551857"/>
+        <c:axId val="71386192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="43767619"/>
+        <c:axId val="7551857"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -6055,12 +5602,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14241142"/>
+        <c:crossAx val="71386192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14241142"/>
+        <c:axId val="71386192"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6127,7 +5674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="43767619"/>
+        <c:crossAx val="7551857"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6154,7 +5701,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart189.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6310,11 +5857,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="74572577"/>
-        <c:axId val="47733590"/>
+        <c:axId val="925320"/>
+        <c:axId val="6203983"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74572577"/>
+        <c:axId val="925320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6346,13 +5893,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47733590"/>
+        <c:crossAx val="6203983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47733590"/>
+        <c:axId val="6203983"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6385,7 +5932,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74572577"/>
+        <c:crossAx val="925320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -6413,7 +5960,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart190.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6726,11 +6273,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="84469433"/>
-        <c:axId val="81483636"/>
+        <c:axId val="49345081"/>
+        <c:axId val="18328870"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84469433"/>
+        <c:axId val="49345081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6763,13 +6310,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81483636"/>
+        <c:crossAx val="18328870"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81483636"/>
+        <c:axId val="18328870"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6802,7 +6349,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84469433"/>
+        <c:crossAx val="49345081"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6830,275 +6377,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart84.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206302343797072"/>
-          <c:y val="0.196884735202492"/>
-          <c:w val="0.731216484906911"/>
-          <c:h val="0.75257874697127"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030a0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030a0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="67019887"/>
-        <c:axId val="26389140"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="67019887"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26389140"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="26389140"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67019887"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart191.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7265,11 +6544,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="55913875"/>
-        <c:axId val="35668121"/>
+        <c:axId val="27255222"/>
+        <c:axId val="58296549"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55913875"/>
+        <c:axId val="27255222"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -7337,13 +6616,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35668121"/>
+        <c:crossAx val="58296549"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35668121"/>
+        <c:axId val="58296549"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -7410,7 +6689,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55913875"/>
+        <c:crossAx val="27255222"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7437,347 +6716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart86.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.206330452086313"/>
-          <c:y val="0.196825396825397"/>
-          <c:w val="0.731235619675393"/>
-          <c:h val="0.752522045855379"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>"FLux"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FLux</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7030a0"/>
-            </a:solidFill>
-            <a:ln w="47520">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="9"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030a0"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="diamond"/>
-              <c:size val="9"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:marker>
-              <c:symbol val="diamond"/>
-              <c:size val="9"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="ff0000"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="9"/>
-              <c:txPr>
-                <a:bodyPr wrap="square"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Times New Roman"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator>; </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr wrap="square"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1800" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$AB$3:$AB$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.88247895483209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.80415754312583</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.69378149232115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.53558820867151</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.88893214400569</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.51114571520455</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.95189654880588</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.45561178720739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2017 P2 rates not ctl sub'!$Y$3:$Y$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="57500162"/>
-        <c:axId val="88294037"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="57500162"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88294037"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="88294037"/>
-        <c:scaling>
-          <c:orientation val="maxMin"/>
-          <c:max val="300"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="9360">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="2800" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="57500162"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart192.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7852,7 +6791,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>P1!$N$3:$N$13</c:f>
+              <c:f>'P1 2017 fluxes'!$N$3:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7894,7 +6833,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>P1!$P$3:$P$13</c:f>
+              <c:f>'P1 2017 fluxes'!$P$3:$P$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -7936,11 +6875,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8726868"/>
-        <c:axId val="68525461"/>
+        <c:axId val="50187205"/>
+        <c:axId val="13071291"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8726868"/>
+        <c:axId val="50187205"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -8015,13 +6954,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68525461"/>
+        <c:crossAx val="13071291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68525461"/>
+        <c:axId val="13071291"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -8054,7 +6993,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8726868"/>
+        <c:crossAx val="50187205"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8081,7 +7020,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart193.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8167,7 +7106,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'rate calcs'!$D$14:$D$17</c:f>
+              <c:f>'Remin from N2 rate calcs'!$D$14:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8188,7 +7127,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'rate calcs'!$C$14:$C$17</c:f>
+              <c:f>'Remin from N2 rate calcs'!$C$14:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8209,11 +7148,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18264447"/>
-        <c:axId val="10268159"/>
+        <c:axId val="3962022"/>
+        <c:axId val="67428874"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18264447"/>
+        <c:axId val="3962022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8269,12 +7208,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10268159"/>
+        <c:crossAx val="67428874"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10268159"/>
+        <c:axId val="67428874"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8330,9 +7269,1020 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18264447"/>
+        <c:crossAx val="3962022"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart194.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>C. Coastal Sta. P1 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$F$3:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.762345679012346</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.567901234567901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.537808641975309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>190</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="77474667"/>
+        <c:axId val="45066931"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="77474667"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>N2 production rate normalized to 93 m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45066931"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45066931"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77474667"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart195.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>B. Offshore Sta. P2 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$F$8:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.88114754098361</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.556010928961749</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$F$12:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.52185792349727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6516393442623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$C$12:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="25001738"/>
+        <c:axId val="45022856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="25001738"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>N2 production rate normalized to 93 m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45022856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45022856"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="25001738"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart196.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>A. Offshore Sta. P2 2017</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="square"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:txPr>
+                <a:bodyPr wrap="none"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="0">
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.681818181818182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.31818181818182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.29703644063066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.954545454545454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.509977827050999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.407982261640799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.526977087952699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.662971175166297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'power law fitting'!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="66562246"/>
+        <c:axId val="59426407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66562246"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>N2 production rate normalized to 93 m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59426407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="59426407"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Depth (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="0">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66562246"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8668,14 +8618,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>660600</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>442080</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8683,7 +8633,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1680120" y="5035680"/>
+        <a:off x="1680120" y="2948400"/>
         <a:ext cx="4461480" cy="4747680"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8698,14 +8648,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>832320</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>632160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8713,7 +8663,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6531840" y="5576040"/>
+        <a:off x="6531840" y="3488760"/>
         <a:ext cx="4886280" cy="4773240"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8728,14 +8678,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>103680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1672920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8743,7 +8693,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12412800" y="5576040"/>
+        <a:off x="12412800" y="3488760"/>
         <a:ext cx="5474160" cy="4863600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8756,25 +8706,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1379880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>357840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>577440</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 4"/>
+        <xdr:cNvPr id="13" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41099040" y="3205440"/>
-        <a:ext cx="4818600" cy="5062680"/>
+        <a:off x="17593920" y="3446280"/>
+        <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8786,25 +8736,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1379880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>183240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>577440</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>633960</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 5"/>
+        <xdr:cNvPr id="14" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17593920" y="5533560"/>
-        <a:ext cx="5758200" cy="3238200"/>
+        <a:off x="2047320" y="6302880"/>
+        <a:ext cx="6325920" cy="5459040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8816,25 +8766,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>972360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 6"/>
+        <xdr:cNvPr id="15" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2047320" y="8390160"/>
-        <a:ext cx="6325920" cy="5459040"/>
+        <a:off x="8711640" y="6493680"/>
+        <a:ext cx="6522480" cy="5268240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8846,119 +8796,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>972360</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>137880</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1014480</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 7"/>
+        <xdr:cNvPr id="16" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8711640" y="8580600"/>
-        <a:ext cx="6522480" cy="5268240"/>
+        <a:off x="16214040" y="6493680"/>
+        <a:ext cx="5388120" cy="4750560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>719280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="44239320" y="2866320"/>
-        <a:ext cx="5974560" cy="5199840"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1014480</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="16214040" y="8580600"/>
-        <a:ext cx="5388120" cy="4750560"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>690480</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="50659560" y="2853000"/>
-        <a:ext cx="5788800" cy="5102640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8984,7 +8844,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 2"/>
+        <xdr:cNvPr id="17" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9019,7 +8879,7 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvPr id="18" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9037,6 +8897,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>379800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13444200" y="467640"/>
+        <a:ext cx="3191400" cy="4123800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>446400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10259640" y="467640"/>
+        <a:ext cx="3191400" cy="4123800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>554760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7057080" y="467640"/>
+        <a:ext cx="3191760" cy="4128120"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -9044,8 +8999,8 @@
   </sheetPr>
   <dimension ref="A1:BL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z9" activeCellId="0" sqref="Z9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10497,10 +10452,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD2" activeCellId="0" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10668,1854 +10623,676 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>359.8549</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <f aca="false">G3*3.52</f>
-        <v>1266.689248</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>48.9755</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">J3*3.52</f>
-        <v>172.39376</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <f aca="false">(H3/1000)/($M3*($L3/24))</f>
-        <v>5.50734455652174</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <f aca="false">(K3/1000)/($M3*($L3/24))</f>
-        <v>0.749538086956522</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <f aca="false">(O3/14)*1000</f>
-        <v>53.5384347826087</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>69</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <f aca="false">N3/12</f>
-        <v>0.458945379710145</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <f aca="false">(H3/1000)/F3</f>
-        <v>1.266689248</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <f aca="false">(S3/12)*1000</f>
-        <v>105.557437333333</v>
-      </c>
-      <c r="U3" s="0" t="n">
-        <f aca="false">N3/$AD$2</f>
-        <v>0.651632371191503</v>
-      </c>
-      <c r="W3" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA3" s="0" t="n">
-        <f aca="false">Z3/S4</f>
-        <v>16.5005726358728</v>
-      </c>
-      <c r="AB3" s="0" t="n">
-        <f aca="false">AA3*U4</f>
-        <v>2.52542014905108</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="N3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>154.9533</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <f aca="false">G4*3.52</f>
-        <v>545.435616</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>20.4075</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">J4*3.52</f>
-        <v>71.8344</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>0.46</v>
+      <c r="F4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>511.6531819</v>
       </c>
       <c r="N4" s="0" t="n">
-        <f aca="false">(H4/1000)/(M4*(L4/24))</f>
-        <v>1.2935232</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <f aca="false">(K4/1000)/($M4*($L4/24))</f>
-        <v>0.170358260869565</v>
-      </c>
-      <c r="P4" s="0" t="n">
-        <f aca="false">(O4/14)*1000</f>
-        <v>12.1684472049689</v>
+        <v>0.35039640768</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R4" s="0" t="n">
         <f aca="false">N4/12</f>
-        <v>0.1077936</v>
+        <v>0.02919970064</v>
       </c>
       <c r="S4" s="0" t="n">
         <f aca="false">(H4/1000)/F4</f>
-        <v>0.90905936</v>
+        <v>0.5116531819</v>
       </c>
       <c r="T4" s="0" t="n">
         <f aca="false">(S4/12)*1000</f>
-        <v>75.7549466666667</v>
-      </c>
-      <c r="U4" s="0" t="n">
+        <v>42.6377651583333</v>
+      </c>
+      <c r="U4" s="5" t="n">
         <f aca="false">N4/$AD$2</f>
-        <v>0.153050454961832</v>
+        <v>0.0414591169392366</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y4" s="0" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>29</v>
+        <v>160</v>
       </c>
       <c r="AA4" s="0" t="n">
         <f aca="false">Z4/S4</f>
-        <v>31.9011070960207</v>
-      </c>
-      <c r="AB4" s="0" t="n">
+        <v>312.711824454697</v>
+      </c>
+      <c r="AB4" s="7" t="n">
         <f aca="false">AA4*U4</f>
-        <v>4.88247895483209</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12.9647560983493</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>122</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F5" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>118.8603</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <f aca="false">G5*3.52</f>
-        <v>418.388256</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>8.8344</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">J5*3.52</f>
-        <v>31.097088</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>0.46</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>379.411123</v>
       </c>
       <c r="N5" s="0" t="n">
-        <f aca="false">(H5/1000)/(M5*(L5/24))</f>
-        <v>0.992225113043478</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <f aca="false">(K5/1000)/($M5*($L5/24))</f>
-        <v>0.0737480347826087</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <f aca="false">(O5/14)*1000</f>
-        <v>5.26771677018634</v>
+        <v>0.58685784336</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <v>120</v>
+        <f aca="false">B5</f>
+        <v>122</v>
       </c>
       <c r="R5" s="0" t="n">
         <f aca="false">N5/12</f>
-        <v>0.0826854260869565</v>
+        <v>0.04890482028</v>
       </c>
       <c r="S5" s="0" t="n">
         <f aca="false">(H5/1000)/F5</f>
-        <v>0.69731376</v>
+        <v>0.379411123</v>
       </c>
       <c r="T5" s="0" t="n">
         <f aca="false">(S5/12)*1000</f>
-        <v>58.10948</v>
-      </c>
-      <c r="U5" s="0" t="n">
+        <v>31.6175935833333</v>
+      </c>
+      <c r="U5" s="5" t="n">
         <f aca="false">N5/$AD$2</f>
-        <v>0.117400681314305</v>
+        <v>0.0694373784128244</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB5" s="0" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <f aca="false">Z5/S5</f>
+        <v>142.325822113549</v>
+      </c>
+      <c r="AB5" s="7" t="n">
+        <f aca="false">AA5*U5</f>
+        <v>9.88273196801486</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>145</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>82</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="F6" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>157.3665</v>
+        <v>1</v>
       </c>
       <c r="H6" s="0" t="n">
-        <f aca="false">G6*3.52</f>
-        <v>553.93008</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>16.3866</v>
-      </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">J6*3.52</f>
-        <v>57.680832</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.46</v>
+        <v>707.0476014</v>
       </c>
       <c r="N6" s="0" t="n">
-        <f aca="false">(H6/1000)/(M6*(L6/24))</f>
-        <v>1.31366817391304</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">(K6/1000)/($M6*($L6/24))</f>
-        <v>0.136792486956522</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <f aca="false">(O6/14)*1000</f>
-        <v>9.77089192546584</v>
+        <v>0.24311220636</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>120</v>
+        <f aca="false">B6</f>
+        <v>145</v>
       </c>
       <c r="R6" s="0" t="n">
         <f aca="false">N6/12</f>
-        <v>0.109472347826087</v>
+        <v>0.02025935053</v>
       </c>
       <c r="S6" s="0" t="n">
         <f aca="false">(H6/1000)/F6</f>
-        <v>0.9232168</v>
+        <v>0.7070476014</v>
       </c>
       <c r="T6" s="0" t="n">
         <f aca="false">(S6/12)*1000</f>
-        <v>76.9347333333333</v>
-      </c>
-      <c r="U6" s="0" t="n">
+        <v>58.92063345</v>
+      </c>
+      <c r="U6" s="5" t="n">
         <f aca="false">N6/$AD$2</f>
-        <v>0.155434020577497</v>
+        <v>0.0287651847219847</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y6" s="0" t="n">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <f aca="false">Z6*S6</f>
-        <v>31.3893712</v>
-      </c>
-      <c r="AB6" s="0" t="n">
-        <f aca="false">AA6*U4</f>
-        <v>4.80415754312583</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+        <f aca="false">Z6/S6</f>
+        <v>255.994079665369</v>
+      </c>
+      <c r="AB6" s="7" t="n">
+        <f aca="false">AA6*U6</f>
+        <v>7.36371698930883</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>190</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>116.4777</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <f aca="false">G7*3.52</f>
-        <v>410.001504</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>8.9554</v>
-      </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">J7*3.52</f>
-        <v>31.523008</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>1.23</v>
+        <v>323.8504172</v>
       </c>
       <c r="N7" s="0" t="n">
-        <f aca="false">(H7/1000)/(M7*(L7/24))</f>
-        <v>0.363637697560976</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">(K7/1000)/($M7*($L7/24))</f>
-        <v>0.0279583219512195</v>
-      </c>
-      <c r="P7" s="0" t="n">
-        <f aca="false">(O7/14)*1000</f>
-        <v>1.99702299651568</v>
+        <v>0.2981113254</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>150</v>
+        <f aca="false">B7</f>
+        <v>190</v>
       </c>
       <c r="R7" s="0" t="n">
         <f aca="false">N7/12</f>
-        <v>0.0303031414634146</v>
+        <v>0.02484261045</v>
       </c>
       <c r="S7" s="0" t="n">
         <f aca="false">(H7/1000)/F7</f>
-        <v>0.68333584</v>
+        <v>0.3238504172</v>
       </c>
       <c r="T7" s="0" t="n">
         <f aca="false">(S7/12)*1000</f>
-        <v>56.9446533333333</v>
-      </c>
-      <c r="U7" s="0" t="n">
+        <v>26.9875347666667</v>
+      </c>
+      <c r="U7" s="5" t="n">
         <f aca="false">N7/$AD$2</f>
-        <v>0.0430258344442376</v>
+        <v>0.0352727140740458</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="Y7" s="0" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="Z7" s="0" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="AA7" s="0" t="n">
-        <f aca="false">Z7/S5</f>
-        <v>22.9451947140696</v>
-      </c>
-      <c r="AB7" s="0" t="n">
-        <f aca="false">AA7*U5</f>
-        <v>2.69378149232115</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
+        <f aca="false">Z7/S7</f>
+        <v>197.622101442209</v>
+      </c>
+      <c r="AB7" s="7" t="n">
+        <f aca="false">AA7*U7</f>
+        <v>6.9706678788831</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>159</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>76.8978</v>
+        <v>1</v>
       </c>
       <c r="H8" s="0" t="n">
-        <f aca="false">G8*3.52</f>
-        <v>270.680256</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>7.3374</v>
-      </c>
-      <c r="K8" s="0" t="n">
-        <f aca="false">J8*3.52</f>
-        <v>25.827648</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>0.46</v>
+        <v>4109.152077</v>
       </c>
       <c r="N8" s="0" t="n">
-        <f aca="false">(H8/1000)/(M8*(L8/24))</f>
-        <v>0.641929460869565</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">(K8/1000)/($M8*($L8/24))</f>
-        <v>0.0612513391304348</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <f aca="false">(O8/14)*1000</f>
-        <v>4.37509565217391</v>
+        <v>1.3821818328</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>159</v>
+        <f aca="false">B8</f>
+        <v>85</v>
       </c>
       <c r="R8" s="0" t="n">
         <f aca="false">N8/12</f>
-        <v>0.0534941217391305</v>
+        <v>0.1151818194</v>
       </c>
       <c r="S8" s="0" t="n">
         <f aca="false">(H8/1000)/F8</f>
-        <v>0.45113376</v>
+        <v>4.109152077</v>
       </c>
       <c r="T8" s="0" t="n">
         <f aca="false">(S8/12)*1000</f>
-        <v>37.59448</v>
-      </c>
-      <c r="U8" s="0" t="n">
+        <v>342.42933975</v>
+      </c>
+      <c r="U8" s="5" t="n">
         <f aca="false">N8/$AD$2</f>
-        <v>0.0759534858280783</v>
+        <v>0.163540598537405</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X8" s="0" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="0" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Z8" s="0" t="n">
-        <v>21</v>
+        <v>530</v>
       </c>
       <c r="AA8" s="0" t="n">
-        <f aca="false">Z8/S6</f>
-        <v>22.746553138981</v>
-      </c>
-      <c r="AB8" s="0" t="n">
-        <f aca="false">AA8*U6</f>
-        <v>3.53558820867151</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
+        <f aca="false">Z8/S8</f>
+        <v>128.980380883577</v>
+      </c>
+      <c r="AB8" s="7" t="n">
+        <f aca="false">AA8*U8</f>
+        <v>21.0935286892825</v>
+      </c>
+      <c r="AS8" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>158.7265</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
-        <f aca="false">G9*3.52</f>
-        <v>558.71728</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>22.1414</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <f aca="false">J9*3.52</f>
-        <v>77.937728</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>1.23</v>
+        <v>409.4551795</v>
       </c>
       <c r="N9" s="0" t="n">
-        <f aca="false">(H9/1000)/(M9*(L9/24))</f>
-        <v>0.495536390243902</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">(K9/1000)/($M9*($L9/24))</f>
-        <v>0.0691243707317073</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <f aca="false">(O9/14)*1000</f>
-        <v>4.93745505226481</v>
+        <v>0.65778210996</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>180</v>
+        <f aca="false">B9</f>
+        <v>87</v>
       </c>
       <c r="R9" s="0" t="n">
         <f aca="false">N9/12</f>
-        <v>0.0412946991869919</v>
+        <v>0.05481517583</v>
       </c>
       <c r="S9" s="0" t="n">
         <f aca="false">(H9/1000)/F9</f>
-        <v>0.931195466666667</v>
+        <v>0.4094551795</v>
       </c>
       <c r="T9" s="0" t="n">
         <f aca="false">(S9/12)*1000</f>
-        <v>77.5996222222222</v>
-      </c>
-      <c r="U9" s="0" t="n">
+        <v>34.1212649583333</v>
+      </c>
+      <c r="U9" s="5" t="n">
         <f aca="false">N9/$AD$2</f>
-        <v>0.0586321683113014</v>
+        <v>0.0778291809494656</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X9" s="0" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="0" t="n">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
+        <v>38.5</v>
+      </c>
+      <c r="AA9" s="0" t="n">
+        <f aca="false">Z9/S9</f>
+        <v>94.0273854809059</v>
+      </c>
+      <c r="AB9" s="7" t="n">
+        <f aca="false">AA9*U9</f>
+        <v>7.31807439879858</v>
+      </c>
+      <c r="AS9" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>265</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>628.3967</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">G10*3.52</f>
-        <v>2211.956384</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>88.3042</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>111.2722</v>
-      </c>
-      <c r="K10" s="0" t="n">
-        <f aca="false">J10*3.52</f>
-        <v>391.678144</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="N10" s="0" t="n">
-        <f aca="false">(H10/1000)/(M10*(L10/24))</f>
-        <v>0.474287083141249</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">(K10/1000)/($M10*($L10/24))</f>
-        <v>0.0839835205574913</v>
-      </c>
-      <c r="P10" s="0" t="n">
-        <f aca="false">(O10/14)*1000</f>
-        <v>5.99882289696366</v>
+        <v>1.7063034312</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>265</v>
+        <f aca="false">B10</f>
+        <v>120</v>
       </c>
       <c r="R10" s="0" t="n">
         <f aca="false">N10/12</f>
-        <v>0.0395239235951041</v>
+        <v>0.1421919526</v>
       </c>
       <c r="S10" s="0" t="n">
-        <f aca="false">(H10/1000)/F10</f>
-        <v>1.38247274</v>
+        <f aca="false">(H10/1000)/F11</f>
+        <v>0</v>
       </c>
       <c r="T10" s="0" t="n">
         <f aca="false">(S10/12)*1000</f>
-        <v>115.206061666667</v>
-      </c>
-      <c r="U10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
         <f aca="false">N10/$AD$2</f>
-        <v>0.0561179373182394</v>
+        <v>0.201890863996947</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X10" s="0" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB10" s="7"/>
+      <c r="AS10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="Z10" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="0" t="n">
-        <f aca="false">Z10/S7</f>
-        <v>43.9022779779852</v>
-      </c>
-      <c r="AB10" s="0" t="n">
-        <f aca="false">AA10*U7</f>
-        <v>1.88893214400569</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5" t="n">
-        <v>365</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="C11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>199.329</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">G11*3.52</f>
-        <v>701.63808</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2" t="n">
-        <v>24.9375</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <f aca="false">J11*3.52</f>
-        <v>87.78</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <f aca="false">(H11/1000)/(M11*(L11/24))</f>
-        <v>0.427828097560976</v>
-      </c>
-      <c r="O11" s="5" t="n">
-        <f aca="false">(K11/1000)/($M11*($L11/24))</f>
-        <v>0.0535243902439024</v>
-      </c>
-      <c r="P11" s="5" t="n">
-        <f aca="false">(O11/14)*1000</f>
-        <v>3.82317073170732</v>
-      </c>
-      <c r="Q11" s="5" t="n">
-        <v>365</v>
-      </c>
-      <c r="R11" s="5" t="n">
+      <c r="H11" s="0" t="n">
+        <v>399.3593388</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1.3737811968</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">B11</f>
+        <v>150</v>
+      </c>
+      <c r="R11" s="0" t="n">
         <f aca="false">N11/12</f>
-        <v>0.0356523414634146</v>
+        <v>0.1144817664</v>
       </c>
       <c r="S11" s="0" t="n">
         <f aca="false">(H11/1000)/F11</f>
-        <v>0.70163808</v>
+        <v>0.3993593388</v>
       </c>
       <c r="T11" s="0" t="n">
         <f aca="false">(S11/12)*1000</f>
-        <v>58.46984</v>
+        <v>33.2799449</v>
       </c>
       <c r="U11" s="5" t="n">
         <f aca="false">N11/$AD$2</f>
-        <v>0.0506208817724819</v>
-      </c>
-      <c r="V11" s="5"/>
+        <v>0.162546630155725</v>
+      </c>
       <c r="W11" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Y11" s="0" t="n">
         <v>150</v>
       </c>
-      <c r="Z11" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="5" t="n">
-        <f aca="false">Z11/S7</f>
-        <v>35.1218223823881</v>
-      </c>
-      <c r="AB11" s="5" t="n">
-        <f aca="false">AA11*U7</f>
-        <v>1.51114571520455</v>
-      </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
+      <c r="Z11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <f aca="false">Z11/S11</f>
+        <v>25.0401055601908</v>
+      </c>
+      <c r="AB11" s="7" t="n">
+        <f aca="false">AA11*U11</f>
+        <v>4.07018477755265</v>
+      </c>
+      <c r="AS11" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="5" t="n">
-        <v>452</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="n">
+      <c r="A12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>295.3914</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">G12*3.52</f>
-        <v>1039.777728</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2" t="n">
-        <v>31.0277</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <f aca="false">J12*3.52</f>
-        <v>109.217504</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <f aca="false">(H12/1000)/(M12*(L12/24))</f>
-        <v>0.634010809756098</v>
-      </c>
-      <c r="O12" s="5" t="n">
-        <f aca="false">(K12/1000)/($M12*($L12/24))</f>
-        <v>0.0665960390243902</v>
-      </c>
-      <c r="P12" s="5" t="n">
-        <f aca="false">(O12/14)*1000</f>
-        <v>4.75685993031359</v>
-      </c>
-      <c r="Q12" s="5" t="n">
-        <v>452</v>
-      </c>
-      <c r="R12" s="5" t="n">
+      <c r="H12" s="0" t="n">
+        <v>290.9490265</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>3.491388318</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <f aca="false">B12</f>
+        <v>221</v>
+      </c>
+      <c r="R12" s="0" t="n">
         <f aca="false">N12/12</f>
-        <v>0.0528342341463415</v>
+        <v>0.2909490265</v>
       </c>
       <c r="S12" s="0" t="n">
         <f aca="false">(H12/1000)/F12</f>
-        <v>1.039777728</v>
+        <v>0.2909490265</v>
       </c>
       <c r="T12" s="0" t="n">
         <f aca="false">(S12/12)*1000</f>
-        <v>86.648144</v>
+        <v>24.2457522083333</v>
       </c>
       <c r="U12" s="5" t="n">
         <f aca="false">N12/$AD$2</f>
-        <v>0.0750165461925154</v>
-      </c>
-      <c r="V12" s="5"/>
+        <v>0.413103197931298</v>
+      </c>
       <c r="W12" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="5" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
+      <c r="Y12" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <f aca="false">Z12/S12</f>
+        <v>44.6813662048806</v>
+      </c>
+      <c r="AB12" s="7" t="n">
+        <f aca="false">AA12*U12</f>
+        <v>18.4580152671756</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>965</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>368</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>88</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="F13" s="0" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>239.9391</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <f aca="false">G13*3.52</f>
-        <v>844.585632</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>76.2536</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>25.0153</v>
-      </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">J13*3.52</f>
-        <v>88.053856</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>91</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>1.23</v>
+        <v>1619.81745</v>
       </c>
       <c r="N13" s="0" t="n">
-        <f aca="false">(H13/1000)/(M13*(L13/24))</f>
-        <v>0.181095820316269</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <f aca="false">(K13/1000)/($M13*($L13/24))</f>
-        <v>0.0188804837309032</v>
-      </c>
-      <c r="P13" s="0" t="n">
-        <f aca="false">(O13/14)*1000</f>
-        <v>1.3486059807788</v>
+        <v>0.44133636708</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>965</v>
+        <f aca="false">B13</f>
+        <v>368</v>
       </c>
       <c r="R13" s="0" t="n">
         <f aca="false">N13/12</f>
-        <v>0.0150913183596891</v>
+        <v>0.03677803059</v>
       </c>
       <c r="S13" s="0" t="n">
         <f aca="false">(H13/1000)/F13</f>
-        <v>0.52786602</v>
+        <v>1.61981745</v>
       </c>
       <c r="T13" s="0" t="n">
         <f aca="false">(S13/12)*1000</f>
-        <v>43.988835</v>
+        <v>134.9847875</v>
       </c>
       <c r="U13" s="5" t="n">
         <f aca="false">N13/$AD$2</f>
-        <v>0.0214273680526883</v>
+        <v>0.0522191884712977</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="X13" s="0" t="s">
         <v>0</v>
       </c>
       <c r="Y13" s="0" t="n">
-        <v>179</v>
+        <v>368</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="AA13" s="0" t="n">
-        <f aca="false">Z13/S9</f>
-        <v>33.2905400742214</v>
-      </c>
-      <c r="AB13" s="0" t="n">
-        <f aca="false">AA13*U9</f>
-        <v>1.95189654880588</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="N14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="5"/>
-      <c r="W14" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="X14" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="0" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z14" s="0" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA14" s="0" t="n">
-        <f aca="false">Z14/S9</f>
-        <v>41.8816471901496</v>
-      </c>
-      <c r="AB14" s="0" t="n">
-        <f aca="false">AA14*U9</f>
-        <v>2.45561178720739</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6" t="n">
-        <v>511.6531819</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>0.35039640768</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="R15" s="0" t="n">
-        <f aca="false">N15/12</f>
-        <v>0.02919970064</v>
-      </c>
-      <c r="S15" s="0" t="n">
-        <f aca="false">(H15/1000)/F15</f>
-        <v>0.5116531819</v>
-      </c>
-      <c r="T15" s="0" t="n">
-        <f aca="false">(S15/12)*1000</f>
-        <v>42.6377651583333</v>
-      </c>
-      <c r="U15" s="5" t="n">
-        <f aca="false">N15/$AD$2</f>
-        <v>0.0414591169392366</v>
-      </c>
-      <c r="W15" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y15" s="0" t="n">
-        <v>93</v>
-      </c>
-      <c r="Z15" s="0" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA15" s="0" t="n">
-        <f aca="false">Z15/S15</f>
-        <v>312.711824454697</v>
-      </c>
-      <c r="AB15" s="7" t="n">
-        <f aca="false">AA15*U15</f>
-        <v>12.9647560983493</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="n">
-        <v>379.411123</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>0.58685784336</v>
-      </c>
-      <c r="Q16" s="0" t="n">
-        <f aca="false">B16</f>
-        <v>122</v>
-      </c>
-      <c r="R16" s="0" t="n">
-        <f aca="false">N16/12</f>
-        <v>0.04890482028</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <f aca="false">(H16/1000)/F16</f>
-        <v>0.379411123</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <f aca="false">(S16/12)*1000</f>
-        <v>31.6175935833333</v>
-      </c>
-      <c r="U16" s="5" t="n">
-        <f aca="false">N16/$AD$2</f>
-        <v>0.0694373784128244</v>
-      </c>
-      <c r="W16" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y16" s="0" t="n">
-        <v>122</v>
-      </c>
-      <c r="Z16" s="0" t="n">
-        <v>54</v>
-      </c>
-      <c r="AA16" s="0" t="n">
-        <f aca="false">Z16/S16</f>
-        <v>142.325822113549</v>
-      </c>
-      <c r="AB16" s="7" t="n">
-        <f aca="false">AA16*U16</f>
-        <v>9.88273196801486</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>707.0476014</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>0.24311220636</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <f aca="false">B17</f>
-        <v>145</v>
-      </c>
-      <c r="R17" s="0" t="n">
-        <f aca="false">N17/12</f>
-        <v>0.02025935053</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <f aca="false">(H17/1000)/F17</f>
-        <v>0.7070476014</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <f aca="false">(S17/12)*1000</f>
-        <v>58.92063345</v>
-      </c>
-      <c r="U17" s="5" t="n">
-        <f aca="false">N17/$AD$2</f>
-        <v>0.0287651847219847</v>
-      </c>
-      <c r="W17" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y17" s="0" t="n">
-        <v>145</v>
-      </c>
-      <c r="Z17" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="AA17" s="0" t="n">
-        <f aca="false">Z17/S17</f>
-        <v>255.994079665369</v>
-      </c>
-      <c r="AB17" s="7" t="n">
-        <f aca="false">AA17*U17</f>
-        <v>7.36371698930883</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>323.8504172</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>0.2981113254</v>
-      </c>
-      <c r="Q18" s="0" t="n">
-        <f aca="false">B18</f>
-        <v>190</v>
-      </c>
-      <c r="R18" s="0" t="n">
-        <f aca="false">N18/12</f>
-        <v>0.02484261045</v>
-      </c>
-      <c r="S18" s="0" t="n">
-        <f aca="false">(H18/1000)/F18</f>
-        <v>0.3238504172</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <f aca="false">(S18/12)*1000</f>
-        <v>26.9875347666667</v>
-      </c>
-      <c r="U18" s="5" t="n">
-        <f aca="false">N18/$AD$2</f>
-        <v>0.0352727140740458</v>
-      </c>
-      <c r="W18" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="Z18" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA18" s="0" t="n">
-        <f aca="false">Z18/S18</f>
-        <v>197.622101442209</v>
-      </c>
-      <c r="AB18" s="7" t="n">
-        <f aca="false">AA18*U18</f>
-        <v>6.9706678788831</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>4109.152077</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>1.3821818328</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <f aca="false">B19</f>
-        <v>85</v>
-      </c>
-      <c r="R19" s="0" t="n">
-        <f aca="false">N19/12</f>
-        <v>0.1151818194</v>
-      </c>
-      <c r="S19" s="0" t="n">
-        <f aca="false">(H19/1000)/F19</f>
-        <v>4.109152077</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <f aca="false">(S19/12)*1000</f>
-        <v>342.42933975</v>
-      </c>
-      <c r="U19" s="5" t="n">
-        <f aca="false">N19/$AD$2</f>
-        <v>0.163540598537405</v>
-      </c>
-      <c r="W19" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="0" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z19" s="0" t="n">
-        <v>530</v>
-      </c>
-      <c r="AA19" s="0" t="n">
-        <f aca="false">Z19/S19</f>
-        <v>128.980380883577</v>
-      </c>
-      <c r="AB19" s="7" t="n">
-        <f aca="false">AA19*U19</f>
-        <v>21.0935286892825</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>409.4551795</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0.65778210996</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <f aca="false">B20</f>
-        <v>87</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <f aca="false">N20/12</f>
-        <v>0.05481517583</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <f aca="false">(H20/1000)/F20</f>
-        <v>0.4094551795</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <f aca="false">(S20/12)*1000</f>
-        <v>34.1212649583333</v>
-      </c>
-      <c r="U20" s="5" t="n">
-        <f aca="false">N20/$AD$2</f>
-        <v>0.0778291809494656</v>
-      </c>
-      <c r="W20" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="0" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z20" s="0" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="AA20" s="0" t="n">
-        <f aca="false">Z20/S20</f>
-        <v>94.0273854809059</v>
-      </c>
-      <c r="AB20" s="7" t="n">
-        <f aca="false">AA20*U20</f>
-        <v>7.31807439879858</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1.7063034312</v>
-      </c>
-      <c r="Q21" s="0" t="n">
-        <f aca="false">B21</f>
-        <v>120</v>
-      </c>
-      <c r="R21" s="0" t="n">
-        <f aca="false">N21/12</f>
-        <v>0.1421919526</v>
-      </c>
-      <c r="S21" s="0" t="n">
-        <f aca="false">(H21/1000)/F22</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="0" t="n">
-        <f aca="false">(S21/12)*1000</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="5" t="n">
-        <f aca="false">N21/$AD$2</f>
-        <v>0.201890863996947</v>
-      </c>
-      <c r="W21" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X21" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="0" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>399.3593388</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>0.073060043712</v>
-      </c>
-      <c r="Q22" s="0" t="n">
-        <f aca="false">B22</f>
-        <v>150</v>
-      </c>
-      <c r="R22" s="0" t="n">
-        <f aca="false">N22/12</f>
-        <v>0.006088336976</v>
-      </c>
-      <c r="S22" s="0" t="n">
-        <f aca="false">(H22/1000)/F22</f>
-        <v>0.3993593388</v>
-      </c>
-      <c r="T22" s="0" t="n">
-        <f aca="false">(S22/12)*1000</f>
-        <v>33.2799449</v>
-      </c>
-      <c r="U22" s="5" t="n">
-        <f aca="false">N22/$AD$2</f>
-        <v>0.00864450898882443</v>
-      </c>
-      <c r="W22" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X22" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA22" s="0" t="n">
-        <f aca="false">Z22/S22</f>
-        <v>25.0401055601908</v>
-      </c>
-      <c r="AB22" s="7" t="n">
-        <f aca="false">AA22*U22</f>
-        <v>0.216459417596182</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>290.9490265</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>3.491388318</v>
-      </c>
-      <c r="Q23" s="0" t="n">
-        <f aca="false">B23</f>
-        <v>221</v>
-      </c>
-      <c r="R23" s="0" t="n">
-        <f aca="false">N23/12</f>
-        <v>0.2909490265</v>
-      </c>
-      <c r="S23" s="0" t="n">
-        <f aca="false">(H23/1000)/F23</f>
-        <v>0.2909490265</v>
-      </c>
-      <c r="T23" s="0" t="n">
-        <f aca="false">(S23/12)*1000</f>
-        <v>24.2457522083333</v>
-      </c>
-      <c r="U23" s="5" t="n">
-        <f aca="false">N23/$AD$2</f>
-        <v>0.413103197931298</v>
-      </c>
-      <c r="W23" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" s="0" t="n">
-        <f aca="false">Z23/S23</f>
-        <v>44.6813662048806</v>
-      </c>
-      <c r="AB23" s="7" t="n">
-        <f aca="false">AA23*U23</f>
-        <v>18.4580152671756</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>1619.81745</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>0.44133636708</v>
-      </c>
-      <c r="Q24" s="0" t="n">
-        <f aca="false">B24</f>
-        <v>368</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <f aca="false">N24/12</f>
-        <v>0.03677803059</v>
-      </c>
-      <c r="S24" s="0" t="n">
-        <f aca="false">(H24/1000)/F24</f>
-        <v>1.61981745</v>
-      </c>
-      <c r="T24" s="0" t="n">
-        <f aca="false">(S24/12)*1000</f>
-        <v>134.9847875</v>
-      </c>
-      <c r="U24" s="5" t="n">
-        <f aca="false">N24/$AD$2</f>
-        <v>0.0522191884712977</v>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>368</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="AA24" s="0" t="n">
-        <f aca="false">Z24/S24</f>
+        <f aca="false">Z13/S13</f>
         <v>231.507568954761</v>
       </c>
-      <c r="AB24" s="7" t="n">
-        <f aca="false">AA24*U24</f>
+      <c r="AB13" s="7" t="n">
+        <f aca="false">AA13*U13</f>
         <v>12.0891373757806</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S32" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T34" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="W35" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W36" s="0" t="n">
-        <f aca="false">PI()*(21/2)^2</f>
-        <v>346.360590058275</v>
-      </c>
-      <c r="X36" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S37" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U37" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V37" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <f aca="false">(PI()*(38.1/2)^2)</f>
-        <v>1140.09182796937</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y37" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S38" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="U38" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y38" s="0" t="n">
-        <f aca="false">W36*(1-0.064)</f>
-        <v>324.193512294545</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <f aca="false">W37/Y38</f>
-        <v>3.51670155241584</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W40" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -12551,21 +11328,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>92</v>
@@ -12716,7 +11493,7 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -12734,7 +11511,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -12767,7 +11544,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -13417,7 +12194,7 @@
   <dimension ref="A1:AB109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13454,7 +12231,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>93</v>
@@ -13482,7 +12259,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>122</v>
@@ -13513,7 +12290,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>145</v>
@@ -13541,7 +12318,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>190</v>
@@ -13683,11 +12460,11 @@
         <v>15</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>6.088336976</v>
+        <v>114.4817664</v>
       </c>
       <c r="G11" s="8" t="n">
         <f aca="false">F11*12/1000</f>
-        <v>0.073060043712</v>
+        <v>1.3737811968</v>
       </c>
       <c r="H11" s="8" t="n">
         <v>0.016</v>
@@ -14272,7 +13049,7 @@
         <v>156</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D54" s="8" t="n">
         <v>50</v>
@@ -14289,7 +13066,7 @@
         <v>157</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>47</v>
@@ -14300,7 +13077,7 @@
         <v>158</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>47</v>
@@ -14311,7 +13088,7 @@
         <v>159</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>47</v>
@@ -14322,7 +13099,7 @@
         <v>160</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" s="8" t="n">
         <v>120</v>
@@ -14336,7 +13113,7 @@
         <v>161</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>47</v>
@@ -14347,7 +13124,7 @@
         <v>162</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>47</v>
@@ -14358,7 +13135,7 @@
         <v>163</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G61" s="8" t="s">
         <v>47</v>
@@ -14369,7 +13146,7 @@
         <v>164</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>47</v>
@@ -14380,7 +13157,7 @@
         <v>165</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D63" s="8" t="n">
         <v>122</v>
@@ -14400,7 +13177,7 @@
         <v>166</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G64" s="8" t="s">
         <v>39</v>
@@ -14411,7 +13188,7 @@
         <v>167</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>39</v>
@@ -14422,7 +13199,7 @@
         <v>168</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" s="8" t="n">
         <v>120</v>
@@ -14442,7 +13219,7 @@
         <v>169</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" s="8" t="n">
         <v>190</v>
@@ -14462,7 +13239,7 @@
         <v>170</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>39</v>
@@ -14473,7 +13250,7 @@
         <v>171</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>39</v>
@@ -14484,7 +13261,7 @@
         <v>172</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" s="8" t="n">
         <v>123</v>
@@ -14498,7 +13275,7 @@
         <v>173</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14506,7 +13283,7 @@
         <v>174</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14514,7 +13291,7 @@
         <v>175</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14522,7 +13299,7 @@
         <v>176</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D74" s="8" t="n">
         <v>201</v>
@@ -14539,7 +13316,7 @@
         <v>177</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14547,7 +13324,7 @@
         <v>178</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14555,7 +13332,7 @@
         <v>179</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14563,7 +13340,7 @@
         <v>180</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14571,7 +13348,7 @@
         <v>181</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14579,7 +13356,7 @@
         <v>182</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14587,7 +13364,7 @@
         <v>183</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D81" s="8" t="n">
         <v>221</v>
@@ -14601,7 +13378,7 @@
         <v>184</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E82" s="8" t="n">
         <v>7.360697997</v>
@@ -14618,7 +13395,7 @@
         <v>185</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>47</v>
@@ -14629,7 +13406,7 @@
         <v>186</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>47</v>
@@ -14640,7 +13417,7 @@
         <v>187</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>47</v>
@@ -14651,7 +13428,7 @@
         <v>188</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>47</v>
@@ -14662,7 +13439,7 @@
         <v>189</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D87" s="8" t="n">
         <v>586</v>
@@ -14682,7 +13459,7 @@
         <v>190</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>47</v>
@@ -14693,7 +13470,7 @@
         <v>191</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>47</v>
@@ -14704,7 +13481,7 @@
         <v>192</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>47</v>
@@ -14715,7 +13492,7 @@
         <v>193</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>47</v>
@@ -14726,7 +13503,7 @@
         <v>194</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D92" s="8" t="n">
         <v>145</v>
@@ -14746,7 +13523,7 @@
         <v>195</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>39</v>
@@ -14757,7 +13534,7 @@
         <v>196</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>39</v>
@@ -14768,7 +13545,7 @@
         <v>197</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D95" s="8" t="n">
         <v>288</v>
@@ -14788,7 +13565,7 @@
         <v>198</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D96" s="8" t="n">
         <v>93</v>
@@ -14808,7 +13585,7 @@
         <v>199</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>39</v>
@@ -14819,7 +13596,7 @@
         <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>39</v>
@@ -14830,7 +13607,7 @@
         <v>201</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D99" s="8" t="n">
         <v>143</v>
@@ -14850,7 +13627,7 @@
         <v>202</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>47</v>
@@ -14861,7 +13638,7 @@
         <v>203</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>47</v>
@@ -14872,7 +13649,7 @@
         <v>204</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>47</v>
@@ -14883,7 +13660,7 @@
         <v>205</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>47</v>
@@ -14894,7 +13671,7 @@
         <v>206</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>47</v>
@@ -14905,7 +13682,7 @@
         <v>207</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D105" s="8" t="n">
         <v>843</v>
@@ -14922,7 +13699,7 @@
         <v>208</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>47</v>
@@ -14933,7 +13710,7 @@
         <v>209</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>47</v>
@@ -14944,7 +13721,7 @@
         <v>210</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>47</v>
@@ -14955,7 +13732,7 @@
         <v>211</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>47</v>
@@ -15310,7 +14087,7 @@
         <v>2018</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="8" t="n">
         <v>93</v>
@@ -15335,7 +14112,7 @@
         <v>2018</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="8" t="n">
         <v>122</v>
@@ -15360,7 +14137,7 @@
         <v>2018</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="8" t="n">
         <v>145</v>
@@ -15385,7 +14162,7 @@
         <v>2018</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="8" t="n">
         <v>190</v>
@@ -15560,4 +14337,523 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">E3/$E$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">E4/$E$3</f>
+        <v>0.762345679012346</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <f aca="false">E5/$E$3</f>
+        <v>0.567901234567901</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>190</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <f aca="false">E6/$E$3</f>
+        <v>0.537808641975309</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">E8/$E$9</f>
+        <v>2.88114754098361</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">E9/$E$9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">E11/$E$9</f>
+        <v>0.556010928961749</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">E12/$E$9</f>
+        <v>2.52185792349727</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>368</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">E13/$E$9</f>
+        <v>1.6516393442623</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2.52542014905108</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">E18/$D$28</f>
+        <v>0.681818181818182</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4.88247895483209</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">E19/$D$28</f>
+        <v>1.31818181818182</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4.80415754312583</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">E20/$D$28</f>
+        <v>1.29703644063066</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2.69378149232115</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">E21/$D$28</f>
+        <v>0.727272727272727</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3.53558820867151</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">E22/$D$28</f>
+        <v>0.954545454545454</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1.88893214400569</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">E23/$D$28</f>
+        <v>0.509977827050999</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1.51114571520455</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">E24/$D$28</f>
+        <v>0.407982261640799</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>179</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1.95189654880588</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">E25/$D$28</f>
+        <v>0.526977087952699</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>2.45561178720739</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">E26/$D$28</f>
+        <v>0.662971175166297</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <f aca="false">AVERAGE(E18:E19)</f>
+        <v>3.70394955194158</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="15" width="8.36"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="244">
   <si>
     <t xml:space="preserve">P2</t>
   </si>
@@ -161,12 +161,18 @@
     <t xml:space="preserve">Keil 3-15</t>
   </si>
   <si>
+    <t xml:space="preserve">not sure what this row is about</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cavan 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Keil 3-18</t>
   </si>
   <si>
+    <t xml:space="preserve">there is no thrid 100 m at P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Figure 2a: 18 ug in slow sinking and 0.6 ug in fast sinking</t>
   </si>
   <si>
@@ -194,6 +200,96 @@
     <t xml:space="preserve">Keil 3-21</t>
   </si>
   <si>
+    <t xml:space="preserve">there is no thrid 150 m at P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil 2-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keil ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trap type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ particles collection time (hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incubation time (hrs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinking particle flux (umol C/m2 day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2 production rate (nM/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted N2 production rate (nM/day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 m flux used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">nd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 150 m flux used</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 m flux used</t>
+  </si>
+  <si>
     <t xml:space="preserve">top collector: 600 mL</t>
   </si>
   <si>
@@ -245,15 +341,9 @@
     <t xml:space="preserve">conversion factor</t>
   </si>
   <si>
-    <t xml:space="preserve">Station</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trap ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Trap type</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sample type</t>
   </si>
   <si>
@@ -690,6 +780,9 @@
   </si>
   <si>
     <t xml:space="preserve">Average of 100 m rate:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average of all rates:</t>
   </si>
   <si>
     <t xml:space="preserve">Reference</t>
@@ -702,12 +795,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -750,6 +844,21 @@
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -842,12 +951,26 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -879,7 +1002,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -892,15 +1015,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,35 +1035,87 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1017,7 +1192,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart203.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1188,11 +1363,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36673720"/>
-        <c:axId val="8549633"/>
+        <c:axId val="30861894"/>
+        <c:axId val="35647606"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36673720"/>
+        <c:axId val="30861894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,13 +1433,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8549633"/>
+        <c:crossAx val="35647606"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8549633"/>
+        <c:axId val="35647606"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1297,7 +1472,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36673720"/>
+        <c:crossAx val="30861894"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1324,7 +1499,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart204.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1491,11 +1666,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92005976"/>
-        <c:axId val="9703263"/>
+        <c:axId val="79930330"/>
+        <c:axId val="41591254"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92005976"/>
+        <c:axId val="79930330"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1562,13 +1737,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9703263"/>
+        <c:crossAx val="41591254"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="9703263"/>
+        <c:axId val="41591254"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1601,7 +1776,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92005976"/>
+        <c:crossAx val="79930330"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1628,7 +1803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart205.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1795,11 +1970,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="32369215"/>
-        <c:axId val="42638459"/>
+        <c:axId val="90485947"/>
+        <c:axId val="87583628"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32369215"/>
+        <c:axId val="90485947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1867,12 +2042,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42638459"/>
+        <c:crossAx val="87583628"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="42638459"/>
+        <c:axId val="87583628"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1939,7 +2114,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32369215"/>
+        <c:crossAx val="90485947"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1966,7 +2141,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart178.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart206.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2054,7 +2229,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
+                  <c:v>6.99040929989946</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
@@ -2197,7 +2372,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
+                  <c:v>6.99040929989946</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
@@ -2273,11 +2448,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3851748"/>
-        <c:axId val="4725229"/>
+        <c:axId val="91449331"/>
+        <c:axId val="80516404"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3851748"/>
+        <c:axId val="91449331"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2353,13 +2528,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4725229"/>
+        <c:crossAx val="80516404"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4725229"/>
+        <c:axId val="80516404"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2426,7 +2601,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3851748"/>
+        <c:crossAx val="91449331"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2453,7 +2628,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart179.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart207.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2620,11 +2795,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52910524"/>
-        <c:axId val="60859848"/>
+        <c:axId val="70229597"/>
+        <c:axId val="50768337"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52910524"/>
+        <c:axId val="70229597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2692,12 +2867,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60859848"/>
+        <c:crossAx val="50768337"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60859848"/>
+        <c:axId val="50768337"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2764,7 +2939,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52910524"/>
+        <c:crossAx val="70229597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2791,7 +2966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart180.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart208.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2947,11 +3122,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57634619"/>
-        <c:axId val="49739104"/>
+        <c:axId val="24245669"/>
+        <c:axId val="51286103"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57634619"/>
+        <c:axId val="24245669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,13 +3158,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49739104"/>
+        <c:crossAx val="51286103"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49739104"/>
+        <c:axId val="51286103"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3022,7 +3197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57634619"/>
+        <c:crossAx val="24245669"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3050,7 +3225,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart209.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3363,11 +3538,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22768590"/>
-        <c:axId val="37274405"/>
+        <c:axId val="92476875"/>
+        <c:axId val="6939724"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22768590"/>
+        <c:axId val="92476875"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3400,13 +3575,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37274405"/>
+        <c:crossAx val="6939724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37274405"/>
+        <c:axId val="6939724"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3439,7 +3614,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22768590"/>
+        <c:crossAx val="92476875"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3467,7 +3642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart182.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart210.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3555,7 +3730,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
+                  <c:v>6.99040929989946</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
@@ -3631,11 +3806,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="38543826"/>
-        <c:axId val="86858815"/>
+        <c:axId val="3978552"/>
+        <c:axId val="37555122"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38543826"/>
+        <c:axId val="3978552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3669,13 +3844,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86858815"/>
+        <c:crossAx val="37555122"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86858815"/>
+        <c:axId val="37555122"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3708,7 +3883,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38543826"/>
+        <c:crossAx val="3978552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3735,7 +3910,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart211.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3902,11 +4077,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8199457"/>
-        <c:axId val="23627567"/>
+        <c:axId val="1423174"/>
+        <c:axId val="35318208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8199457"/>
+        <c:axId val="1423174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3974,13 +4149,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23627567"/>
+        <c:crossAx val="35318208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23627567"/>
+        <c:axId val="35318208"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4047,7 +4222,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8199457"/>
+        <c:crossAx val="1423174"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4074,7 +4249,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart184.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart212.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4234,7 +4409,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2.52542014905108</c:v>
+                  <c:v>6.99040929989946</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.88247895483209</c:v>
@@ -4310,11 +4485,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57568444"/>
-        <c:axId val="63943596"/>
+        <c:axId val="73259853"/>
+        <c:axId val="12827007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57568444"/>
+        <c:axId val="73259853"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4348,13 +4523,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63943596"/>
+        <c:crossAx val="12827007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63943596"/>
+        <c:axId val="12827007"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4387,7 +4562,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57568444"/>
+        <c:crossAx val="73259853"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4414,7 +4589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart213.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4585,11 +4760,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="56452275"/>
-        <c:axId val="84017535"/>
+        <c:axId val="35719369"/>
+        <c:axId val="82171631"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56452275"/>
+        <c:axId val="35719369"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,13 +4830,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84017535"/>
+        <c:crossAx val="82171631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84017535"/>
+        <c:axId val="82171631"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4694,7 +4869,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56452275"/>
+        <c:crossAx val="35719369"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4721,7 +4896,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart214.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4888,11 +5063,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="81304966"/>
-        <c:axId val="14853173"/>
+        <c:axId val="83781417"/>
+        <c:axId val="63126775"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81304966"/>
+        <c:axId val="83781417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4959,13 +5134,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14853173"/>
+        <c:crossAx val="63126775"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14853173"/>
+        <c:axId val="63126775"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4998,7 +5173,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81304966"/>
+        <c:crossAx val="83781417"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5025,7 +5200,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart215.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5192,11 +5367,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10043835"/>
-        <c:axId val="99264074"/>
+        <c:axId val="21546854"/>
+        <c:axId val="47964299"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10043835"/>
+        <c:axId val="21546854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5264,12 +5439,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99264074"/>
+        <c:crossAx val="47964299"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99264074"/>
+        <c:axId val="47964299"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5336,7 +5511,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10043835"/>
+        <c:crossAx val="21546854"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5363,7 +5538,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart188.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart216.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5530,11 +5705,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7551857"/>
-        <c:axId val="71386192"/>
+        <c:axId val="79112647"/>
+        <c:axId val="25902230"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7551857"/>
+        <c:axId val="79112647"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -5602,12 +5777,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71386192"/>
+        <c:crossAx val="25902230"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71386192"/>
+        <c:axId val="25902230"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5674,7 +5849,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7551857"/>
+        <c:crossAx val="79112647"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5701,7 +5876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart189.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart217.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5857,11 +6032,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="925320"/>
-        <c:axId val="6203983"/>
+        <c:axId val="78939004"/>
+        <c:axId val="7679135"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="925320"/>
+        <c:axId val="78939004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5893,13 +6068,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6203983"/>
+        <c:crossAx val="7679135"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6203983"/>
+        <c:axId val="7679135"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5932,7 +6107,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="925320"/>
+        <c:crossAx val="78939004"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -5960,7 +6135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart190.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart218.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6273,11 +6448,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="49345081"/>
-        <c:axId val="18328870"/>
+        <c:axId val="12935539"/>
+        <c:axId val="53511842"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49345081"/>
+        <c:axId val="12935539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6310,13 +6485,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18328870"/>
+        <c:crossAx val="53511842"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="18328870"/>
+        <c:axId val="53511842"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6349,7 +6524,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49345081"/>
+        <c:crossAx val="12935539"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6377,7 +6552,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart191.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart219.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6544,11 +6719,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27255222"/>
-        <c:axId val="58296549"/>
+        <c:axId val="96744322"/>
+        <c:axId val="38266131"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27255222"/>
+        <c:axId val="96744322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6616,13 +6791,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58296549"/>
+        <c:crossAx val="38266131"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58296549"/>
+        <c:axId val="38266131"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6689,7 +6864,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27255222"/>
+        <c:crossAx val="96744322"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6716,7 +6891,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart192.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart220.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6875,11 +7050,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50187205"/>
-        <c:axId val="13071291"/>
+        <c:axId val="44636374"/>
+        <c:axId val="82193621"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50187205"/>
+        <c:axId val="44636374"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6954,13 +7129,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13071291"/>
+        <c:crossAx val="82193621"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13071291"/>
+        <c:axId val="82193621"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -6993,7 +7168,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50187205"/>
+        <c:crossAx val="44636374"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7020,7 +7195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart221.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7148,11 +7323,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3962022"/>
-        <c:axId val="67428874"/>
+        <c:axId val="40054100"/>
+        <c:axId val="58693493"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3962022"/>
+        <c:axId val="40054100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7208,12 +7383,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67428874"/>
+        <c:crossAx val="58693493"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67428874"/>
+        <c:axId val="58693493"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7269,7 +7444,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3962022"/>
+        <c:crossAx val="40054100"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7296,7 +7471,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart222.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7437,11 +7612,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="77474667"/>
-        <c:axId val="45066931"/>
+        <c:axId val="26583941"/>
+        <c:axId val="59713726"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77474667"/>
+        <c:axId val="26583941"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7497,12 +7672,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45066931"/>
+        <c:crossAx val="59713726"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45066931"/>
+        <c:axId val="59713726"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -7559,7 +7734,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77474667"/>
+        <c:crossAx val="26583941"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7586,7 +7761,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart223.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7807,11 +7982,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25001738"/>
-        <c:axId val="45022856"/>
+        <c:axId val="61125397"/>
+        <c:axId val="34186501"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25001738"/>
+        <c:axId val="61125397"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7867,12 +8042,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45022856"/>
+        <c:crossAx val="34186501"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45022856"/>
+        <c:axId val="34186501"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7928,7 +8103,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25001738"/>
+        <c:crossAx val="61125397"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7955,7 +8130,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart196.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart224.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8158,11 +8333,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66562246"/>
-        <c:axId val="59426407"/>
+        <c:axId val="81570672"/>
+        <c:axId val="90752845"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66562246"/>
+        <c:axId val="81570672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8218,12 +8393,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59426407"/>
+        <c:crossAx val="90752845"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59426407"/>
+        <c:axId val="90752845"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8280,7 +8455,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66562246"/>
+        <c:crossAx val="81570672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8312,15 +8487,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>660240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:colOff>606240</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>766080</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8328,7 +8503,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1679760" y="4836960"/>
+        <a:off x="1625760" y="6112080"/>
         <a:ext cx="4461480" cy="4747680"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8343,14 +8518,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>831960</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:colOff>971640</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8358,7 +8533,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6531480" y="5376960"/>
+        <a:off x="5249520" y="6006600"/>
         <a:ext cx="4886280" cy="4773240"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8372,15 +8547,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1672560</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:colOff>1672920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8388,7 +8563,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12412440" y="5376960"/>
+        <a:off x="10476720" y="6006600"/>
         <a:ext cx="5474160" cy="4863600"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8401,16 +8576,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>412200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>412560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>357840</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>132120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8418,7 +8593,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="41099040" y="3196800"/>
+        <a:off x="43016400" y="3395880"/>
         <a:ext cx="4818600" cy="5062680"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8433,14 +8608,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>577440</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8448,7 +8623,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17593920" y="5334480"/>
+        <a:off x="15657840" y="5964120"/>
         <a:ext cx="5758200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8462,14 +8637,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>432720</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8478,7 +8653,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2046960" y="8191440"/>
+        <a:off x="1942560" y="8820720"/>
         <a:ext cx="6325920" cy="5459040"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8492,14 +8667,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>972360</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>972720</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>137880</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>647280</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8508,7 +8683,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8711640" y="8381880"/>
+        <a:off x="7284960" y="9011160"/>
         <a:ext cx="6522480" cy="5268240"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8522,15 +8697,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>718920</xdr:colOff>
+      <xdr:colOff>719280</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>574560</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:colOff>574920</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8538,7 +8713,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44238960" y="2858040"/>
+        <a:off x="42303240" y="2866320"/>
         <a:ext cx="5974560" cy="5199840"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8553,13 +8728,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1014480</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8568,7 +8743,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16214040" y="8381880"/>
+        <a:off x="14277960" y="9011160"/>
         <a:ext cx="5388120" cy="4750560"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8589,8 +8764,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>690120</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8598,7 +8773,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50659200" y="2844720"/>
+        <a:off x="48723120" y="2853000"/>
         <a:ext cx="5788800" cy="5102640"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8997,18 +9172,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:AMJ41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.5"/>
@@ -9249,12 +9431,12 @@
         <v>15</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <f aca="false">Z3/S4</f>
-        <v>16.5005726358728</v>
+        <f aca="false">Z3/S14</f>
+        <v>45.6738877492572</v>
       </c>
       <c r="AB3" s="0" t="n">
         <f aca="false">AA3*U4</f>
-        <v>2.52542014905108</v>
+        <v>6.99040929989946</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,6 +9600,9 @@
         <f aca="false">N5/$AD$2</f>
         <v>0.117400681314305</v>
       </c>
+      <c r="V5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="W5" s="0" t="n">
         <v>2017</v>
       </c>
@@ -9427,16 +9612,16 @@
       <c r="Y5" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="Z5" s="4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AE5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -9446,7 +9631,7 @@
         <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
@@ -9508,6 +9693,9 @@
         <f aca="false">N6/$AD$2</f>
         <v>0.155434020577497</v>
       </c>
+      <c r="V6" s="0" t="s">
+        <v>47</v>
+      </c>
       <c r="W6" s="0" t="n">
         <v>2017</v>
       </c>
@@ -9528,13 +9716,13 @@
         <f aca="false">AA6*U4</f>
         <v>4.80415754312583</v>
       </c>
-      <c r="AE6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+      <c r="AE6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -9547,7 +9735,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>42</v>
@@ -9626,13 +9814,13 @@
         <f aca="false">AA7*U5</f>
         <v>2.69378149232115</v>
       </c>
-      <c r="AE7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
+      <c r="AE7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -9642,7 +9830,7 @@
         <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>39</v>
@@ -9724,13 +9912,13 @@
         <f aca="false">AA8*U6</f>
         <v>3.53558820867151</v>
       </c>
-      <c r="AE8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
+      <c r="AE8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -9740,10 +9928,10 @@
         <v>180</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>42</v>
@@ -9811,16 +9999,16 @@
       <c r="Y9" s="0" t="n">
         <v>140</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="AE9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
+      <c r="AE9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -9830,13 +10018,13 @@
         <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1.6</v>
@@ -9917,61 +10105,61 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="3" t="n">
         <v>365</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>199.329</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="3" t="n">
         <f aca="false">G11*3.52</f>
         <v>701.63808</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2" t="n">
         <v>24.9375</v>
       </c>
-      <c r="K11" s="5" t="n">
+      <c r="K11" s="3" t="n">
         <f aca="false">J11*3.52</f>
         <v>87.78</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="L11" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="M11" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="N11" s="5" t="n">
+      <c r="N11" s="3" t="n">
         <f aca="false">(H11/1000)/(M11*(L11/24))</f>
         <v>0.427828097560976</v>
       </c>
-      <c r="O11" s="5" t="n">
+      <c r="O11" s="3" t="n">
         <f aca="false">(K11/1000)/($M11*($L11/24))</f>
         <v>0.0535243902439024</v>
       </c>
-      <c r="P11" s="5" t="n">
+      <c r="P11" s="3" t="n">
         <f aca="false">(O11/14)*1000</f>
         <v>3.82317073170732</v>
       </c>
-      <c r="Q11" s="5" t="n">
+      <c r="Q11" s="3" t="n">
         <v>365</v>
       </c>
-      <c r="R11" s="5" t="n">
+      <c r="R11" s="3" t="n">
         <f aca="false">N11/12</f>
         <v>0.0356523414634146</v>
       </c>
@@ -9983,124 +10171,124 @@
         <f aca="false">(S11/12)*1000</f>
         <v>58.46984</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="3" t="n">
         <f aca="false">N11/$AD$2</f>
         <v>0.0506208817724819</v>
       </c>
-      <c r="V11" s="5"/>
+      <c r="V11" s="3"/>
       <c r="W11" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X11" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Y11" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="Z11" s="5" t="n">
+      <c r="Z11" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AA11" s="5" t="n">
+      <c r="AA11" s="3" t="n">
         <f aca="false">Z11/S7</f>
         <v>35.1218223823881</v>
       </c>
-      <c r="AB11" s="5" t="n">
+      <c r="AB11" s="3" t="n">
         <f aca="false">AA11*U7</f>
         <v>1.51114571520455</v>
       </c>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-      <c r="BH11" s="5"/>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="5"/>
-      <c r="BL11" s="5"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BA11" s="3"/>
+      <c r="BB11" s="3"/>
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BE11" s="3"/>
+      <c r="BF11" s="3"/>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="3"/>
+      <c r="BK11" s="3"/>
+      <c r="BL11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="3" t="n">
         <v>452</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>295.3914</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="3" t="n">
         <f aca="false">G12*3.52</f>
         <v>1039.777728</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2" t="n">
         <v>31.0277</v>
       </c>
-      <c r="K12" s="5" t="n">
+      <c r="K12" s="3" t="n">
         <f aca="false">J12*3.52</f>
         <v>109.217504</v>
       </c>
-      <c r="L12" s="5" t="n">
+      <c r="L12" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="M12" s="5" t="n">
+      <c r="M12" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="N12" s="5" t="n">
+      <c r="N12" s="3" t="n">
         <f aca="false">(H12/1000)/(M12*(L12/24))</f>
         <v>0.634010809756098</v>
       </c>
-      <c r="O12" s="5" t="n">
+      <c r="O12" s="3" t="n">
         <f aca="false">(K12/1000)/($M12*($L12/24))</f>
         <v>0.0665960390243902</v>
       </c>
-      <c r="P12" s="5" t="n">
+      <c r="P12" s="3" t="n">
         <f aca="false">(O12/14)*1000</f>
         <v>4.75685993031359</v>
       </c>
-      <c r="Q12" s="5" t="n">
+      <c r="Q12" s="3" t="n">
         <v>452</v>
       </c>
-      <c r="R12" s="5" t="n">
+      <c r="R12" s="3" t="n">
         <f aca="false">N12/12</f>
         <v>0.0528342341463415</v>
       </c>
@@ -10112,59 +10300,61 @@
         <f aca="false">(S12/12)*1000</f>
         <v>86.648144</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="3" t="n">
         <f aca="false">N12/$AD$2</f>
         <v>0.0750165461925154</v>
       </c>
-      <c r="V12" s="5"/>
+      <c r="V12" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="W12" s="0" t="n">
         <v>2017</v>
       </c>
       <c r="X12" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="5" t="n">
+      <c r="Y12" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="Z12" s="3" t="n">
+      <c r="Z12" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="5"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BA12" s="3"/>
+      <c r="BB12" s="3"/>
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BE12" s="3"/>
+      <c r="BF12" s="3"/>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="3"/>
+      <c r="BK12" s="3"/>
+      <c r="BL12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -10174,13 +10364,13 @@
         <v>965</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1.6</v>
@@ -10235,9 +10425,12 @@
         <f aca="false">(S13/12)*1000</f>
         <v>43.988835</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="3" t="n">
         <f aca="false">N13/$AD$2</f>
         <v>0.0214273680526883</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>2017</v>
@@ -10260,27 +10453,59 @@
         <v>1.95189654880588</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="6"/>
-      <c r="H14" s="6"/>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>115.9716</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>197.0491334</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0.46</v>
+      </c>
       <c r="N14" s="0" t="n">
-        <v>0.35039640768</v>
+        <f aca="false">(H14/1000)/(M14*(L14/24))</f>
+        <v>0.856735362608696</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>100</v>
       </c>
       <c r="R14" s="0" t="n">
         <f aca="false">N14/12</f>
-        <v>0.02919970064</v>
-      </c>
-      <c r="S14" s="0" t="e">
+        <v>0.0713946135507246</v>
+      </c>
+      <c r="S14" s="0" t="n">
         <f aca="false">(H14/1000)/F14</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T14" s="0" t="e">
+        <v>0.328415222333333</v>
+      </c>
+      <c r="T14" s="0" t="n">
         <f aca="false">(S14/12)*1000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="5" t="n">
+        <v>27.3679351944444</v>
+      </c>
+      <c r="U14" s="3" t="n">
         <f aca="false">N14/$AD$2</f>
-        <v>0.0414591169392366</v>
+        <v>0.101369451301029</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>2017</v>
@@ -10304,135 +10529,415 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U15" s="5"/>
+      <c r="U15" s="3"/>
       <c r="AB15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U16" s="5"/>
+      <c r="A16" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="U16" s="3"/>
       <c r="AB16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U17" s="5"/>
+      <c r="U17" s="3"/>
       <c r="AB17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U18" s="5"/>
-      <c r="AB18" s="7"/>
+    <row r="18" s="9" customFormat="true" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="10"/>
+      <c r="AF18" s="11"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U19" s="5"/>
-      <c r="AB19" s="7"/>
+      <c r="A19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="13" t="n">
+        <v>42744</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H19" s="15" t="n">
+        <v>37.576</v>
+      </c>
+      <c r="I19" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J19" s="15" t="n">
+        <v>6.99040929989946</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="AE19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U20" s="5"/>
-      <c r="AB20" s="7"/>
+      <c r="A20" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="H20" s="19" t="n">
+        <v>115.678</v>
+      </c>
+      <c r="I20" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="J20" s="19" t="n">
+        <v>4.88247895483209</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="AE20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U21" s="5"/>
-      <c r="AB21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="13" t="n">
+        <v>42748</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>119</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="G21" s="12" t="n">
+        <v>27</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J21" s="15" t="n">
+        <v>3.53558820867151</v>
+      </c>
+      <c r="X21" s="3"/>
+      <c r="AE21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U22" s="5"/>
-      <c r="AB22" s="7"/>
+      <c r="A22" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18" t="n">
+        <v>120</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="H22" s="19" t="n">
+        <v>165.795</v>
+      </c>
+      <c r="I22" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J22" s="19" t="n">
+        <v>2.69378149232115</v>
+      </c>
+      <c r="X22" s="3"/>
+      <c r="AE22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="U23" s="5"/>
-      <c r="AB23" s="7"/>
+      <c r="A23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="13" t="n">
+        <v>42744</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J23" s="15" t="n">
+        <v>1.88893214400569</v>
+      </c>
+      <c r="X23" s="3"/>
+      <c r="AE23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S31" s="0" t="s">
-        <v>55</v>
+      <c r="A24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="H24" s="19" t="n">
+        <v>22.801</v>
+      </c>
+      <c r="I24" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J24" s="19" t="n">
+        <v>1.51114571520455</v>
+      </c>
+      <c r="X24" s="3"/>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="13" t="n">
+        <v>42744</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>179</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J25" s="15" t="n">
+        <v>1.95189654880588</v>
+      </c>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="H26" s="19" t="n">
+        <v>86.974</v>
+      </c>
+      <c r="I26" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="J26" s="19" t="n">
+        <v>2.45561178720739</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S32" s="0" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S33" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="T33" s="0" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S34" s="0" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="T34" s="0" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W35" s="0" t="s">
-        <v>61</v>
+      <c r="S35" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S36" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="T36" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="U36" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="W36" s="0" t="n">
+      <c r="W36" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="V37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W37" s="0" t="n">
         <f aca="false">PI()*(21/2)^2</f>
         <v>346.360590058275</v>
       </c>
-      <c r="X36" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S37" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="T37" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="W37" s="0" t="n">
+      <c r="X37" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="W38" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
-      <c r="X37" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y37" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Y38" s="0" t="n">
-        <f aca="false">W36*(1-0.064)</f>
+      <c r="X38" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y39" s="0" t="n">
+        <f aca="false">W37*(1-0.064)</f>
         <v>324.193512294545</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W39" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="X39" s="0" t="n">
-        <f aca="false">W37/Y38</f>
-        <v>3.51670155241584</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W40" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <f aca="false">W38/Y39</f>
+        <v>3.51670155241584</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -10623,22 +11128,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="0" t="s">
@@ -10647,22 +11152,22 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="N3" s="0" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="U3" s="5"/>
+        <v>98</v>
+      </c>
+      <c r="U3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -10691,7 +11196,7 @@
         <f aca="false">(S4/12)*1000</f>
         <v>42.6377651583333</v>
       </c>
-      <c r="U4" s="5" t="n">
+      <c r="U4" s="3" t="n">
         <f aca="false">N4/$AD$2</f>
         <v>0.0414591169392366</v>
       </c>
@@ -10699,7 +11204,7 @@
         <v>2018</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>93</v>
@@ -10718,13 +11223,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
@@ -10754,7 +11259,7 @@
         <f aca="false">(S5/12)*1000</f>
         <v>31.6175935833333</v>
       </c>
-      <c r="U5" s="5" t="n">
+      <c r="U5" s="3" t="n">
         <f aca="false">N5/$AD$2</f>
         <v>0.0694373784128244</v>
       </c>
@@ -10762,7 +11267,7 @@
         <v>2018</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>122</v>
@@ -10781,13 +11286,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>145</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
@@ -10817,7 +11322,7 @@
         <f aca="false">(S6/12)*1000</f>
         <v>58.92063345</v>
       </c>
-      <c r="U6" s="5" t="n">
+      <c r="U6" s="3" t="n">
         <f aca="false">N6/$AD$2</f>
         <v>0.0287651847219847</v>
       </c>
@@ -10825,7 +11330,7 @@
         <v>2018</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>145</v>
@@ -10844,13 +11349,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>190</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>39</v>
@@ -10880,7 +11385,7 @@
         <f aca="false">(S7/12)*1000</f>
         <v>26.9875347666667</v>
       </c>
-      <c r="U7" s="5" t="n">
+      <c r="U7" s="3" t="n">
         <f aca="false">N7/$AD$2</f>
         <v>0.0352727140740458</v>
       </c>
@@ -10888,7 +11393,7 @@
         <v>2018</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>190</v>
@@ -10904,8 +11409,8 @@
         <f aca="false">AA7*U7</f>
         <v>6.9706678788831</v>
       </c>
-      <c r="AS7" s="4" t="s">
-        <v>44</v>
+      <c r="AS7" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10916,10 +11421,10 @@
         <v>85</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -10946,7 +11451,7 @@
         <f aca="false">(S8/12)*1000</f>
         <v>342.42933975</v>
       </c>
-      <c r="U8" s="5" t="n">
+      <c r="U8" s="3" t="n">
         <f aca="false">N8/$AD$2</f>
         <v>0.163540598537405</v>
       </c>
@@ -10970,8 +11475,8 @@
         <f aca="false">AA8*U8</f>
         <v>21.0935286892825</v>
       </c>
-      <c r="AS8" s="4" t="s">
-        <v>46</v>
+      <c r="AS8" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10982,7 +11487,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>39</v>
@@ -11012,7 +11517,7 @@
         <f aca="false">(S9/12)*1000</f>
         <v>34.1212649583333</v>
       </c>
-      <c r="U9" s="5" t="n">
+      <c r="U9" s="3" t="n">
         <f aca="false">N9/$AD$2</f>
         <v>0.0778291809494656</v>
       </c>
@@ -11036,8 +11541,8 @@
         <f aca="false">AA9*U9</f>
         <v>7.31807439879858</v>
       </c>
-      <c r="AS9" s="4" t="s">
-        <v>48</v>
+      <c r="AS9" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11048,7 +11553,7 @@
         <v>120</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -11072,7 +11577,7 @@
         <f aca="false">(S10/12)*1000</f>
         <v>0</v>
       </c>
-      <c r="U10" s="5" t="n">
+      <c r="U10" s="3" t="n">
         <f aca="false">N10/$AD$2</f>
         <v>0.201890863996947</v>
       </c>
@@ -11086,8 +11591,8 @@
         <v>120</v>
       </c>
       <c r="AB10" s="7"/>
-      <c r="AS10" s="4" t="s">
-        <v>50</v>
+      <c r="AS10" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11098,7 +11603,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>39</v>
@@ -11128,7 +11633,7 @@
         <f aca="false">(S11/12)*1000</f>
         <v>33.2799449</v>
       </c>
-      <c r="U11" s="5" t="n">
+      <c r="U11" s="3" t="n">
         <f aca="false">N11/$AD$2</f>
         <v>0.162546630155725</v>
       </c>
@@ -11152,8 +11657,8 @@
         <f aca="false">AA11*U11</f>
         <v>4.07018477755265</v>
       </c>
-      <c r="AS11" s="4" t="s">
-        <v>51</v>
+      <c r="AS11" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11164,7 +11669,7 @@
         <v>221</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>39</v>
@@ -11194,7 +11699,7 @@
         <f aca="false">(S12/12)*1000</f>
         <v>24.2457522083333</v>
       </c>
-      <c r="U12" s="5" t="n">
+      <c r="U12" s="3" t="n">
         <f aca="false">N12/$AD$2</f>
         <v>0.413103197931298</v>
       </c>
@@ -11227,10 +11732,10 @@
         <v>368</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -11257,7 +11762,7 @@
         <f aca="false">(S13/12)*1000</f>
         <v>134.9847875</v>
       </c>
-      <c r="U13" s="5" t="n">
+      <c r="U13" s="3" t="n">
         <f aca="false">N13/$AD$2</f>
         <v>0.0522191884712977</v>
       </c>
@@ -11318,159 +11823,159 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="24.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="8" width="10.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="24.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="21" width="10.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="23" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>90</v>
+      <c r="B1" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G2" s="8" t="n">
+      <c r="C2" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="21" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="21" t="n">
         <v>69</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="21" t="n">
         <v>5.50734455652174</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="21" t="n">
         <f aca="false">-(A3-$G$2)/(LN(B3)-LN($G$3))</f>
         <v>21.3983044092961</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="8" t="n">
+      <c r="F3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="21" t="n">
         <v>1.2935232</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="21" t="n">
         <v>1.2935232</v>
       </c>
-      <c r="C4" s="8" t="e">
+      <c r="C4" s="21" t="e">
         <f aca="false">-(A4-$G$2)/(LN(B4)-LN($G$3))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="21" t="n">
         <v>0.992225113043478</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="21" t="n">
         <f aca="false">-(A5-$G$2)/(LN(B5)-LN($G$3))</f>
         <v>75.4219118853255</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="B6" s="8" t="n">
+      <c r="B6" s="21" t="n">
         <v>1.31366817391304</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="21" t="n">
         <f aca="false">-(A6-$G$2)/(LN(B6)-LN($G$3))</f>
         <v>-1294.18856517165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="B7" s="8" t="n">
+      <c r="B7" s="21" t="n">
         <v>0.363637697560976</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="21" t="n">
         <f aca="false">-(A7-$G$2)/(LN(B7)-LN($G$3))</f>
         <v>39.4021309245151</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="21" t="n">
         <v>159</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="21" t="n">
         <v>0.641929460869565</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="21" t="n">
         <f aca="false">-(A8-$G$2)/(LN(B8)-LN($G$3))</f>
         <v>84.2079405920815</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="21" t="n">
         <v>0.495536390243903</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="21" t="n">
         <f aca="false">-(A9-$G$2)/(LN(B9)-LN($G$3))</f>
         <v>83.378136508636</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="21" t="n">
         <v>265</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="21" t="n">
         <v>0.474287083141249</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="21" t="n">
         <f aca="false">-(A10-$G$2)/(LN(B10)-LN($G$3))</f>
         <v>164.455301296949</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="21" t="n">
         <v>365</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="21" t="n">
         <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="21" t="n">
         <v>965</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="21" t="n">
         <v>0.181095820316269</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="21" t="n">
         <f aca="false">-(A13-$G$2)/(LN(B13)-LN($G$3))</f>
         <v>439.957577447259</v>
       </c>
@@ -11511,15 +12016,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -11544,7 +12049,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -11566,16 +12071,16 @@
       <c r="D2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="0" t="s">
@@ -11597,27 +12102,27 @@
         <v>26</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>39</v>
@@ -11631,10 +12136,10 @@
       <c r="G3" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="24" t="n">
         <v>12</v>
       </c>
-      <c r="I3" s="12" t="n">
+      <c r="I3" s="25" t="n">
         <v>103.2737</v>
       </c>
       <c r="J3" s="0" t="n">
@@ -11655,13 +12160,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>39</v>
@@ -11669,27 +12174,27 @@
       <c r="E4" s="0" t="n">
         <v>0.46</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="H4" s="11" t="n">
+      <c r="H4" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="I4" s="13" t="n">
+      <c r="I4" s="26" t="n">
         <v>142.7073</v>
       </c>
       <c r="J4" s="0" t="n">
         <f aca="false">I4*3.52</f>
         <v>502.329696</v>
       </c>
-      <c r="K4" s="13" t="n">
+      <c r="K4" s="26" t="n">
         <v>111.2036</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="0" t="n">
         <f aca="false">(J4/1000)/(E4*(H4/24))</f>
         <v>0.819015808695652</v>
@@ -11704,13 +12209,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>39</v>
@@ -11727,7 +12232,7 @@
       <c r="H5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I5" s="12" t="n">
+      <c r="I5" s="25" t="n">
         <v>56.6686</v>
       </c>
       <c r="J5" s="0" t="n">
@@ -11748,13 +12253,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>39</v>
@@ -11771,7 +12276,7 @@
       <c r="H6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="25" t="n">
         <v>77.1038</v>
       </c>
       <c r="J6" s="0" t="n">
@@ -11792,13 +12297,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>39</v>
@@ -11815,7 +12320,7 @@
       <c r="H7" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="25" t="n">
         <v>72.3089</v>
       </c>
       <c r="J7" s="0" t="n">
@@ -11836,13 +12341,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>39</v>
@@ -11856,17 +12361,17 @@
       <c r="G8" s="0" t="n">
         <v>0.6</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="27" t="n">
         <v>24</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="25" t="n">
         <v>275.9063</v>
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">I8*3.52</f>
         <v>971.190176</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="25" t="n">
         <v>54.3155</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -11895,16 +12400,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>132</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1.23</v>
@@ -11918,15 +12423,15 @@
       <c r="H9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I9" s="12" t="n">
+      <c r="I9" s="25" t="n">
         <v>149.5976</v>
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">I9*3.52</f>
         <v>526.583552</v>
       </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="0" t="n">
         <f aca="false">(J9/1000)/(E9*(H9/24))</f>
         <v>0.934072819512195</v>
@@ -11941,13 +12446,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>39</v>
@@ -11964,15 +12469,15 @@
       <c r="H10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I10" s="12" t="n">
+      <c r="I10" s="25" t="n">
         <v>88.8127</v>
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">I10*3.52</f>
         <v>312.620704</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="0" t="n">
         <f aca="false">(J10/1000)/(E10*(H10/24))</f>
         <v>1.35922045217391</v>
@@ -11987,16 +12492,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1.23</v>
@@ -12010,14 +12515,14 @@
       <c r="H11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="I11" s="12" t="n">
+      <c r="I11" s="25" t="n">
         <v>175.4337</v>
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">I11*3.52</f>
         <v>617.526624</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="25" t="n">
         <v>27.7126</v>
       </c>
       <c r="M11" s="0" t="n">
@@ -12046,16 +12551,16 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>355</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1.23</v>
@@ -12069,14 +12574,14 @@
       <c r="H12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="25" t="n">
         <v>418.4212</v>
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">I12*3.52</f>
         <v>1472.842624</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="25" t="n">
         <v>49.3413</v>
       </c>
       <c r="M12" s="0" t="n">
@@ -12105,16 +12610,16 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>700</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1.23</v>
@@ -12128,17 +12633,17 @@
       <c r="H13" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="25" t="n">
         <v>224.1651</v>
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">I13*3.52</f>
         <v>789.061152</v>
       </c>
-      <c r="K13" s="13" t="n">
+      <c r="K13" s="26" t="n">
         <v>71.9624</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="25" t="n">
         <v>28.1653</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -12166,12 +12671,12 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -12199,147 +12704,147 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="8" width="8.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="21" width="8.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>114</v>
+      <c r="C1" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="J1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="8" t="n">
+      <c r="A2" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="21" t="n">
         <v>14</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="21" t="n">
         <v>160</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="21" t="n">
         <v>29.19970064</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="21" t="n">
         <f aca="false">F2*12/1000</f>
         <v>0.35039640768</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="21" t="n">
         <v>0.6</v>
       </c>
       <c r="J2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="8" t="n">
+      <c r="A3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="21" t="n">
         <v>122</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="21" t="n">
         <v>48.90482028</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="21" t="n">
         <f aca="false">F3*12/1000</f>
         <v>0.58685784336</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="21" t="n">
         <v>0.735</v>
       </c>
       <c r="J3" s="0"/>
-      <c r="AB3" s="8" t="s">
-        <v>115</v>
+      <c r="AB3" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="8" t="n">
+      <c r="A4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="21" t="n">
         <v>145</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="21" t="n">
         <v>53</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="21" t="n">
         <v>181</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="21" t="n">
         <v>20.25935053</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">F4*12/1000</f>
         <v>0.24311220636</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="21" t="n">
         <v>0.55</v>
       </c>
       <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="8" t="n">
+      <c r="A5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="21" t="n">
         <v>190</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="21" t="n">
         <v>24.84261045</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="21" t="n">
         <f aca="false">F5*12/1000</f>
         <v>0.2981113254</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="21" t="n">
         <v>0.7</v>
       </c>
       <c r="J5" s="0"/>
@@ -12348,1394 +12853,1394 @@
       <c r="J6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>111</v>
+      <c r="C7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="21" t="n">
         <v>85</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="21" t="n">
         <v>530</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="21" t="n">
         <v>115.1818194</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="21" t="n">
         <f aca="false">F8*12/1000</f>
         <v>1.3821818328</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="21" t="n">
         <v>0.8</v>
       </c>
       <c r="J8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="n">
+      <c r="B9" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="21" t="n">
         <v>38.5</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="21" t="n">
         <v>54.81517583</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="21" t="n">
         <f aca="false">F9*12/1000</f>
         <v>0.65778210996</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="21" t="n">
         <v>0.8</v>
       </c>
       <c r="J9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="n">
+      <c r="B10" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="21" t="n">
         <v>4.2</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="21" t="n">
         <v>142.1919526</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="21" t="n">
         <f aca="false">F10*12/1000</f>
         <v>1.7063034312</v>
       </c>
       <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="n">
+      <c r="B11" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="21" t="n">
         <v>4.2</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="21" t="n">
         <v>114.4817664</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="21" t="n">
         <f aca="false">F11*12/1000</f>
         <v>1.3737811968</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="21" t="n">
         <v>0.016</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="21" t="n">
         <v>221</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="21" t="n">
         <v>2.2</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="21" t="n">
         <v>13</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="21" t="n">
         <v>290.9490265</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="21" t="n">
         <f aca="false">F12*12/1000</f>
         <v>3.491388318</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="21" t="n">
         <v>0.8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="8" t="n">
+      <c r="B13" s="21" t="n">
         <v>368</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="21" t="n">
         <v>1.5</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="21" t="n">
         <v>36.77803059</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="21" t="n">
         <f aca="false">F13*12/1000</f>
         <v>0.44133636708</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="21" t="n">
         <v>0.79</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>116</v>
+      <c r="A16" s="21" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="A17" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>74</v>
+      <c r="E17" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="21" t="n">
+        <v>151</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>59.93179319</v>
+      </c>
+      <c r="F18" s="21" t="n">
+        <v>114.4817664</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21" t="n">
+        <v>151</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21" t="n">
+        <v>121</v>
+      </c>
+      <c r="E20" s="21" t="n">
+        <v>140.2346446</v>
+      </c>
+      <c r="F20" s="21" t="n">
+        <v>142.1919526</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21" t="n">
+        <v>121</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="E23" s="21" t="n">
+        <v>135.5691057</v>
+      </c>
+      <c r="F23" s="21" t="n">
+        <v>6.088336976</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="21" t="n">
+        <v>368</v>
+      </c>
+      <c r="E30" s="21" t="n">
+        <v>5.577733349</v>
+      </c>
+      <c r="F30" s="21" t="n">
+        <v>36.77803059</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="21" t="n">
+        <v>586</v>
+      </c>
+      <c r="E36" s="21" t="n">
+        <v>8.164440297</v>
+      </c>
+      <c r="F36" s="21" t="n">
+        <v>49.69913676</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="21" t="n">
+        <v>87</v>
+      </c>
+      <c r="E40" s="21" t="n">
+        <v>24.18012422</v>
+      </c>
+      <c r="F40" s="21" t="n">
+        <v>54.81517583</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="21" t="n">
+        <v>221</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="21" t="n">
+        <v>85</v>
+      </c>
+      <c r="E46" s="21" t="n">
+        <v>26.58868425</v>
+      </c>
+      <c r="F46" s="21" t="n">
+        <v>115.1818194</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="21" t="n">
+        <v>50</v>
+      </c>
+      <c r="F54" s="21" t="n">
+        <v>244.4055742</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>151</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>59.93179319</v>
-      </c>
-      <c r="F18" s="8" t="n">
-        <v>114.4817664</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="G58" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D63" s="21" t="n">
+        <v>122</v>
+      </c>
+      <c r="E63" s="21" t="n">
+        <v>32.66219522</v>
+      </c>
+      <c r="F63" s="21" t="n">
+        <v>48.90482028</v>
+      </c>
+      <c r="G63" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8" t="n">
-        <v>151</v>
-      </c>
-      <c r="G19" s="8" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G64" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="E20" s="8" t="n">
-        <v>140.2346446</v>
-      </c>
-      <c r="F20" s="8" t="n">
-        <v>142.1919526</v>
-      </c>
-      <c r="G20" s="8" t="s">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G65" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="21" t="n">
+        <v>120</v>
+      </c>
+      <c r="E66" s="21" t="n">
+        <v>144.5962733</v>
+      </c>
+      <c r="F66" s="21" t="n">
+        <v>47.19008443</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="21" t="n">
+        <v>190</v>
+      </c>
+      <c r="E67" s="21" t="n">
+        <v>31.86596927</v>
+      </c>
+      <c r="F67" s="21" t="n">
+        <v>24.84261045</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="21" t="n">
         <v>123</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>121</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E70" s="21" t="n">
+        <v>127.6422764</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D74" s="21" t="n">
+        <v>201</v>
+      </c>
+      <c r="E74" s="21" t="n">
+        <v>18.53988134</v>
+      </c>
+      <c r="F74" s="21" t="n">
+        <v>206.4532045</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="21" t="n">
+        <v>221</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="21" t="n">
+        <v>7.360697997</v>
+      </c>
+      <c r="F82" s="21" t="n">
+        <v>94.40429427</v>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G84" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G85" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" s="21" t="n">
+        <v>586</v>
+      </c>
+      <c r="E87" s="21" t="n">
+        <v>5.35131205</v>
+      </c>
+      <c r="F87" s="21" t="n">
+        <v>54.4451539</v>
+      </c>
+      <c r="G87" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="21" t="n">
+        <v>145</v>
+      </c>
+      <c r="E92" s="21" t="n">
+        <v>16.09712027</v>
+      </c>
+      <c r="F92" s="21" t="n">
+        <v>20.25935053</v>
+      </c>
+      <c r="G92" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="E23" s="8" t="n">
-        <v>135.5691057</v>
-      </c>
-      <c r="F23" s="8" t="n">
-        <v>6.088336976</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8" t="n">
-        <v>368</v>
-      </c>
-      <c r="E30" s="8" t="n">
-        <v>5.577733349</v>
-      </c>
-      <c r="F30" s="8" t="n">
-        <v>36.77803059</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>586</v>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>8.164440297</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>49.69913676</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v>87</v>
-      </c>
-      <c r="E40" s="8" t="n">
-        <v>24.18012422</v>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v>54.81517583</v>
-      </c>
-      <c r="G40" s="8" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G93" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="21" t="n">
+        <v>288</v>
+      </c>
+      <c r="E95" s="21" t="n">
+        <v>9.216589862</v>
+      </c>
+      <c r="F95" s="21" t="n">
+        <v>113.4440422</v>
+      </c>
+      <c r="G95" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="21" t="n">
+        <v>93</v>
+      </c>
+      <c r="E96" s="21" t="n">
+        <v>13.12777285</v>
+      </c>
+      <c r="F96" s="21" t="n">
+        <v>29.19970064</v>
+      </c>
+      <c r="G96" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G97" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" s="21" t="n">
         <v>143</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8" t="n">
-        <v>221</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8" t="n">
-        <v>85</v>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>26.58868425</v>
-      </c>
-      <c r="F46" s="8" t="n">
-        <v>115.1818194</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="8" t="n">
-        <v>147</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F54" s="8" t="n">
-        <v>244.4055742</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="8" t="n">
-        <v>122</v>
-      </c>
-      <c r="E63" s="8" t="n">
-        <v>32.66219522</v>
-      </c>
-      <c r="F63" s="8" t="n">
-        <v>48.90482028</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="8" t="n">
-        <v>120</v>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>144.5962733</v>
-      </c>
-      <c r="F66" s="8" t="n">
-        <v>47.19008443</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="8" t="n">
-        <v>190</v>
-      </c>
-      <c r="E67" s="8" t="n">
-        <v>31.86596927</v>
-      </c>
-      <c r="F67" s="8" t="n">
-        <v>24.84261045</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="E70" s="8" t="n">
-        <v>127.6422764</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="8" t="n">
-        <v>201</v>
-      </c>
-      <c r="E74" s="8" t="n">
-        <v>18.53988134</v>
-      </c>
-      <c r="F74" s="8" t="n">
-        <v>206.4532045</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="8" t="n">
-        <v>221</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E82" s="8" t="n">
-        <v>7.360697997</v>
-      </c>
-      <c r="F82" s="8" t="n">
-        <v>94.40429427</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="8" t="n">
-        <v>586</v>
-      </c>
-      <c r="E87" s="8" t="n">
-        <v>5.35131205</v>
-      </c>
-      <c r="F87" s="8" t="n">
-        <v>54.4451539</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D92" s="8" t="n">
-        <v>145</v>
-      </c>
-      <c r="E92" s="8" t="n">
-        <v>16.09712027</v>
-      </c>
-      <c r="F92" s="8" t="n">
-        <v>20.25935053</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D95" s="8" t="n">
-        <v>288</v>
-      </c>
-      <c r="E95" s="8" t="n">
-        <v>9.216589862</v>
-      </c>
-      <c r="F95" s="8" t="n">
-        <v>113.4440422</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D96" s="8" t="n">
-        <v>93</v>
-      </c>
-      <c r="E96" s="8" t="n">
-        <v>13.12777285</v>
-      </c>
-      <c r="F96" s="8" t="n">
-        <v>29.19970064</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D99" s="8" t="n">
-        <v>143</v>
-      </c>
-      <c r="E99" s="8" t="n">
+      <c r="E99" s="21" t="n">
         <v>54.63414634</v>
       </c>
-      <c r="F99" s="8" t="n">
+      <c r="F99" s="21" t="n">
         <v>44.60837344</v>
       </c>
-      <c r="G99" s="8" t="s">
-        <v>47</v>
+      <c r="G99" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>47</v>
+      <c r="A100" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>47</v>
+      <c r="A101" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>47</v>
+      <c r="A102" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>47</v>
+      <c r="A103" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>47</v>
+      <c r="A104" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="8" t="n">
+      <c r="A105" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D105" s="21" t="n">
         <v>843</v>
       </c>
-      <c r="F105" s="8" t="n">
+      <c r="F105" s="21" t="n">
         <v>28.51596639</v>
       </c>
-      <c r="G105" s="8" t="s">
-        <v>47</v>
+      <c r="G105" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>47</v>
+      <c r="A106" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>47</v>
+      <c r="A107" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>47</v>
+      <c r="A108" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>47</v>
+      <c r="A109" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="G109" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -13762,567 +14267,567 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="8" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="21" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>215</v>
+      <c r="D1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="21" t="n">
         <v>5.50734455652174</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="21" t="n">
         <f aca="false">D2*2.2457</f>
         <v>33.6855</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="21" t="n">
         <f aca="false">F2*0.6</f>
         <v>20.2113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="21" t="n">
         <v>1.2935232</v>
       </c>
-      <c r="F3" s="8" t="n">
+      <c r="F3" s="21" t="n">
         <f aca="false">D3*2.2457</f>
         <v>65.1253</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="21" t="n">
         <f aca="false">F3*0.6</f>
         <v>39.07518</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="21" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="21" t="n">
         <v>0.992225113043478</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="21" t="n">
         <f aca="false">D4*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">F4*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="21" t="n">
         <v>1.31366817391304</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="21" t="n">
         <f aca="false">D5*2.2457</f>
         <v>76.3538</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="21" t="n">
         <f aca="false">F5*0.6</f>
         <v>45.81228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="21" t="n">
         <v>0.363637697560976</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="21" t="n">
         <f aca="false">D6*2.2457</f>
         <v>35.9312</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="21" t="n">
         <f aca="false">F6*0.6</f>
         <v>21.55872</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="21" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="21" t="n">
         <v>0.641929460869565</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="21" t="n">
         <f aca="false">D7*2.2457</f>
         <v>47.1597</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="21" t="n">
         <f aca="false">F7*0.6</f>
         <v>28.29582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="21" t="n">
         <v>140</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="21" t="n">
         <v>0.495536390243902</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="21" t="n">
         <f aca="false">D8*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="21" t="n">
         <f aca="false">F8*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="21" t="n">
         <v>0.474287083141249</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="21" t="n">
         <f aca="false">D9*2.2457</f>
         <v>67.371</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="21" t="n">
         <f aca="false">F9*0.6</f>
         <v>40.4226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="21" t="n">
         <v>0.427828097560976</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="21" t="n">
         <f aca="false">D10*2.2457</f>
         <v>53.8968</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="21" t="n">
         <f aca="false">F10*0.6</f>
         <v>32.33808</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+      <c r="A11" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="21" t="n">
         <v>0.634010809756098</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="21" t="n">
         <f aca="false">D11*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="21" t="n">
         <f aca="false">F11*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
+      <c r="A12" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="21" t="n">
         <v>179</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="21" t="n">
         <v>31</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="21" t="n">
         <v>0.181095820316269</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="21" t="n">
         <f aca="false">D12*2.2457</f>
         <v>69.6167</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="21" t="n">
         <f aca="false">F12*0.6</f>
         <v>41.77002</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="21" t="n">
         <v>2017</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="21" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="21" t="n">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="21" t="n">
         <v>0.35039640768</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="21" t="n">
         <f aca="false">D13*2.2457</f>
         <v>87.5823</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="21" t="n">
         <f aca="false">F13*0.6</f>
         <v>52.54938</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="8" t="n">
+      <c r="B14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="21" t="n">
         <v>160</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="21" t="n">
         <v>0.58685784336</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="21" t="n">
         <f aca="false">D14*2.2457</f>
         <v>359.312</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="21" t="n">
         <f aca="false">F14*0.6</f>
         <v>215.5872</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8" t="n">
+      <c r="B15" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="21" t="n">
         <v>122</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="21" t="n">
         <v>54</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="21" t="n">
         <v>0.24311220636</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="21" t="n">
         <f aca="false">D15*2.2457</f>
         <v>121.2678</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="21" t="n">
         <f aca="false">F15*0.6</f>
         <v>72.76068</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="21" t="n">
         <v>145</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="21" t="n">
         <v>181</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="21" t="n">
         <v>0.2981113254</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="21" t="n">
         <f aca="false">D16*2.2457</f>
         <v>406.4717</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="21" t="n">
         <f aca="false">F16*0.6</f>
         <v>243.88302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="8" t="n">
+      <c r="B17" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="21" t="n">
         <v>190</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="21" t="n">
         <v>64</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="21" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="21" t="n">
         <f aca="false">D17*2.2457</f>
         <v>143.7248</v>
       </c>
-      <c r="G17" s="8" t="n">
+      <c r="G17" s="21" t="n">
         <f aca="false">F17*0.6</f>
         <v>86.23488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="21" t="n">
         <v>85</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="21" t="n">
         <v>530</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="21" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="21" t="n">
         <f aca="false">D18*2.2457</f>
         <v>1190.221</v>
       </c>
-      <c r="G18" s="8" t="n">
+      <c r="G18" s="21" t="n">
         <f aca="false">F18*0.6</f>
         <v>714.1326</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="21" t="n">
         <v>38.5</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="21" t="n">
         <v>0.65778210996</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="21" t="n">
         <f aca="false">D19*2.2457</f>
         <v>86.45945</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="21" t="n">
         <f aca="false">F19*0.6</f>
         <v>51.87567</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="21" t="n">
         <v>1.7063034312</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="21" t="n">
         <f aca="false">D20*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="21" t="n">
         <f aca="false">F20*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="21" t="n">
         <v>150</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="21" t="n">
         <v>0.073060043712</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="21" t="n">
         <f aca="false">D21*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="21" t="n">
         <f aca="false">F21*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="21" t="n">
         <v>221</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="21" t="n">
         <v>13</v>
       </c>
       <c r="E22" s="0"/>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="21" t="n">
         <f aca="false">D22*2.2457</f>
         <v>29.1941</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="21" t="n">
         <f aca="false">F22*0.6</f>
         <v>17.51646</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="21" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="21" t="n">
         <v>368</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="21" t="n">
         <v>0.44133636708</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="21" t="n">
         <f aca="false">D23*2.2457</f>
         <v>842.1375</v>
       </c>
-      <c r="G23" s="8" t="n">
+      <c r="G23" s="21" t="n">
         <f aca="false">F23*0.6</f>
         <v>505.2825</v>
       </c>
@@ -14344,10 +14849,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14357,15 +14862,15 @@
         <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>17</v>
@@ -14377,7 +14882,7 @@
         <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14385,7 +14890,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>93</v>
@@ -14406,7 +14911,7 @@
         <v>2018</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>122</v>
@@ -14427,7 +14932,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>145</v>
@@ -14448,7 +14953,7 @@
         <v>2018</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>190</v>
@@ -14466,7 +14971,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14590,15 +15095,15 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>17</v>
@@ -14610,7 +15115,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14804,11 +15309,20 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">AVERAGE(E18:E19)</f>
         <v>3.70394955194158</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <f aca="false">AVERAGE(E3:E13,E18:E26)</f>
+        <v>7.02494514129029</v>
       </c>
     </row>
   </sheetData>
@@ -14836,15 +15350,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="15" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="28" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>222</v>
+      <c r="A1" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="198">
   <si>
     <t xml:space="preserve">P2 +Particles</t>
   </si>
@@ -319,19 +319,58 @@
     <t xml:space="preserve">180 m flux used</t>
   </si>
   <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2_50m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7_90m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5_100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6_110m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6_132m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5_150m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7_355m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 ave</t>
+  </si>
+  <si>
     <t xml:space="preserve">top collector: 600 mL</t>
   </si>
   <si>
+    <t xml:space="preserve">area</t>
+  </si>
+  <si>
     <t xml:space="preserve">incubation bottle: 1 L</t>
   </si>
   <si>
+    <t xml:space="preserve">mm2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Area of cone</t>
   </si>
   <si>
     <t xml:space="preserve">0.46 m2</t>
   </si>
   <si>
-    <t xml:space="preserve">area</t>
+    <t xml:space="preserve">adjusted area</t>
   </si>
   <si>
     <t xml:space="preserve">Area of net</t>
@@ -340,13 +379,10 @@
     <t xml:space="preserve">1.23 m2</t>
   </si>
   <si>
-    <t xml:space="preserve">mm2</t>
-  </si>
-  <si>
     <t xml:space="preserve">6.4% of their punch would be white</t>
   </si>
   <si>
-    <t xml:space="preserve">adjusted area</t>
+    <t xml:space="preserve">ratio</t>
   </si>
   <si>
     <t xml:space="preserve">Their punch</t>
@@ -358,21 +394,15 @@
     <t xml:space="preserve">diameter</t>
   </si>
   <si>
+    <t xml:space="preserve">conversion factor</t>
+  </si>
+  <si>
     <t xml:space="preserve">green circle</t>
   </si>
   <si>
     <t xml:space="preserve">38.1 mm</t>
   </si>
   <si>
-    <t xml:space="preserve">ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conversion factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
     <t xml:space="preserve">mg org N/m2-d</t>
   </si>
   <si>
@@ -481,30 +511,9 @@
     <t xml:space="preserve">Ctl N2 rate nM N/day</t>
   </si>
   <si>
-    <t xml:space="preserve">1-2_50m</t>
-  </si>
-  <si>
     <t xml:space="preserve">p1</t>
   </si>
   <si>
-    <t xml:space="preserve">3-7_90m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-5_100m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6_110m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6_132m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-5_150m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-7_355m</t>
-  </si>
-  <si>
     <t xml:space="preserve">50 m used protein to C est – not great</t>
   </si>
   <si>
@@ -583,6 +592,9 @@
     <t xml:space="preserve">+P contaminated with air</t>
   </si>
   <si>
+    <t xml:space="preserve">average</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
@@ -623,6 +635,12 @@
   </si>
   <si>
     <t xml:space="preserve">Region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All cruise average</t>
   </si>
   <si>
     <t xml:space="preserve">trap name</t>
@@ -645,7 +663,7 @@
     <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -757,12 +775,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -852,7 +864,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -953,10 +965,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,11 +973,19 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1050,7 +1066,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1062,10 +1078,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101484349790255"/>
-          <c:y val="0.164543524416136"/>
-          <c:w val="0.856001936108422"/>
-          <c:h val="0.784804367606915"/>
+          <c:x val="0.101492537313433"/>
+          <c:y val="0.164556002123303"/>
+          <c:w val="0.855909640984268"/>
+          <c:h val="0.784712216576932"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1221,11 +1237,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57419147"/>
-        <c:axId val="71501424"/>
+        <c:axId val="12846002"/>
+        <c:axId val="50995849"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57419147"/>
+        <c:axId val="12846002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,13 +1307,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71501424"/>
+        <c:crossAx val="50995849"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71501424"/>
+        <c:axId val="50995849"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1330,7 +1346,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57419147"/>
+        <c:crossAx val="12846002"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1357,7 +1373,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1369,10 +1385,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101502651738362"/>
-          <c:y val="0.164567463609624"/>
-          <c:w val="0.855995875073659"/>
-          <c:h val="0.784749981144883"/>
+          <c:x val="0.101510128913444"/>
+          <c:y val="0.164579876301101"/>
+          <c:w val="0.855911602209945"/>
+          <c:h val="0.784658319505204"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1524,11 +1540,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41538941"/>
-        <c:axId val="58065928"/>
+        <c:axId val="25453057"/>
+        <c:axId val="19601716"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41538941"/>
+        <c:axId val="25453057"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1595,13 +1611,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58065928"/>
+        <c:crossAx val="19601716"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58065928"/>
+        <c:axId val="19601716"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1634,7 +1650,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41538941"/>
+        <c:crossAx val="25453057"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1661,7 +1677,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1673,10 +1689,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206247944755015"/>
-          <c:y val="0.164470762398224"/>
-          <c:w val="0.731141072015784"/>
-          <c:h val="0.784826054774241"/>
+          <c:x val="0.206261510128913"/>
+          <c:y val="0.164482937301059"/>
+          <c:w val="0.731123388581952"/>
+          <c:h val="0.784736101858021"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1828,11 +1844,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50376117"/>
-        <c:axId val="90100513"/>
+        <c:axId val="85351633"/>
+        <c:axId val="91909691"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50376117"/>
+        <c:axId val="85351633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1900,12 +1916,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90100513"/>
+        <c:crossAx val="91909691"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90100513"/>
+        <c:axId val="91909691"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1972,7 +1988,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50376117"/>
+        <c:crossAx val="85351633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1999,7 +2015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2011,10 +2027,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206350392230108"/>
-          <c:y val="0.196828557206855"/>
-          <c:w val="0.731191632424356"/>
-          <c:h val="0.752471023252507"/>
+          <c:x val="0.206365809922295"/>
+          <c:y val="0.196842554401934"/>
+          <c:w val="0.731171548117155"/>
+          <c:h val="0.752382306926468"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2300,11 +2316,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2143102"/>
-        <c:axId val="11878589"/>
+        <c:axId val="79693329"/>
+        <c:axId val="31983575"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2143102"/>
+        <c:axId val="79693329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2342,8 +2358,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.170265222263728"/>
-              <c:y val="0.00526203512763991"/>
+              <c:x val="0.170277943813509"/>
+              <c:y val="0.00526240933010952"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2380,13 +2396,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11878589"/>
+        <c:crossAx val="31983575"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11878589"/>
+        <c:axId val="31983575"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2453,7 +2469,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2143102"/>
+        <c:crossAx val="79693329"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2480,7 +2496,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2492,10 +2508,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206314473272898"/>
-          <c:y val="0.164535853251807"/>
-          <c:w val="0.731165989371679"/>
-          <c:h val="0.784658143413007"/>
+          <c:x val="0.206327372764787"/>
+          <c:y val="0.164554147209251"/>
+          <c:w val="0.731149180942854"/>
+          <c:h val="0.784523015343562"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2647,11 +2663,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="45961501"/>
-        <c:axId val="35817388"/>
+        <c:axId val="93738130"/>
+        <c:axId val="13740207"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="45961501"/>
+        <c:axId val="93738130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2719,12 +2735,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35817388"/>
+        <c:crossAx val="13740207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35817388"/>
+        <c:axId val="13740207"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2791,7 +2807,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45961501"/>
+        <c:crossAx val="93738130"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2818,7 +2834,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2830,10 +2846,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101507823613087"/>
-          <c:y val="0.164534423634925"/>
-          <c:w val="0.856159317211949"/>
-          <c:h val="0.784819308889475"/>
+          <c:x val="0.101513599635826"/>
+          <c:y val="0.164545274681791"/>
+          <c:w val="0.856094230112666"/>
+          <c:h val="0.784739167710875"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2974,11 +2990,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39107248"/>
-        <c:axId val="90608430"/>
+        <c:axId val="86425506"/>
+        <c:axId val="12464324"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39107248"/>
+        <c:axId val="86425506"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3010,13 +3026,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90608430"/>
+        <c:crossAx val="12464324"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90608430"/>
+        <c:axId val="12464324"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3049,7 +3065,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39107248"/>
+        <c:crossAx val="86425506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3077,7 +3093,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3089,10 +3105,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101550858215133"/>
-          <c:y val="0.164479978133115"/>
-          <c:w val="0.856117887300624"/>
-          <c:h val="0.784884515511822"/>
+          <c:x val="0.101556463185782"/>
+          <c:y val="0.164491218478781"/>
+          <c:w val="0.856054752180152"/>
+          <c:h val="0.784801476115629"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3390,11 +3406,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17900639"/>
-        <c:axId val="52221953"/>
+        <c:axId val="34179159"/>
+        <c:axId val="13459332"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17900639"/>
+        <c:axId val="34179159"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3427,13 +3443,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52221953"/>
+        <c:crossAx val="13459332"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52221953"/>
+        <c:axId val="13459332"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3466,7 +3482,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17900639"/>
+        <c:crossAx val="34179159"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3494,7 +3510,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3506,10 +3522,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206266947875866"/>
-          <c:y val="0.196898366103572"/>
-          <c:w val="0.731184091593854"/>
-          <c:h val="0.752492384381058"/>
+          <c:x val="0.206279378088466"/>
+          <c:y val="0.196911998892197"/>
+          <c:w val="0.73116789200916"/>
+          <c:h val="0.752406009831752"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3655,11 +3671,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96603847"/>
-        <c:axId val="12838146"/>
+        <c:axId val="50471981"/>
+        <c:axId val="14791657"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96603847"/>
+        <c:axId val="50471981"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3693,13 +3709,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12838146"/>
+        <c:crossAx val="14791657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12838146"/>
+        <c:axId val="14791657"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3732,7 +3748,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96603847"/>
+        <c:crossAx val="50471981"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3759,7 +3775,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3771,10 +3787,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206306787814003"/>
-          <c:y val="0.164519551379206"/>
-          <c:w val="0.731159807589524"/>
-          <c:h val="0.784783267656866"/>
+          <c:x val="0.206320571924901"/>
+          <c:y val="0.164532019704433"/>
+          <c:w val="0.731141845393198"/>
+          <c:h val="0.784691170898067"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3926,11 +3942,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="65090243"/>
-        <c:axId val="64263953"/>
+        <c:axId val="10357109"/>
+        <c:axId val="4524637"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65090243"/>
+        <c:axId val="10357109"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3998,13 +4014,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64263953"/>
+        <c:crossAx val="4524637"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64263953"/>
+        <c:axId val="4524637"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4071,7 +4087,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65090243"/>
+        <c:crossAx val="10357109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4098,7 +4114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4110,10 +4126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.20634328358209"/>
-          <c:y val="0.196839283194582"/>
-          <c:w val="0.731218905472637"/>
-          <c:h val="0.75243403414703"/>
+          <c:x val="0.206356116673922"/>
+          <c:y val="0.196853171523319"/>
+          <c:w val="0.73120218919087"/>
+          <c:h val="0.75234601001905"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4331,11 +4347,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="36016896"/>
-        <c:axId val="69166699"/>
+        <c:axId val="47430522"/>
+        <c:axId val="62694097"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36016896"/>
+        <c:axId val="47430522"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4369,13 +4385,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69166699"/>
+        <c:crossAx val="62694097"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69166699"/>
+        <c:axId val="62694097"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4408,7 +4424,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36016896"/>
+        <c:crossAx val="47430522"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4435,7 +4451,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4447,10 +4463,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101573299980251"/>
-          <c:y val="0.164474184472664"/>
-          <c:w val="0.856033177539332"/>
-          <c:h val="0.784807238993232"/>
+          <c:x val="0.101579986833443"/>
+          <c:y val="0.164486692015209"/>
+          <c:w val="0.855957867017775"/>
+          <c:h val="0.784714828897338"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4594,11 +4610,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17485162"/>
-        <c:axId val="34503872"/>
+        <c:axId val="41371429"/>
+        <c:axId val="35148877"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17485162"/>
+        <c:axId val="41371429"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4635,8 +4651,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.232440260680666"/>
-              <c:y val="0.0247889894304616"/>
+              <c:x val="0.232455562870309"/>
+              <c:y val="0.0248669201520913"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4673,13 +4689,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34503872"/>
+        <c:crossAx val="35148877"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="34503872"/>
+        <c:axId val="35148877"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4712,7 +4728,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17485162"/>
+        <c:crossAx val="41371429"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4739,7 +4755,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4751,10 +4767,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101508916323731"/>
-          <c:y val="0.164543524416136"/>
-          <c:w val="0.8559670781893"/>
-          <c:h val="0.784804367606915"/>
+          <c:x val="0.101517107811491"/>
+          <c:y val="0.164556002123303"/>
+          <c:w val="0.855874757908328"/>
+          <c:h val="0.784712216576932"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4910,11 +4926,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="19674814"/>
-        <c:axId val="73132943"/>
+        <c:axId val="54812781"/>
+        <c:axId val="61982444"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="19674814"/>
+        <c:axId val="54812781"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,13 +4996,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73132943"/>
+        <c:crossAx val="61982444"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73132943"/>
+        <c:axId val="61982444"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5019,7 +5035,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19674814"/>
+        <c:crossAx val="54812781"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5046,7 +5062,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5058,10 +5074,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101525086568924"/>
-          <c:y val="0.164567463609624"/>
-          <c:w val="0.855964046268327"/>
-          <c:h val="0.784749981144883"/>
+          <c:x val="0.101532567049808"/>
+          <c:y val="0.164579876301101"/>
+          <c:w val="0.855879752431476"/>
+          <c:h val="0.784658319505204"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5213,11 +5229,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="6361644"/>
-        <c:axId val="98988695"/>
+        <c:axId val="21642496"/>
+        <c:axId val="60619354"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="6361644"/>
+        <c:axId val="21642496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5284,13 +5300,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98988695"/>
+        <c:crossAx val="60619354"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98988695"/>
+        <c:axId val="60619354"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -5323,7 +5339,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6361644"/>
+        <c:crossAx val="21642496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5350,7 +5366,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5362,10 +5378,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206300144679732"/>
-          <c:y val="0.164470762398224"/>
-          <c:w val="0.731158753123767"/>
-          <c:h val="0.784826054774241"/>
+          <c:x val="0.206313712594541"/>
+          <c:y val="0.164482937301059"/>
+          <c:w val="0.731141072015784"/>
+          <c:h val="0.784736101858021"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5517,11 +5533,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="51739575"/>
-        <c:axId val="92069747"/>
+        <c:axId val="34077377"/>
+        <c:axId val="6000457"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51739575"/>
+        <c:axId val="34077377"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5589,12 +5605,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92069747"/>
+        <c:crossAx val="6000457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92069747"/>
+        <c:axId val="6000457"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5661,7 +5677,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51739575"/>
+        <c:crossAx val="34077377"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5688,7 +5704,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5700,10 +5716,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206314473272898"/>
-          <c:y val="0.164535853251807"/>
-          <c:w val="0.731165989371679"/>
-          <c:h val="0.784658143413007"/>
+          <c:x val="0.206327372764787"/>
+          <c:y val="0.164554147209251"/>
+          <c:w val="0.731149180942854"/>
+          <c:h val="0.784523015343562"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5855,11 +5871,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="4709616"/>
-        <c:axId val="45976048"/>
+        <c:axId val="52603855"/>
+        <c:axId val="62857189"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="4709616"/>
+        <c:axId val="52603855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -5927,12 +5943,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="45976048"/>
+        <c:crossAx val="62857189"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="45976048"/>
+        <c:axId val="62857189"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5999,7 +6015,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4709616"/>
+        <c:crossAx val="52603855"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6026,7 +6042,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6038,10 +6054,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10152515365354"/>
-          <c:y val="0.164534423634925"/>
-          <c:w val="0.856134759845208"/>
-          <c:h val="0.784819308889475"/>
+          <c:x val="0.101530931648739"/>
+          <c:y val="0.164545274681791"/>
+          <c:w val="0.856069660235615"/>
+          <c:h val="0.784739167710875"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6182,11 +6198,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21133915"/>
-        <c:axId val="15631858"/>
+        <c:axId val="25047396"/>
+        <c:axId val="85844272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21133915"/>
+        <c:axId val="25047396"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6218,13 +6234,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15631858"/>
+        <c:crossAx val="85844272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15631858"/>
+        <c:axId val="85844272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6257,7 +6273,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21133915"/>
+        <c:crossAx val="25047396"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -6285,7 +6301,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6297,10 +6313,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101556463185782"/>
-          <c:y val="0.164479978133115"/>
-          <c:w val="0.856054752180152"/>
-          <c:h val="0.784884515511822"/>
+          <c:x val="0.101562068775184"/>
+          <c:y val="0.164491218478781"/>
+          <c:w val="0.855991610089971"/>
+          <c:h val="0.784801476115629"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6598,11 +6614,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="18448769"/>
-        <c:axId val="22129602"/>
+        <c:axId val="28954439"/>
+        <c:axId val="84077300"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="18448769"/>
+        <c:axId val="28954439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6635,13 +6651,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22129602"/>
+        <c:crossAx val="84077300"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="22129602"/>
+        <c:axId val="84077300"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6674,7 +6690,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18448769"/>
+        <c:crossAx val="28954439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6702,7 +6718,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6714,10 +6730,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206320571924901"/>
-          <c:y val="0.164519551379206"/>
-          <c:w val="0.73120865904991"/>
-          <c:h val="0.784783267656866"/>
+          <c:x val="0.206334357877856"/>
+          <c:y val="0.164532019704433"/>
+          <c:w val="0.731190698917546"/>
+          <c:h val="0.784691170898067"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6869,11 +6885,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79477144"/>
-        <c:axId val="60404169"/>
+        <c:axId val="28175042"/>
+        <c:axId val="19136483"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79477144"/>
+        <c:axId val="28175042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6941,13 +6957,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60404169"/>
+        <c:crossAx val="19136483"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60404169"/>
+        <c:axId val="19136483"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -7014,7 +7030,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79477144"/>
+        <c:crossAx val="28175042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7041,7 +7057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7169,11 +7185,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="8099071"/>
-        <c:axId val="48968836"/>
+        <c:axId val="22081620"/>
+        <c:axId val="37171489"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8099071"/>
+        <c:axId val="22081620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7229,12 +7245,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48968836"/>
+        <c:crossAx val="37171489"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48968836"/>
+        <c:axId val="37171489"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7290,7 +7306,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8099071"/>
+        <c:crossAx val="22081620"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7317,7 +7333,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7459,11 +7475,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="97354565"/>
-        <c:axId val="67183752"/>
+        <c:axId val="13406385"/>
+        <c:axId val="75449380"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97354565"/>
+        <c:axId val="13406385"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7519,12 +7535,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67183752"/>
+        <c:crossAx val="75449380"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67183752"/>
+        <c:axId val="75449380"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -7581,7 +7597,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97354565"/>
+        <c:crossAx val="13406385"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7608,7 +7624,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7831,11 +7847,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3959798"/>
-        <c:axId val="51667738"/>
+        <c:axId val="67957680"/>
+        <c:axId val="23313907"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3959798"/>
+        <c:axId val="67957680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7891,12 +7907,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51667738"/>
+        <c:crossAx val="23313907"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51667738"/>
+        <c:axId val="23313907"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7952,7 +7968,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3959798"/>
+        <c:crossAx val="67957680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7979,7 +7995,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8184,11 +8200,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34219459"/>
-        <c:axId val="82278779"/>
+        <c:axId val="63765672"/>
+        <c:axId val="55990380"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34219459"/>
+        <c:axId val="63765672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8244,12 +8260,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82278779"/>
+        <c:crossAx val="55990380"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82278779"/>
+        <c:axId val="55990380"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8306,7 +8322,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34219459"/>
+        <c:crossAx val="63765672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8333,7 +8349,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8493,11 +8509,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50211532"/>
-        <c:axId val="63896224"/>
+        <c:axId val="3942282"/>
+        <c:axId val="97574236"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50211532"/>
+        <c:axId val="3942282"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8553,12 +8569,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63896224"/>
+        <c:crossAx val="97574236"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="63896224"/>
+        <c:axId val="97574236"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8615,7 +8631,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50211532"/>
+        <c:crossAx val="3942282"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8647,9 +8663,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>606600</xdr:colOff>
+      <xdr:colOff>606960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -8663,8 +8679,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1626120" y="6319440"/>
-        <a:ext cx="4462200" cy="4747320"/>
+        <a:off x="1626480" y="6319800"/>
+        <a:ext cx="4461840" cy="4746960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8679,11 +8695,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>831960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>971280</xdr:colOff>
+      <xdr:colOff>970920</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
@@ -8693,8 +8709,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5250240" y="6213960"/>
-        <a:ext cx="4887000" cy="4772880"/>
+        <a:off x="5250240" y="6214320"/>
+        <a:ext cx="4886640" cy="4772520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8709,11 +8725,11 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>103680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1672560</xdr:colOff>
+      <xdr:colOff>1672200</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
@@ -8723,8 +8739,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10478880" y="6213960"/>
-        <a:ext cx="5473440" cy="4863240"/>
+        <a:off x="10478880" y="6214320"/>
+        <a:ext cx="5473080" cy="4862880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8737,9 +8753,9 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>412920</xdr:colOff>
+      <xdr:colOff>413280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
@@ -8753,8 +8769,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44038440" y="3603240"/>
-        <a:ext cx="4818240" cy="5062320"/>
+        <a:off x="44038800" y="3603600"/>
+        <a:ext cx="4817880" cy="5061960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8769,11 +8785,11 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>577080</xdr:colOff>
+      <xdr:colOff>576720</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
@@ -8783,8 +8799,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15659640" y="6171480"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:off x="15659640" y="6171840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8797,7 +8813,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -8805,7 +8821,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>432720</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8813,8 +8829,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1942920" y="9027720"/>
-        <a:ext cx="6326640" cy="5458680"/>
+        <a:off x="1943280" y="9027720"/>
+        <a:ext cx="6326280" cy="5458320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8833,9 +8849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>646920</xdr:colOff>
+      <xdr:colOff>646560</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8844,7 +8860,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7286400" y="9218160"/>
-        <a:ext cx="6522480" cy="5267880"/>
+        <a:ext cx="6522120" cy="5267520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8857,7 +8873,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>719640</xdr:colOff>
+      <xdr:colOff>720000</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
@@ -8865,7 +8881,7 @@
       <xdr:col>37</xdr:col>
       <xdr:colOff>574560</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8873,8 +8889,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43325280" y="3073320"/>
-        <a:ext cx="5973840" cy="5199480"/>
+        <a:off x="43325640" y="3073320"/>
+        <a:ext cx="5973480" cy="5199120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8893,9 +8909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1014120</xdr:colOff>
+      <xdr:colOff>1013760</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8904,7 +8920,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14279760" y="9218160"/>
-        <a:ext cx="5388120" cy="4750200"/>
+        <a:ext cx="5387760" cy="4749840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8917,7 +8933,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
@@ -8925,7 +8941,7 @@
       <xdr:col>43</xdr:col>
       <xdr:colOff>690120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8933,8 +8949,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49745160" y="2869560"/>
-        <a:ext cx="5788440" cy="5102280"/>
+        <a:off x="49745520" y="2869560"/>
+        <a:ext cx="5788080" cy="5101920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8958,9 +8974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136800</xdr:colOff>
+      <xdr:colOff>136440</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8969,7 +8985,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="3846600" y="5970240"/>
-        <a:ext cx="5468400" cy="4734000"/>
+        <a:ext cx="5468040" cy="4733640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8993,9 +9009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:colOff>441720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9004,7 +9020,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1680480" y="3014640"/>
-        <a:ext cx="4461120" cy="4747320"/>
+        <a:ext cx="4460760" cy="4746960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9023,9 +9039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9034,7 +9050,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6532200" y="3555000"/>
-        <a:ext cx="4885920" cy="4772880"/>
+        <a:ext cx="4885560" cy="4772520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9053,9 +9069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1672920</xdr:colOff>
+      <xdr:colOff>1672560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9064,7 +9080,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="12413160" y="3555000"/>
-        <a:ext cx="5473800" cy="4863240"/>
+        <a:ext cx="5473440" cy="4862880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9083,9 +9099,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>577080</xdr:colOff>
+      <xdr:colOff>576720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9094,7 +9110,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="17593920" y="3512520"/>
-        <a:ext cx="5757840" cy="3237840"/>
+        <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9113,9 +9129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9124,7 +9140,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2047680" y="6369120"/>
-        <a:ext cx="6325560" cy="5458680"/>
+        <a:ext cx="6325200" cy="5458320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9143,9 +9159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9154,7 +9170,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8711640" y="6559920"/>
-        <a:ext cx="6522120" cy="5267880"/>
+        <a:ext cx="6521760" cy="5267520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9173,9 +9189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1014120</xdr:colOff>
+      <xdr:colOff>1013760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9184,7 +9200,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="16214040" y="6559920"/>
-        <a:ext cx="5387760" cy="4750200"/>
+        <a:ext cx="5387400" cy="4749840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9208,9 +9224,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254520</xdr:colOff>
+      <xdr:colOff>254160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9219,7 +9235,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8112600" y="364680"/>
-        <a:ext cx="3520800" cy="4038840"/>
+        <a:ext cx="3520440" cy="4038480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9243,9 +9259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438480</xdr:colOff>
+      <xdr:colOff>438120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9253,8 +9269,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10259640" y="4659120"/>
-        <a:ext cx="3193560" cy="4123440"/>
+        <a:off x="10267200" y="4659120"/>
+        <a:ext cx="3195720" cy="4123080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9273,9 +9289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
+      <xdr:colOff>446040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9283,8 +9299,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10267560" y="467640"/>
-        <a:ext cx="3193560" cy="4123440"/>
+        <a:off x="10275120" y="467640"/>
+        <a:ext cx="3195720" cy="4123080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9303,9 +9319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
+      <xdr:colOff>494640</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9313,8 +9329,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7062120" y="467640"/>
-        <a:ext cx="3193920" cy="4127760"/>
+        <a:off x="7067160" y="467640"/>
+        <a:ext cx="3196080" cy="4127400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9333,9 +9349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
+      <xdr:colOff>535320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>182160</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9343,8 +9359,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7103160" y="4689000"/>
-        <a:ext cx="3193560" cy="4123440"/>
+        <a:off x="7108200" y="4689000"/>
+        <a:ext cx="3195720" cy="4123080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9362,10 +9378,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM40"/>
+  <dimension ref="A1:BM55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y28" activeCellId="0" sqref="Y28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10964,6 +10980,9 @@
       <c r="J23" s="19" t="n">
         <v>2.69378149232115</v>
       </c>
+      <c r="V23" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W23" s="0" t="s">
         <v>42</v>
       </c>
@@ -11009,6 +11028,9 @@
       <c r="J24" s="15" t="n">
         <v>1.88893214400569</v>
       </c>
+      <c r="V24" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W24" s="0" t="s">
         <v>46</v>
       </c>
@@ -11054,6 +11076,9 @@
       <c r="J25" s="19" t="n">
         <v>1.51114571520455</v>
       </c>
+      <c r="V25" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W25" s="0" t="s">
         <v>48</v>
       </c>
@@ -11099,6 +11124,9 @@
       <c r="J26" s="15" t="n">
         <v>1.95189654880588</v>
       </c>
+      <c r="V26" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W26" s="0" t="s">
         <v>51</v>
       </c>
@@ -11144,6 +11172,9 @@
       <c r="J27" s="19" t="n">
         <v>2.45561178720739</v>
       </c>
+      <c r="V27" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W27" s="0" t="s">
         <v>54</v>
       </c>
@@ -11158,6 +11189,9 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V28" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W28" s="0" t="s">
         <v>57</v>
       </c>
@@ -11172,6 +11206,9 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V29" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W29" s="0" t="s">
         <v>59</v>
       </c>
@@ -11186,6 +11223,9 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V30" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W30" s="0" t="s">
         <v>63</v>
       </c>
@@ -11200,6 +11240,9 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V31" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W31" s="0" t="s">
         <v>65</v>
       </c>
@@ -11214,6 +11257,9 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V32" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="W32" s="0" t="s">
         <v>66</v>
       </c>
@@ -11228,92 +11274,239 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S33" s="0" t="s">
+      <c r="V33" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="W33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>2.12205443079987</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>7.25</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S34" s="0" t="s">
-        <v>88</v>
+      <c r="V34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>4.11549950111472</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S35" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="T35" s="0" t="s">
+      <c r="V35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W35" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="X35" s="0" t="s">
+      <c r="X35" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>8.17955525900485</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V36" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W36" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S36" s="0" t="s">
+      <c r="X36" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>5.83029096227096</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W37" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="T36" s="0" t="s">
+      <c r="X37" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>2.11630360602566</v>
+      </c>
+      <c r="Z37" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W38" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="X38" s="0" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="Y38" s="0" t="n">
+        <v>5.32442748060598</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V39" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="X39" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>3.39891185055482</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <f aca="false">AVERAGE(Y23:Y39)</f>
+        <v>3.86724992172181</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <f aca="false">AVERAGE(Z23:Z39)</f>
+        <v>6.39285714285714</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W41" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <f aca="false">AVERAGE(Y23:Y32)</f>
+        <v>3.46562055788939</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <f aca="false">AVERAGE(Z23:Z32)</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <f aca="false">AVERAGE(Y33:Y39)</f>
+        <v>4.44100615576812</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <f aca="false">AVERAGE(Z33:Z39)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S49" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="X49" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S50" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="X50" s="0" t="n">
         <f aca="false">PI()*(21/2)^2</f>
         <v>346.360590058275</v>
       </c>
-      <c r="Y36" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V37" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="X37" s="0" t="n">
+      <c r="Y50" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S51" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="T51" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="X51" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
-      <c r="Y37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z37" s="0" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S38" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="U38" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z38" s="0" t="n">
-        <f aca="false">X36*(1-0.064)</f>
+      <c r="Y51" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z51" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S52" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z52" s="0" t="n">
+        <f aca="false">X50*(1-0.064)</f>
         <v>324.193512294545</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S39" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="T39" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="U39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="X39" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y39" s="0" t="n">
-        <f aca="false">X37/Z38</f>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="X53" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y53" s="0" t="n">
+        <f aca="false">X51/Z52</f>
         <v>3.51670155241584</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X40" s="0" t="s">
-        <v>103</v>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S54" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="T54" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="U54" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="X54" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S55" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -11336,7 +11529,7 @@
   <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V19" activeCellId="0" sqref="V19"/>
+      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11353,7 +11546,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
@@ -11386,7 +11579,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -11439,27 +11632,27 @@
         <v>27</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -11497,13 +11690,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -11512,7 +11705,7 @@
         <v>0.46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.6</v>
@@ -11546,13 +11739,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -11590,13 +11783,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -11634,13 +11827,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -11678,13 +11871,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>40</v>
@@ -11737,13 +11930,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>132</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -11783,13 +11976,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>40</v>
@@ -11829,13 +12022,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>53</v>
@@ -11888,13 +12081,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>355</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>53</v>
@@ -11947,13 +12140,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>700</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>53</v>
@@ -12009,14 +12202,14 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -12027,23 +12220,23 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="0" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">((0.6*67)+(18*6.5))/18.6</f>
         <v>8.45161290322581</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>71</v>
@@ -12052,66 +12245,66 @@
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>135</v>
+        <v>144</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>138</v>
+        <v>147</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="T18" s="0" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>50</v>
@@ -12146,7 +12339,7 @@
       <c r="M19" s="6" t="n">
         <v>329.4669187</v>
       </c>
-      <c r="N19" s="26" t="n">
+      <c r="N19" s="25" t="n">
         <f aca="false">M19/(0.46*12)</f>
         <v>59.6860359963768</v>
       </c>
@@ -12177,15 +12370,15 @@
         <v>7.25</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>90</v>
@@ -12250,15 +12443,15 @@
         <v>1.25</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>100</v>
@@ -12313,15 +12506,15 @@
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>110</v>
@@ -12372,15 +12565,15 @@
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>132</v>
@@ -12445,15 +12638,15 @@
         <v>11.5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>150</v>
@@ -12508,15 +12701,15 @@
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>355</v>
@@ -12581,7 +12774,7 @@
         <v>9</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12590,7 +12783,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -12604,15 +12797,15 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -12632,10 +12825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AS26"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA21" activeCellId="0" sqref="AA21"/>
+      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12794,7 +12987,7 @@
         <v>36</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AD2" s="0" t="n">
         <f aca="false">((0.6*67)+(18*6.5))/18.6</f>
@@ -12812,16 +13005,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="0" t="s">
@@ -12830,25 +13023,25 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="N3" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="U3" s="6"/>
       <c r="AD3" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -12885,7 +13078,7 @@
         <v>2018</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>93</v>
@@ -12908,18 +13101,18 @@
         <v>28</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -12957,7 +13150,7 @@
         <v>2018</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>122</v>
@@ -12980,18 +13173,18 @@
         <v>20</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>145</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -13029,7 +13222,7 @@
         <v>2018</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>145</v>
@@ -13052,18 +13245,18 @@
         <v>28</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>190</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -13101,7 +13294,7 @@
         <v>2018</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>190</v>
@@ -13124,7 +13317,7 @@
         <v>20</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AS7" s="5" t="s">
         <v>49</v>
@@ -13138,7 +13331,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -13199,7 +13392,7 @@
         <v>21</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AS8" s="5" t="s">
         <v>52</v>
@@ -13213,7 +13406,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>40</v>
@@ -13274,7 +13467,7 @@
         <v>35</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>55</v>
@@ -13288,7 +13481,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -13316,8 +13509,8 @@
         <f aca="false">N10/$AD$2</f>
         <v>0.201890863996947</v>
       </c>
-      <c r="V10" s="27" t="s">
-        <v>167</v>
+      <c r="V10" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>2018</v>
@@ -13336,7 +13529,7 @@
         <v>15</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AS10" s="5" t="s">
         <v>58</v>
@@ -13350,7 +13543,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>40</v>
@@ -13411,7 +13604,7 @@
         <v>15</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>60</v>
@@ -13425,7 +13618,7 @@
         <v>221</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>40</v>
@@ -13486,7 +13679,7 @@
         <v>35</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13497,7 +13690,7 @@
         <v>368</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>53</v>
@@ -13558,12 +13751,12 @@
         <v>50</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X15" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13571,24 +13764,24 @@
         <v>71</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W17" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>93</v>
@@ -13605,10 +13798,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W18" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>122</v>
@@ -13625,10 +13818,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W19" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>145</v>
@@ -13645,10 +13838,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W20" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>190</v>
@@ -13668,7 +13861,7 @@
         <v>43</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>85</v>
@@ -13688,7 +13881,7 @@
         <v>43</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>87</v>
@@ -13708,13 +13901,13 @@
         <v>43</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>121</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>4.2</v>
@@ -13725,7 +13918,7 @@
         <v>43</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>150</v>
@@ -13745,7 +13938,7 @@
         <v>43</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>221</v>
@@ -13765,7 +13958,7 @@
         <v>43</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>368</v>
@@ -13778,6 +13971,45 @@
       </c>
       <c r="AB26" s="0" t="n">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z27" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <f aca="false">AVERAGE(AA17:AA26)</f>
+        <v>11.1333333333333</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <f aca="false">AVERAGE(AB17:AB26)</f>
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y28" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <f aca="false">AVERAGE(AA17:AA20)</f>
+        <v>9.2925</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <f aca="false">AVERAGE(AB17:AB20)</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y29" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA29" s="0" t="n">
+        <f aca="false">AVERAGE(AA21:AA26)</f>
+        <v>12.606</v>
+      </c>
+      <c r="AB29" s="0" t="n">
+        <f aca="false">AVERAGE(AB21:AB26)</f>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>
@@ -13805,567 +14037,567 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="28" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="27" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>179</v>
+      <c r="D1" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="28" t="n">
+      <c r="C2" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="28" t="n">
+      <c r="D2" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="E2" s="28" t="n">
+      <c r="E2" s="27" t="n">
         <v>5.50734455652174</v>
       </c>
-      <c r="F2" s="28" t="n">
+      <c r="F2" s="27" t="n">
         <f aca="false">D2*2.2457</f>
         <v>33.6855</v>
       </c>
-      <c r="G2" s="28" t="n">
+      <c r="G2" s="27" t="n">
         <f aca="false">F2*0.6</f>
         <v>20.2113</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="28" t="n">
+      <c r="A3" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="28" t="n">
+      <c r="C3" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D3" s="27" t="n">
         <v>29</v>
       </c>
-      <c r="E3" s="28" t="n">
+      <c r="E3" s="27" t="n">
         <v>1.2935232</v>
       </c>
-      <c r="F3" s="28" t="n">
+      <c r="F3" s="27" t="n">
         <f aca="false">D3*2.2457</f>
         <v>65.1253</v>
       </c>
-      <c r="G3" s="28" t="n">
+      <c r="G3" s="27" t="n">
         <f aca="false">F3*0.6</f>
         <v>39.07518</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="n">
+      <c r="A4" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="28" t="n">
+      <c r="C4" s="27" t="n">
         <v>100</v>
       </c>
-      <c r="E4" s="28" t="n">
+      <c r="E4" s="27" t="n">
         <v>0.992225113043478</v>
       </c>
-      <c r="F4" s="28" t="n">
+      <c r="F4" s="27" t="n">
         <f aca="false">D4*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G4" s="28" t="n">
+      <c r="G4" s="27" t="n">
         <f aca="false">F4*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="n">
+      <c r="A5" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="28" t="n">
+      <c r="C5" s="27" t="n">
         <v>113</v>
       </c>
-      <c r="D5" s="28" t="n">
+      <c r="D5" s="27" t="n">
         <v>34</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="27" t="n">
         <v>1.31366817391304</v>
       </c>
-      <c r="F5" s="28" t="n">
+      <c r="F5" s="27" t="n">
         <f aca="false">D5*2.2457</f>
         <v>76.3538</v>
       </c>
-      <c r="G5" s="28" t="n">
+      <c r="G5" s="27" t="n">
         <f aca="false">F5*0.6</f>
         <v>45.81228</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="28" t="n">
+      <c r="A6" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="n">
+      <c r="C6" s="27" t="n">
         <v>120</v>
       </c>
-      <c r="D6" s="28" t="n">
+      <c r="D6" s="27" t="n">
         <v>16</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="E6" s="27" t="n">
         <v>0.363637697560976</v>
       </c>
-      <c r="F6" s="28" t="n">
+      <c r="F6" s="27" t="n">
         <f aca="false">D6*2.2457</f>
         <v>35.9312</v>
       </c>
-      <c r="G6" s="28" t="n">
+      <c r="G6" s="27" t="n">
         <f aca="false">F6*0.6</f>
         <v>21.55872</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="28" t="n">
+      <c r="A7" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="28" t="n">
+      <c r="C7" s="27" t="n">
         <v>120</v>
       </c>
-      <c r="D7" s="28" t="n">
+      <c r="D7" s="27" t="n">
         <v>21</v>
       </c>
-      <c r="E7" s="28" t="n">
+      <c r="E7" s="27" t="n">
         <v>0.641929460869565</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="27" t="n">
         <f aca="false">D7*2.2457</f>
         <v>47.1597</v>
       </c>
-      <c r="G7" s="28" t="n">
+      <c r="G7" s="27" t="n">
         <f aca="false">F7*0.6</f>
         <v>28.29582</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="28" t="n">
+      <c r="A8" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="28" t="n">
+      <c r="C8" s="27" t="n">
         <v>140</v>
       </c>
-      <c r="D8" s="28" t="n">
+      <c r="D8" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="28" t="n">
+      <c r="E8" s="27" t="n">
         <v>0.495536390243902</v>
       </c>
-      <c r="F8" s="28" t="n">
+      <c r="F8" s="27" t="n">
         <f aca="false">D8*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G8" s="28" t="n">
+      <c r="G8" s="27" t="n">
         <f aca="false">F8*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="28" t="n">
+      <c r="A9" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="28" t="n">
+      <c r="C9" s="27" t="n">
         <v>150</v>
       </c>
-      <c r="D9" s="28" t="n">
+      <c r="D9" s="27" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="28" t="n">
+      <c r="E9" s="27" t="n">
         <v>0.474287083141249</v>
       </c>
-      <c r="F9" s="28" t="n">
+      <c r="F9" s="27" t="n">
         <f aca="false">D9*2.2457</f>
         <v>67.371</v>
       </c>
-      <c r="G9" s="28" t="n">
+      <c r="G9" s="27" t="n">
         <f aca="false">F9*0.6</f>
         <v>40.4226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="28" t="n">
+      <c r="A10" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="28" t="n">
+      <c r="C10" s="27" t="n">
         <v>150</v>
       </c>
-      <c r="D10" s="28" t="n">
+      <c r="D10" s="27" t="n">
         <v>24</v>
       </c>
-      <c r="E10" s="28" t="n">
+      <c r="E10" s="27" t="n">
         <v>0.427828097560976</v>
       </c>
-      <c r="F10" s="28" t="n">
+      <c r="F10" s="27" t="n">
         <f aca="false">D10*2.2457</f>
         <v>53.8968</v>
       </c>
-      <c r="G10" s="28" t="n">
+      <c r="G10" s="27" t="n">
         <f aca="false">F10*0.6</f>
         <v>32.33808</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="28" t="n">
+      <c r="A11" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="28" t="n">
+      <c r="C11" s="27" t="n">
         <v>150</v>
       </c>
-      <c r="E11" s="28" t="n">
+      <c r="E11" s="27" t="n">
         <v>0.634010809756098</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="27" t="n">
         <f aca="false">D11*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G11" s="28" t="n">
+      <c r="G11" s="27" t="n">
         <f aca="false">F11*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="28" t="n">
+      <c r="A12" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="28" t="n">
+      <c r="C12" s="27" t="n">
         <v>179</v>
       </c>
-      <c r="D12" s="28" t="n">
+      <c r="D12" s="27" t="n">
         <v>31</v>
       </c>
-      <c r="E12" s="28" t="n">
+      <c r="E12" s="27" t="n">
         <v>0.181095820316269</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="27" t="n">
         <f aca="false">D12*2.2457</f>
         <v>69.6167</v>
       </c>
-      <c r="G12" s="28" t="n">
+      <c r="G12" s="27" t="n">
         <f aca="false">F12*0.6</f>
         <v>41.77002</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="n">
+      <c r="A13" s="27" t="n">
         <v>2017</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="28" t="n">
+      <c r="C13" s="27" t="n">
         <v>180</v>
       </c>
-      <c r="D13" s="28" t="n">
+      <c r="D13" s="27" t="n">
         <v>39</v>
       </c>
-      <c r="E13" s="28" t="n">
+      <c r="E13" s="27" t="n">
         <v>0.35039640768</v>
       </c>
-      <c r="F13" s="28" t="n">
+      <c r="F13" s="27" t="n">
         <f aca="false">D13*2.2457</f>
         <v>87.5823</v>
       </c>
-      <c r="G13" s="28" t="n">
+      <c r="G13" s="27" t="n">
         <f aca="false">F13*0.6</f>
         <v>52.54938</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="28" t="n">
+      <c r="A14" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="28" t="n">
+      <c r="B14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="27" t="n">
         <v>93</v>
       </c>
-      <c r="D14" s="28" t="n">
+      <c r="D14" s="27" t="n">
         <v>160</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="27" t="n">
         <v>0.58685784336</v>
       </c>
-      <c r="F14" s="28" t="n">
+      <c r="F14" s="27" t="n">
         <f aca="false">D14*2.2457</f>
         <v>359.312</v>
       </c>
-      <c r="G14" s="28" t="n">
+      <c r="G14" s="27" t="n">
         <f aca="false">F14*0.6</f>
         <v>215.5872</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="28" t="n">
+      <c r="A15" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="28" t="n">
+      <c r="B15" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="27" t="n">
         <v>122</v>
       </c>
-      <c r="D15" s="28" t="n">
+      <c r="D15" s="27" t="n">
         <v>54</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="27" t="n">
         <v>0.24311220636</v>
       </c>
-      <c r="F15" s="28" t="n">
+      <c r="F15" s="27" t="n">
         <f aca="false">D15*2.2457</f>
         <v>121.2678</v>
       </c>
-      <c r="G15" s="28" t="n">
+      <c r="G15" s="27" t="n">
         <f aca="false">F15*0.6</f>
         <v>72.76068</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="28" t="n">
+      <c r="A16" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="28" t="n">
+      <c r="B16" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="27" t="n">
         <v>145</v>
       </c>
-      <c r="D16" s="28" t="n">
+      <c r="D16" s="27" t="n">
         <v>181</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="27" t="n">
         <v>0.2981113254</v>
       </c>
-      <c r="F16" s="28" t="n">
+      <c r="F16" s="27" t="n">
         <f aca="false">D16*2.2457</f>
         <v>406.4717</v>
       </c>
-      <c r="G16" s="28" t="n">
+      <c r="G16" s="27" t="n">
         <f aca="false">F16*0.6</f>
         <v>243.88302</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28" t="n">
+      <c r="A17" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="28" t="n">
+      <c r="B17" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="27" t="n">
         <v>190</v>
       </c>
-      <c r="D17" s="28" t="n">
+      <c r="D17" s="27" t="n">
         <v>64</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="27" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="27" t="n">
         <f aca="false">D17*2.2457</f>
         <v>143.7248</v>
       </c>
-      <c r="G17" s="28" t="n">
+      <c r="G17" s="27" t="n">
         <f aca="false">F17*0.6</f>
         <v>86.23488</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="28" t="n">
+      <c r="A18" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="28" t="n">
+      <c r="C18" s="27" t="n">
         <v>85</v>
       </c>
-      <c r="D18" s="28" t="n">
+      <c r="D18" s="27" t="n">
         <v>530</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="27" t="n">
         <v>1.3821818328</v>
       </c>
-      <c r="F18" s="28" t="n">
+      <c r="F18" s="27" t="n">
         <f aca="false">D18*2.2457</f>
         <v>1190.221</v>
       </c>
-      <c r="G18" s="28" t="n">
+      <c r="G18" s="27" t="n">
         <f aca="false">F18*0.6</f>
         <v>714.1326</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="n">
+      <c r="A19" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="28" t="n">
+      <c r="C19" s="27" t="n">
         <v>87</v>
       </c>
-      <c r="D19" s="28" t="n">
+      <c r="D19" s="27" t="n">
         <v>38.5</v>
       </c>
-      <c r="E19" s="28" t="n">
+      <c r="E19" s="27" t="n">
         <v>0.65778210996</v>
       </c>
-      <c r="F19" s="28" t="n">
+      <c r="F19" s="27" t="n">
         <f aca="false">D19*2.2457</f>
         <v>86.45945</v>
       </c>
-      <c r="G19" s="28" t="n">
+      <c r="G19" s="27" t="n">
         <f aca="false">F19*0.6</f>
         <v>51.87567</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="n">
+      <c r="A20" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="28" t="n">
+      <c r="C20" s="27" t="n">
         <v>120</v>
       </c>
-      <c r="E20" s="28" t="n">
+      <c r="E20" s="27" t="n">
         <v>1.7063034312</v>
       </c>
-      <c r="F20" s="28" t="n">
+      <c r="F20" s="27" t="n">
         <f aca="false">D20*2.2457</f>
         <v>0</v>
       </c>
-      <c r="G20" s="28" t="n">
+      <c r="G20" s="27" t="n">
         <f aca="false">F20*0.6</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="n">
+      <c r="A21" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28" t="n">
+      <c r="C21" s="27" t="n">
         <v>150</v>
       </c>
-      <c r="D21" s="28" t="n">
+      <c r="D21" s="27" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="27" t="n">
         <v>0.073060043712</v>
       </c>
-      <c r="F21" s="28" t="n">
+      <c r="F21" s="27" t="n">
         <f aca="false">D21*2.2457</f>
         <v>22.457</v>
       </c>
-      <c r="G21" s="28" t="n">
+      <c r="G21" s="27" t="n">
         <f aca="false">F21*0.6</f>
         <v>13.4742</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28" t="n">
+      <c r="A22" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="28" t="n">
+      <c r="C22" s="27" t="n">
         <v>221</v>
       </c>
-      <c r="D22" s="28" t="n">
+      <c r="D22" s="27" t="n">
         <v>13</v>
       </c>
       <c r="E22" s="0"/>
-      <c r="F22" s="28" t="n">
+      <c r="F22" s="27" t="n">
         <f aca="false">D22*2.2457</f>
         <v>29.1941</v>
       </c>
-      <c r="G22" s="28" t="n">
+      <c r="G22" s="27" t="n">
         <f aca="false">F22*0.6</f>
         <v>17.51646</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="n">
+      <c r="A23" s="27" t="n">
         <v>2018</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="28" t="n">
+      <c r="C23" s="27" t="n">
         <v>368</v>
       </c>
-      <c r="D23" s="28" t="n">
+      <c r="D23" s="27" t="n">
         <v>375</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="27" t="n">
         <v>0.44133636708</v>
       </c>
-      <c r="F23" s="28" t="n">
+      <c r="F23" s="27" t="n">
         <f aca="false">D23*2.2457</f>
         <v>842.1375</v>
       </c>
-      <c r="G23" s="28" t="n">
+      <c r="G23" s="27" t="n">
         <f aca="false">F23*0.6</f>
         <v>505.2825</v>
       </c>
@@ -14389,23 +14621,23 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M48" activeCellId="0" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>71</v>
@@ -14420,7 +14652,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14428,7 +14660,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>93</v>
@@ -14449,7 +14681,7 @@
         <v>2018</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>122</v>
@@ -14470,7 +14702,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>145</v>
@@ -14491,7 +14723,7 @@
         <v>2018</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>190</v>
@@ -14509,7 +14741,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14633,12 +14865,12 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>71</v>
@@ -14653,7 +14885,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14661,7 +14893,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>50</v>
@@ -14679,7 +14911,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>90</v>
@@ -14697,7 +14929,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>100</v>
@@ -14715,7 +14947,7 @@
         <v>2017</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>110</v>
@@ -14733,7 +14965,7 @@
         <v>2017</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>132</v>
@@ -14751,7 +14983,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>150</v>
@@ -14769,7 +15001,7 @@
         <v>2017</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>355</v>
@@ -14784,7 +15016,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14978,7 +15210,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">AVERAGE(E26:E27)</f>
@@ -14987,7 +15219,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">AVERAGE(E3:E13,E26:E34)</f>
@@ -15011,23 +15243,675 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O43" activeCellId="0" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="29" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="28" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="12.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="28" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>188</v>
+      <c r="A1" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K3" s="29" t="n">
+        <v>2017</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="29"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" s="29" t="n">
+        <v>7.92246387321939</v>
+      </c>
+      <c r="O4" s="29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="29" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="N5" s="29" t="n">
+        <v>5.34547264882479</v>
+      </c>
+      <c r="O5" s="29" t="n">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="29" t="n">
+        <v>36.75</v>
+      </c>
+      <c r="N6" s="29" t="n">
+        <v>5.19272910911395</v>
+      </c>
+      <c r="O6" s="29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N7" s="29" t="n">
+        <v>3.11468485049633</v>
+      </c>
+      <c r="O7" s="29" t="n">
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K8" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="29" t="n">
+        <v>23</v>
+      </c>
+      <c r="N8" s="29" t="n">
+        <v>3.87231089521166</v>
+      </c>
+      <c r="O8" s="29" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="N9" s="29" t="n">
+        <v>0.78705506000237</v>
+      </c>
+      <c r="O9" s="29" t="n">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K10" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="29" t="n">
+        <v>32</v>
+      </c>
+      <c r="N10" s="29" t="n">
+        <v>2.01486095360607</v>
+      </c>
+      <c r="O10" s="29" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="29" t="n">
+        <v>26</v>
+      </c>
+      <c r="N11" s="29" t="n">
+        <v>1.63707452480493</v>
+      </c>
+      <c r="O11" s="29" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="29" t="n">
+        <v>34</v>
+      </c>
+      <c r="N12" s="29" t="n">
+        <v>2.14078976320645</v>
+      </c>
+      <c r="O12" s="29" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="29" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="N13" s="29" t="n">
+        <v>2.62876390040791</v>
+      </c>
+      <c r="O13" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="29" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="N14" s="29" t="n">
+        <v>2.12205443079987</v>
+      </c>
+      <c r="O14" s="29" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" s="29" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" s="29" t="n">
+        <v>4.11549950111472</v>
+      </c>
+      <c r="O15" s="29" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="29" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N16" s="29" t="n">
+        <v>8.17955525900485</v>
+      </c>
+      <c r="O16" s="29"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="29" t="n">
+        <v>17</v>
+      </c>
+      <c r="N17" s="29" t="n">
+        <v>5.83029096227096</v>
+      </c>
+      <c r="O17" s="29"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="N18" s="29" t="n">
+        <v>2.11630360602566</v>
+      </c>
+      <c r="O18" s="29" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K19" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="M19" s="29" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="N19" s="29" t="n">
+        <v>5.32442748060598</v>
+      </c>
+      <c r="O19" s="29"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="29" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N20" s="29" t="n">
+        <v>3.39891185055482</v>
+      </c>
+      <c r="O20" s="29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="29" t="n">
+        <f aca="false">AVERAGE(N4:N20)</f>
+        <v>3.86724992172181</v>
+      </c>
+      <c r="O21" s="29" t="n">
+        <f aca="false">AVERAGE(O4:O20)</f>
+        <v>6.39285714285714</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K22" s="29"/>
+      <c r="L22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29" t="n">
+        <f aca="false">AVERAGE(N4:N13)</f>
+        <v>3.46562055788939</v>
+      </c>
+      <c r="O22" s="29" t="n">
+        <f aca="false">AVERAGE(O4:O13)</f>
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="29"/>
+      <c r="L23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29" t="n">
+        <f aca="false">AVERAGE(N14:N20)</f>
+        <v>4.44100615576812</v>
+      </c>
+      <c r="O23" s="29" t="n">
+        <f aca="false">AVERAGE(O14:O20)</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="O24" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="29" t="n">
+        <v>2018</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="29"/>
+      <c r="P25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K27" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>181</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="AMJ28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="O29" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K30" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>530</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K31" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K32" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="M32" s="0"/>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AMJ32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AMJ34" s="0"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>375</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="0"/>
+      <c r="L36" s="0"/>
+      <c r="M36" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">AVERAGE(N26:N35)</f>
+        <v>11.1333333333333</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <f aca="false">AVERAGE(O26:O35)</f>
+        <v>10.71</v>
+      </c>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="0"/>
+      <c r="L37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0" t="n">
+        <f aca="false">AVERAGE(N26:N29)</f>
+        <v>9.2925</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <f aca="false">AVERAGE(O26:O29)</f>
+        <v>21.75</v>
+      </c>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="0"/>
+      <c r="L38" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0" t="n">
+        <f aca="false">AVERAGE(N30:N35)</f>
+        <v>12.606</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <f aca="false">AVERAGE(O30:O35)</f>
+        <v>3.35</v>
+      </c>
+      <c r="AMJ38" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="M40" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" s="28" t="n">
+        <f aca="false">AVERAGE(N4:N20,N26:N35)</f>
+        <v>6.3824326411258</v>
+      </c>
+      <c r="O40" s="28" t="n">
+        <f aca="false">AVERAGE(O4:O20,O26:O35)</f>
+        <v>8.19166666666667</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L41" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="28" t="n">
+        <f aca="false">AVERAGE(N14:N20,N26:N29)</f>
+        <v>6.20518573548881</v>
+      </c>
+      <c r="O41" s="28" t="n">
+        <f aca="false">AVERAGE(O14:O20,O26:O29)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L42" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" s="28" t="n">
+        <f aca="false">AVERAGE(N4:N13,N30:N35)</f>
+        <v>6.51241370525959</v>
+      </c>
+      <c r="O42" s="28" t="n">
+        <f aca="false">AVERAGE(O4:O13,O30:O35)</f>
+        <v>5.0375</v>
       </c>
     </row>
   </sheetData>
@@ -15054,45 +15938,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="10.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="12.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="10.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="8.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -15100,10 +15984,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>50</v>
@@ -15138,10 +16022,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>90</v>
@@ -15176,10 +16060,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>100</v>
@@ -15206,10 +16090,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>110</v>
@@ -15232,10 +16116,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>132</v>
@@ -15270,10 +16154,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>150</v>
@@ -15300,10 +16184,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>355</v>
@@ -15341,7 +16225,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>100</v>
@@ -15379,7 +16263,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>100</v>
@@ -15417,7 +16301,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>113</v>
@@ -15455,7 +16339,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>120</v>
@@ -15493,7 +16377,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>120</v>
@@ -15531,7 +16415,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>140</v>
@@ -15565,7 +16449,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>150</v>
@@ -15603,7 +16487,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>150</v>
@@ -15641,7 +16525,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>179</v>
@@ -15679,7 +16563,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>180</v>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="201">
   <si>
     <t xml:space="preserve">P2 +Particles</t>
   </si>
@@ -230,6 +230,36 @@
   </si>
   <si>
     <t xml:space="preserve">Keil 2-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 +Particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ug C (from Google Drive final ss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">umol C/M2/day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2_50m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7_90m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5_100m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6_110m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-6_132m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-5_150m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-7_355m</t>
   </si>
   <si>
     <t xml:space="preserve">Variability (MED 2021)</t>
@@ -320,27 +350,6 @@
   </si>
   <si>
     <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-2_50m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-7_90m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-5_100m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6_110m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-6_132m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-5_150m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-7_355m</t>
   </si>
   <si>
     <t xml:space="preserve">Average</t>
@@ -1066,7 +1075,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1237,11 +1246,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="12846002"/>
-        <c:axId val="50995849"/>
+        <c:axId val="29945789"/>
+        <c:axId val="46551912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="12846002"/>
+        <c:axId val="29945789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,13 +1316,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50995849"/>
+        <c:crossAx val="46551912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50995849"/>
+        <c:axId val="46551912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1346,7 +1355,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12846002"/>
+        <c:crossAx val="29945789"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1373,7 +1382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart118.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1540,11 +1549,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25453057"/>
-        <c:axId val="19601716"/>
+        <c:axId val="7253022"/>
+        <c:axId val="86235472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25453057"/>
+        <c:axId val="7253022"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1611,13 +1620,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19601716"/>
+        <c:crossAx val="86235472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19601716"/>
+        <c:axId val="86235472"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1650,7 +1659,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25453057"/>
+        <c:crossAx val="7253022"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1677,7 +1686,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart119.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1844,11 +1853,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85351633"/>
-        <c:axId val="91909691"/>
+        <c:axId val="57755841"/>
+        <c:axId val="16720403"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85351633"/>
+        <c:axId val="57755841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1916,12 +1925,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="91909691"/>
+        <c:crossAx val="16720403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91909691"/>
+        <c:axId val="16720403"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1988,7 +1997,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85351633"/>
+        <c:crossAx val="57755841"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2015,7 +2024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart120.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2103,7 +2112,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.92246387321939</c:v>
+                  <c:v>7.92246387321938</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.34547264882479</c:v>
@@ -2243,7 +2252,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.92246387321939</c:v>
+                  <c:v>7.92246387321938</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.34547264882479</c:v>
@@ -2316,11 +2325,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79693329"/>
-        <c:axId val="31983575"/>
+        <c:axId val="31068688"/>
+        <c:axId val="21719439"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79693329"/>
+        <c:axId val="31068688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2359,7 +2368,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.170277943813509"/>
-              <c:y val="0.00526240933010952"/>
+              <c:y val="0.00533352296970559"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2396,13 +2405,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31983575"/>
+        <c:crossAx val="21719439"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31983575"/>
+        <c:axId val="21719439"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2469,7 +2478,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79693329"/>
+        <c:crossAx val="31068688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2496,7 +2505,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2663,11 +2672,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="93738130"/>
-        <c:axId val="13740207"/>
+        <c:axId val="86328198"/>
+        <c:axId val="69781040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93738130"/>
+        <c:axId val="86328198"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2735,12 +2744,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13740207"/>
+        <c:crossAx val="69781040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13740207"/>
+        <c:axId val="69781040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2807,7 +2816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93738130"/>
+        <c:crossAx val="86328198"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2834,7 +2843,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2990,11 +2999,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86425506"/>
-        <c:axId val="12464324"/>
+        <c:axId val="40717422"/>
+        <c:axId val="4436703"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86425506"/>
+        <c:axId val="40717422"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3026,13 +3035,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12464324"/>
+        <c:crossAx val="4436703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12464324"/>
+        <c:axId val="4436703"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3065,7 +3074,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86425506"/>
+        <c:crossAx val="40717422"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3093,7 +3102,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3406,11 +3415,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34179159"/>
-        <c:axId val="13459332"/>
+        <c:axId val="96217218"/>
+        <c:axId val="61252130"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34179159"/>
+        <c:axId val="96217218"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3443,13 +3452,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13459332"/>
+        <c:crossAx val="61252130"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13459332"/>
+        <c:axId val="61252130"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3482,7 +3491,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34179159"/>
+        <c:crossAx val="96217218"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3510,7 +3519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3598,7 +3607,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.92246387321939</c:v>
+                  <c:v>7.92246387321938</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.34547264882479</c:v>
@@ -3671,11 +3680,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="50471981"/>
-        <c:axId val="14791657"/>
+        <c:axId val="2900974"/>
+        <c:axId val="20471881"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50471981"/>
+        <c:axId val="2900974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3709,13 +3718,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14791657"/>
+        <c:crossAx val="20471881"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="14791657"/>
+        <c:axId val="20471881"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3748,7 +3757,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50471981"/>
+        <c:crossAx val="2900974"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3775,7 +3784,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3942,11 +3951,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="10357109"/>
-        <c:axId val="4524637"/>
+        <c:axId val="30601671"/>
+        <c:axId val="37286723"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="10357109"/>
+        <c:axId val="30601671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4014,13 +4023,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4524637"/>
+        <c:crossAx val="37286723"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4524637"/>
+        <c:axId val="37286723"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4087,7 +4096,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10357109"/>
+        <c:crossAx val="30601671"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4114,7 +4123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4274,7 +4283,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.92246387321939</c:v>
+                  <c:v>7.92246387321938</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.34547264882479</c:v>
@@ -4347,11 +4356,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47430522"/>
-        <c:axId val="62694097"/>
+        <c:axId val="61038267"/>
+        <c:axId val="46880951"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47430522"/>
+        <c:axId val="61038267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4385,13 +4394,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62694097"/>
+        <c:crossAx val="46880951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62694097"/>
+        <c:axId val="46880951"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4424,7 +4433,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47430522"/>
+        <c:crossAx val="61038267"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4451,7 +4460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4610,11 +4619,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="41371429"/>
-        <c:axId val="35148877"/>
+        <c:axId val="23013407"/>
+        <c:axId val="74767458"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="41371429"/>
+        <c:axId val="23013407"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4689,13 +4698,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35148877"/>
+        <c:crossAx val="74767458"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35148877"/>
+        <c:axId val="74767458"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4728,7 +4737,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41371429"/>
+        <c:crossAx val="23013407"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4755,7 +4764,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4926,11 +4935,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="54812781"/>
-        <c:axId val="61982444"/>
+        <c:axId val="7452326"/>
+        <c:axId val="64146388"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54812781"/>
+        <c:axId val="7452326"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4996,13 +5005,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61982444"/>
+        <c:crossAx val="64146388"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61982444"/>
+        <c:axId val="64146388"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5035,7 +5044,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54812781"/>
+        <c:crossAx val="7452326"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5062,7 +5071,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5229,11 +5238,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="21642496"/>
-        <c:axId val="60619354"/>
+        <c:axId val="96429784"/>
+        <c:axId val="25192437"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="21642496"/>
+        <c:axId val="96429784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5300,13 +5309,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60619354"/>
+        <c:crossAx val="25192437"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60619354"/>
+        <c:axId val="25192437"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -5339,7 +5348,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21642496"/>
+        <c:crossAx val="96429784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5366,7 +5375,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5533,11 +5542,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34077377"/>
-        <c:axId val="6000457"/>
+        <c:axId val="20680081"/>
+        <c:axId val="61653272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34077377"/>
+        <c:axId val="20680081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5605,12 +5614,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6000457"/>
+        <c:crossAx val="61653272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="6000457"/>
+        <c:axId val="61653272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5677,7 +5686,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34077377"/>
+        <c:crossAx val="20680081"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5704,7 +5713,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5871,11 +5880,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52603855"/>
-        <c:axId val="62857189"/>
+        <c:axId val="46193895"/>
+        <c:axId val="29383154"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52603855"/>
+        <c:axId val="46193895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -5943,12 +5952,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62857189"/>
+        <c:crossAx val="29383154"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62857189"/>
+        <c:axId val="29383154"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6015,7 +6024,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52603855"/>
+        <c:crossAx val="46193895"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6042,7 +6051,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6198,11 +6207,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="25047396"/>
-        <c:axId val="85844272"/>
+        <c:axId val="11819657"/>
+        <c:axId val="57343140"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="25047396"/>
+        <c:axId val="11819657"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6234,13 +6243,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85844272"/>
+        <c:crossAx val="57343140"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85844272"/>
+        <c:axId val="57343140"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6273,7 +6282,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25047396"/>
+        <c:crossAx val="11819657"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -6301,7 +6310,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6614,11 +6623,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28954439"/>
-        <c:axId val="84077300"/>
+        <c:axId val="16658294"/>
+        <c:axId val="59529950"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28954439"/>
+        <c:axId val="16658294"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6651,13 +6660,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84077300"/>
+        <c:crossAx val="59529950"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84077300"/>
+        <c:axId val="59529950"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6690,7 +6699,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28954439"/>
+        <c:crossAx val="16658294"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6718,7 +6727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6885,11 +6894,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="28175042"/>
-        <c:axId val="19136483"/>
+        <c:axId val="44147987"/>
+        <c:axId val="10327543"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="28175042"/>
+        <c:axId val="44147987"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6957,13 +6966,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19136483"/>
+        <c:crossAx val="10327543"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="19136483"/>
+        <c:axId val="10327543"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -7030,7 +7039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28175042"/>
+        <c:crossAx val="44147987"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7057,7 +7066,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart135.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7185,11 +7194,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="22081620"/>
-        <c:axId val="37171489"/>
+        <c:axId val="17377496"/>
+        <c:axId val="36084150"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="22081620"/>
+        <c:axId val="17377496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7245,12 +7254,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37171489"/>
+        <c:crossAx val="36084150"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37171489"/>
+        <c:axId val="36084150"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7306,7 +7315,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="22081620"/>
+        <c:crossAx val="17377496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7333,7 +7342,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart136.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7475,11 +7484,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="13406385"/>
-        <c:axId val="75449380"/>
+        <c:axId val="16668324"/>
+        <c:axId val="96886109"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="13406385"/>
+        <c:axId val="16668324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7535,12 +7544,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75449380"/>
+        <c:crossAx val="96886109"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75449380"/>
+        <c:axId val="96886109"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -7597,7 +7606,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13406385"/>
+        <c:crossAx val="16668324"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7624,7 +7633,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7847,11 +7856,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67957680"/>
-        <c:axId val="23313907"/>
+        <c:axId val="69946572"/>
+        <c:axId val="20473058"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67957680"/>
+        <c:axId val="69946572"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7907,12 +7916,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23313907"/>
+        <c:crossAx val="20473058"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="23313907"/>
+        <c:axId val="20473058"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7968,7 +7977,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67957680"/>
+        <c:crossAx val="69946572"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7995,7 +8004,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8200,11 +8209,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="63765672"/>
-        <c:axId val="55990380"/>
+        <c:axId val="96359597"/>
+        <c:axId val="31500163"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="63765672"/>
+        <c:axId val="96359597"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8260,12 +8269,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55990380"/>
+        <c:crossAx val="31500163"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55990380"/>
+        <c:axId val="31500163"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8322,7 +8331,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63765672"/>
+        <c:crossAx val="96359597"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8349,7 +8358,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8509,11 +8518,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="3942282"/>
-        <c:axId val="97574236"/>
+        <c:axId val="27769924"/>
+        <c:axId val="30594039"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3942282"/>
+        <c:axId val="27769924"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8569,12 +8578,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97574236"/>
+        <c:crossAx val="30594039"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97574236"/>
+        <c:axId val="30594039"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8631,7 +8640,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3942282"/>
+        <c:crossAx val="27769924"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8664,14 +8673,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>606960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>766080</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8679,7 +8688,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1626480" y="6319800"/>
+        <a:off x="1626480" y="7784640"/>
         <a:ext cx="4461840" cy="4746960"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8694,14 +8703,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>831960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>970920</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8709,7 +8718,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5250240" y="6214320"/>
+        <a:off x="5250240" y="7679160"/>
         <a:ext cx="4886640" cy="4772520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8724,14 +8733,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>103680</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1672200</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8739,7 +8748,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10478880" y="6214320"/>
+        <a:off x="10478880" y="7679160"/>
         <a:ext cx="5473080" cy="4862880"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8754,14 +8763,14 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>413280</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>132120</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8769,7 +8778,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44038800" y="3603600"/>
+        <a:off x="44038800" y="5068440"/>
         <a:ext cx="4817880" cy="5061960"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8784,13 +8793,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>576720</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8799,7 +8808,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15659640" y="6171840"/>
+        <a:off x="15659640" y="7636680"/>
         <a:ext cx="5757480" cy="3237480"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8814,13 +8823,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8640</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>432720</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8829,7 +8838,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1943280" y="9027720"/>
+        <a:off x="1943280" y="10492920"/>
         <a:ext cx="6326280" cy="5458320"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8844,13 +8853,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>972720</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>646560</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8859,7 +8868,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7286400" y="9218160"/>
+        <a:off x="7286400" y="10683360"/>
         <a:ext cx="6522120" cy="5267520"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8874,14 +8883,14 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>720000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>574560</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8889,7 +8898,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43325640" y="3073320"/>
+        <a:off x="43325640" y="4538520"/>
         <a:ext cx="5973480" cy="5199120"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8904,14 +8913,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1013760</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8919,7 +8928,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14279760" y="9218160"/>
+        <a:off x="14279760" y="10683360"/>
         <a:ext cx="5387760" cy="4749840"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8934,13 +8943,13 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>177840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>690120</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -8949,7 +8958,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49745520" y="2869560"/>
+        <a:off x="49745520" y="4334400"/>
         <a:ext cx="5788080" cy="5101920"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8970,13 +8979,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>787320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>136440</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9005,13 +9014,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>660960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>441720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9035,13 +9044,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>832680</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>631800</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9065,13 +9074,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>104040</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1672560</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9095,13 +9104,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>1379880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>576720</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9125,13 +9134,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>8280</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>633600</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9155,13 +9164,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>972360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9185,13 +9194,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1013760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9378,37 +9387,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BM55"/>
+  <dimension ref="A1:BM62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R20" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V21" activeCellId="0" sqref="V21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="31" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="18.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="31" style="0" width="13.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9648,7 +9657,7 @@
       </c>
       <c r="AC3" s="0" t="n">
         <f aca="false">AB3*U4</f>
-        <v>7.92246387321939</v>
+        <v>7.92246387321938</v>
       </c>
       <c r="AD3" s="4" t="n">
         <v>2</v>
@@ -10769,744 +10778,966 @@
       </c>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="U15" s="6"/>
       <c r="AC15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="n">
+        <v>329.4669187</v>
+      </c>
       <c r="U16" s="6"/>
       <c r="AC16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="n">
+        <v>138.6313391</v>
       </c>
       <c r="U17" s="6"/>
-      <c r="AA17" s="8"/>
+      <c r="AC17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="n">
+        <v>125.9362067</v>
+      </c>
       <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="8"/>
-    </row>
-    <row r="19" s="10" customFormat="true" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="n">
+        <v>173.3023223</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>132</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="n">
+        <v>300.2128707</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="n">
+        <v>125.9362067</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>45.62906039</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <f aca="false">N21/1000</f>
+        <v>0.04562906039</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <f aca="false">(H21/1000)/F21</f>
+        <v>0.209893677833333</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <f aca="false">(N21*12)/($AE$2*1000)</f>
+        <v>0.0647862994850381</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <f aca="false">AA21/S21</f>
+        <v>82.1844668122754</v>
+      </c>
+      <c r="AC21" s="7" t="n">
+        <f aca="false">AB21*U21</f>
+        <v>5.32442747991825</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>355</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1127.775891</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U23" s="6"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="AA24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="8"/>
+    </row>
+    <row r="26" s="10" customFormat="true" ht="48.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
-      <c r="AB19" s="0"/>
-      <c r="AC19" s="0"/>
-      <c r="AD19" s="0"/>
-      <c r="AG19" s="11"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="13" t="n">
+      <c r="E26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" s="6"/>
+      <c r="W26" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
+      <c r="AG26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="13" t="n">
         <v>42744</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C27" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="14" t="n">
+      <c r="D27" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F27" s="12" t="n">
         <v>12</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G27" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="H20" s="15" t="n">
+      <c r="H27" s="15" t="n">
         <v>37.576</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I27" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="J20" s="15" t="n">
+      <c r="J27" s="15" t="n">
         <v>6.99040929989946</v>
       </c>
-      <c r="Y20" s="6"/>
-      <c r="AF20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="17" t="n">
+      <c r="Y27" s="6"/>
+      <c r="AF27" s="7"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="17" t="n">
         <v>42746</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D28" s="18" t="n">
         <v>100</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F28" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="G21" s="16" t="n">
+      <c r="G28" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="H21" s="19" t="n">
+      <c r="H28" s="19" t="n">
         <v>115.678</v>
       </c>
-      <c r="I21" s="16" t="n">
+      <c r="I28" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J28" s="19" t="n">
         <v>4.88247895483209</v>
       </c>
-      <c r="X21" s="0" t="s">
+      <c r="X28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y21" s="0" t="s">
+      <c r="Y28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Z21" s="0" t="s">
+      <c r="Z28" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AE21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="13" t="n">
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="13" t="n">
         <v>42748</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="14" t="n">
+      <c r="D29" s="14" t="n">
         <v>119</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F29" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G29" s="12" t="n">
         <v>27</v>
       </c>
-      <c r="H22" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I22" s="12" t="n">
+      <c r="H29" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" s="12" t="n">
         <v>21</v>
       </c>
-      <c r="J22" s="15" t="n">
+      <c r="J29" s="15" t="n">
         <v>3.53558820867151</v>
       </c>
-      <c r="X22" s="0" t="s">
+      <c r="X29" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Y22" s="0" t="s">
+      <c r="Y29" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="AB22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="17" t="n">
+      <c r="AB29" s="7"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="17" t="n">
         <v>42746</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C30" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D30" s="18" t="n">
         <v>120</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="16" t="n">
+      <c r="F30" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="G23" s="16" t="n">
+      <c r="G30" s="16" t="n">
         <v>23</v>
       </c>
-      <c r="H23" s="19" t="n">
+      <c r="H30" s="19" t="n">
         <v>165.795</v>
       </c>
-      <c r="I23" s="16" t="n">
+      <c r="I30" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="J30" s="19" t="n">
         <v>2.69378149232115</v>
       </c>
-      <c r="V23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="X23" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>7.92246387321939</v>
-      </c>
-      <c r="Z23" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="13" t="n">
-        <v>42744</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>150</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G24" s="12" t="n">
-        <v>24</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="J24" s="15" t="n">
-        <v>1.88893214400569</v>
-      </c>
-      <c r="V24" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W24" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="0" t="n">
-        <v>31.75</v>
-      </c>
-      <c r="Y24" s="0" t="n">
-        <v>5.34547264882479</v>
-      </c>
-      <c r="Z24" s="0" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AB24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="17" t="n">
-        <v>42746</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="18" t="n">
-        <v>150</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G25" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="H25" s="19" t="n">
-        <v>22.801</v>
-      </c>
-      <c r="I25" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="J25" s="19" t="n">
-        <v>1.51114571520455</v>
-      </c>
-      <c r="V25" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W25" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="X25" s="0" t="n">
-        <v>36.75</v>
-      </c>
-      <c r="Y25" s="0" t="n">
-        <v>5.19272910911395</v>
-      </c>
-      <c r="Z25" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="13" t="n">
-        <v>42744</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="14" t="n">
-        <v>179</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="12" t="n">
-        <v>12</v>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" s="12" t="n">
-        <v>31</v>
-      </c>
-      <c r="J26" s="15" t="n">
-        <v>1.95189654880588</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="X26" s="0" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y26" s="0" t="n">
-        <v>3.11468485049633</v>
-      </c>
-      <c r="Z26" s="0" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="AB26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="17" t="n">
-        <v>42746</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="18" t="n">
-        <v>180</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="G27" s="16" t="n">
-        <v>24</v>
-      </c>
-      <c r="H27" s="19" t="n">
-        <v>86.974</v>
-      </c>
-      <c r="I27" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" s="19" t="n">
-        <v>2.45561178720739</v>
-      </c>
-      <c r="V27" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W27" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="X27" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y27" s="0" t="n">
-        <v>3.87231089521166</v>
-      </c>
-      <c r="Z27" s="0" t="n">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V28" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="X28" s="0" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y28" s="0" t="n">
-        <v>0.78705506000237</v>
-      </c>
-      <c r="Z28" s="0" t="n">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V29" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="W29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="X29" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y29" s="0" t="n">
-        <v>2.01486095360607</v>
-      </c>
-      <c r="Z29" s="0" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V30" s="0" t="s">
         <v>43</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y30" s="0" t="n">
-        <v>1.63707452480493</v>
+        <v>7.92246387321939</v>
       </c>
       <c r="Z30" s="0" t="n">
-        <v>3.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="13" t="n">
+        <v>42744</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>150</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="J31" s="15" t="n">
+        <v>1.88893214400569</v>
+      </c>
       <c r="V31" s="0" t="s">
         <v>43</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>34</v>
+        <v>31.75</v>
       </c>
       <c r="Y31" s="0" t="n">
-        <v>2.14078976320645</v>
+        <v>5.34547264882479</v>
       </c>
       <c r="Z31" s="0" t="n">
-        <v>5.5</v>
-      </c>
+        <v>3.25</v>
+      </c>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="18" t="n">
+        <v>150</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G32" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="H32" s="19" t="n">
+        <v>22.801</v>
+      </c>
+      <c r="I32" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="J32" s="19" t="n">
+        <v>1.51114571520455</v>
+      </c>
       <c r="V32" s="0" t="s">
         <v>43</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>41.75</v>
+        <v>36.75</v>
       </c>
       <c r="Y32" s="0" t="n">
-        <v>2.62876390040791</v>
+        <v>5.19272910911395</v>
       </c>
       <c r="Z32" s="0" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AB32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="13" t="n">
+        <v>42744</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="14" t="n">
+        <v>179</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G33" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" s="12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J33" s="15" t="n">
+        <v>1.95189654880588</v>
+      </c>
       <c r="V33" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>13.75</v>
+        <v>18.5</v>
       </c>
       <c r="Y33" s="0" t="n">
-        <v>2.12205443079987</v>
+        <v>3.11468485049633</v>
       </c>
       <c r="Z33" s="0" t="n">
-        <v>7.25</v>
-      </c>
+        <v>12.25</v>
+      </c>
+      <c r="AB33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="17" t="n">
+        <v>42746</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="18" t="n">
+        <v>180</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G34" s="16" t="n">
+        <v>24</v>
+      </c>
+      <c r="H34" s="19" t="n">
+        <v>86.974</v>
+      </c>
+      <c r="I34" s="16" t="n">
+        <v>39</v>
+      </c>
+      <c r="J34" s="19" t="n">
+        <v>2.45561178720739</v>
+      </c>
       <c r="V34" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>54</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Y34" s="0" t="n">
-        <v>4.11549950111472</v>
+        <v>3.87231089521166</v>
       </c>
       <c r="Z34" s="0" t="n">
-        <v>1.25</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V35" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>90</v>
+        <v>43</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>26.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" s="0" t="n">
-        <v>8.17955525900485</v>
+        <v>0.78705506000237</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V36" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>91</v>
+        <v>43</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y36" s="0" t="n">
-        <v>5.83029096227096</v>
+        <v>2.01486095360607</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V37" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>92</v>
+        <v>43</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y37" s="0" t="n">
-        <v>2.11630360602566</v>
+        <v>1.63707452480493</v>
       </c>
       <c r="Z37" s="0" t="n">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V38" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>93</v>
+        <v>43</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>17.25</v>
+        <v>34</v>
       </c>
       <c r="Y38" s="0" t="n">
-        <v>5.32442748060598</v>
+        <v>2.14078976320645</v>
+      </c>
+      <c r="Z38" s="0" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="V39" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>66</v>
       </c>
       <c r="X39" s="0" t="n">
+        <v>41.75</v>
+      </c>
+      <c r="Y39" s="0" t="n">
+        <v>2.62876390040791</v>
+      </c>
+      <c r="Z39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="X40" s="0" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>2.12205443079987</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>4.11549950111472</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V42" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X42" s="0" t="n">
         <v>26.5</v>
       </c>
-      <c r="Y39" s="0" t="n">
+      <c r="Y42" s="0" t="n">
+        <v>8.17955525900485</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>5.83029096227096</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>2.11630360602566</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V45" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <v>5.32442748060598</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V46" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Y46" s="0" t="n">
         <v>3.39891185055482</v>
       </c>
-      <c r="Z39" s="0" t="n">
+      <c r="Z46" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="X40" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y40" s="0" t="n">
-        <f aca="false">AVERAGE(Y23:Y39)</f>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="X47" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <f aca="false">AVERAGE(Y30:Y46)</f>
         <v>3.86724992172181</v>
       </c>
-      <c r="Z40" s="0" t="n">
-        <f aca="false">AVERAGE(Z23:Z39)</f>
+      <c r="Z47" s="0" t="n">
+        <f aca="false">AVERAGE(Z30:Z46)</f>
         <v>6.39285714285714</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W41" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y41" s="0" t="n">
-        <f aca="false">AVERAGE(Y23:Y32)</f>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W48" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y48" s="0" t="n">
+        <f aca="false">AVERAGE(Y30:Y39)</f>
         <v>3.46562055788939</v>
       </c>
-      <c r="Z41" s="0" t="n">
-        <f aca="false">AVERAGE(Z23:Z32)</f>
+      <c r="Z48" s="0" t="n">
+        <f aca="false">AVERAGE(Z30:Z39)</f>
         <v>6.05</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="W42" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y42" s="0" t="n">
-        <f aca="false">AVERAGE(Y33:Y39)</f>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="W49" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="0" t="n">
+        <f aca="false">AVERAGE(Y40:Y46)</f>
         <v>4.44100615576812</v>
       </c>
-      <c r="Z42" s="0" t="n">
-        <f aca="false">AVERAGE(Z33:Z39)</f>
+      <c r="Z49" s="0" t="n">
+        <f aca="false">AVERAGE(Z40:Z46)</f>
         <v>7.25</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S49" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="X49" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S50" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="X50" s="0" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S56" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="X56" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S57" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="X57" s="0" t="n">
         <f aca="false">PI()*(21/2)^2</f>
         <v>346.360590058275</v>
       </c>
-      <c r="Y50" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S51" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="T51" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="X51" s="0" t="n">
+      <c r="Y57" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="T58" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="X58" s="0" t="n">
         <f aca="false">(PI()*(38.1/2)^2)</f>
         <v>1140.09182796937</v>
       </c>
-      <c r="Y51" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z51" s="0" t="s">
+      <c r="Y58" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S52" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="T52" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z52" s="0" t="n">
-        <f aca="false">X50*(1-0.064)</f>
+      <c r="Z58" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S59" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="T59" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z59" s="0" t="n">
+        <f aca="false">X57*(1-0.064)</f>
         <v>324.193512294545</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="V53" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="X53" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y53" s="0" t="n">
-        <f aca="false">X51/Z52</f>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="V60" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="X60" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y60" s="0" t="n">
+        <f aca="false">X58/Z59</f>
         <v>3.51670155241584</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S54" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="T54" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="U54" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="X54" s="0" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S61" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="S55" s="0" t="s">
+      <c r="T61" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="T55" s="0" t="s">
+      <c r="U61" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="U55" s="0" t="s">
-        <v>111</v>
+      <c r="X61" s="0" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S62" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="T62" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="U62" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -11528,25 +11759,25 @@
   </sheetPr>
   <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="19" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="21.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="19" style="0" width="13.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>6</v>
@@ -11579,7 +11810,7 @@
         <v>7</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="R1" s="0" t="s">
         <v>7</v>
@@ -11632,27 +11863,27 @@
         <v>27</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>18</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>40</v>
@@ -11690,13 +11921,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>74</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -11705,7 +11936,7 @@
         <v>0.46</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>1.6</v>
@@ -11739,13 +11970,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -11783,13 +12014,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -11827,13 +12058,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>110</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -11871,13 +12102,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>120</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>40</v>
@@ -11930,13 +12161,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>132</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>53</v>
@@ -11976,13 +12207,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>40</v>
@@ -12022,13 +12253,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>53</v>
@@ -12081,13 +12312,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>355</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>53</v>
@@ -12140,13 +12371,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>700</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>53</v>
@@ -12202,14 +12433,14 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -12220,91 +12451,91 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L17" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O17" s="0" t="n">
         <f aca="false">((0.6*67)+(18*6.5))/18.6</f>
         <v>8.45161290322581</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="R18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="T18" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>50</v>
@@ -12370,15 +12601,15 @@
         <v>7.25</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>90</v>
@@ -12443,15 +12674,15 @@
         <v>1.25</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>100</v>
@@ -12506,15 +12737,15 @@
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>110</v>
@@ -12565,15 +12796,15 @@
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>132</v>
@@ -12638,15 +12869,15 @@
         <v>11.5</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>150</v>
@@ -12701,15 +12932,15 @@
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>355</v>
@@ -12774,7 +13005,7 @@
         <v>9</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12783,7 +13014,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -12797,15 +13028,15 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -12827,28 +13058,28 @@
   </sheetPr>
   <dimension ref="A1:AS29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W16" activeCellId="0" sqref="W16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA4" activeCellId="0" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="15.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="31.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="0" width="10.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="30" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="28.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="18.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="30" style="0" width="13.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12987,7 +13218,7 @@
         <v>36</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="AD2" s="0" t="n">
         <f aca="false">((0.6*67)+(18*6.5))/18.6</f>
@@ -12999,22 +13230,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="0" t="s">
@@ -13023,25 +13254,25 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="N3" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="U3" s="6"/>
       <c r="AD3" s="0" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>93</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>40</v>
@@ -13078,7 +13309,7 @@
         <v>2018</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>93</v>
@@ -13101,18 +13332,18 @@
         <v>28</v>
       </c>
       <c r="AF4" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>122</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>40</v>
@@ -13150,7 +13381,7 @@
         <v>2018</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>122</v>
@@ -13173,18 +13404,18 @@
         <v>20</v>
       </c>
       <c r="AF5" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>145</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>40</v>
@@ -13222,7 +13453,7 @@
         <v>2018</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>145</v>
@@ -13245,18 +13476,18 @@
         <v>28</v>
       </c>
       <c r="AF6" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>190</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>40</v>
@@ -13294,7 +13525,7 @@
         <v>2018</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>190</v>
@@ -13317,7 +13548,7 @@
         <v>20</v>
       </c>
       <c r="AF7" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS7" s="5" t="s">
         <v>49</v>
@@ -13331,7 +13562,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
@@ -13392,7 +13623,7 @@
         <v>21</v>
       </c>
       <c r="AF8" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AS8" s="5" t="s">
         <v>52</v>
@@ -13406,7 +13637,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>40</v>
@@ -13467,7 +13698,7 @@
         <v>35</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>55</v>
@@ -13481,7 +13712,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -13510,7 +13741,7 @@
         <v>0.201890863996947</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>2018</v>
@@ -13529,7 +13760,7 @@
         <v>15</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AS10" s="5" t="s">
         <v>58</v>
@@ -13543,7 +13774,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>40</v>
@@ -13604,7 +13835,7 @@
         <v>15</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>60</v>
@@ -13618,7 +13849,7 @@
         <v>221</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>40</v>
@@ -13679,7 +13910,7 @@
         <v>35</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13690,7 +13921,7 @@
         <v>368</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>53</v>
@@ -13751,37 +13982,37 @@
         <v>50</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X15" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W16" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Y16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W17" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>93</v>
@@ -13798,10 +14029,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W18" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>122</v>
@@ -13818,10 +14049,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W19" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>145</v>
@@ -13838,10 +14069,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="W20" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>190</v>
@@ -13861,7 +14092,7 @@
         <v>43</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>85</v>
@@ -13881,7 +14112,7 @@
         <v>43</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>87</v>
@@ -13901,13 +14132,13 @@
         <v>43</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>121</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>4.2</v>
@@ -13918,7 +14149,7 @@
         <v>43</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>150</v>
@@ -13938,7 +14169,7 @@
         <v>43</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>221</v>
@@ -13958,7 +14189,7 @@
         <v>43</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>368</v>
@@ -13975,7 +14206,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Z27" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">AVERAGE(AA17:AA26)</f>
@@ -13988,7 +14219,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y28" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA28" s="0" t="n">
         <f aca="false">AVERAGE(AA17:AA20)</f>
@@ -14001,7 +14232,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y29" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AA29" s="0" t="n">
         <f aca="false">AVERAGE(AA21:AA26)</f>
@@ -14035,32 +14266,32 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="27" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="27" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14362,7 +14593,7 @@
         <v>2018</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C14" s="27" t="n">
         <v>93</v>
@@ -14387,7 +14618,7 @@
         <v>2018</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C15" s="27" t="n">
         <v>122</v>
@@ -14412,7 +14643,7 @@
         <v>2018</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C16" s="27" t="n">
         <v>145</v>
@@ -14437,7 +14668,7 @@
         <v>2018</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C17" s="27" t="n">
         <v>190</v>
@@ -14621,26 +14852,26 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M48" activeCellId="0" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>18</v>
@@ -14652,7 +14883,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14660,7 +14891,7 @@
         <v>2018</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>93</v>
@@ -14681,7 +14912,7 @@
         <v>2018</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>122</v>
@@ -14702,7 +14933,7 @@
         <v>2018</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>145</v>
@@ -14723,7 +14954,7 @@
         <v>2018</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>190</v>
@@ -14741,7 +14972,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14865,15 +15096,15 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>18</v>
@@ -14885,7 +15116,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14893,7 +15124,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>50</v>
@@ -14911,7 +15142,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>90</v>
@@ -14929,7 +15160,7 @@
         <v>2017</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>100</v>
@@ -14947,7 +15178,7 @@
         <v>2017</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>110</v>
@@ -14965,7 +15196,7 @@
         <v>2017</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>132</v>
@@ -14983,7 +15214,7 @@
         <v>2017</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>150</v>
@@ -15001,7 +15232,7 @@
         <v>2017</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>355</v>
@@ -15016,7 +15247,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15210,7 +15441,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">AVERAGE(E26:E27)</f>
@@ -15219,7 +15450,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">AVERAGE(E3:E13,E26:E34)</f>
@@ -15245,26 +15476,26 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O43" activeCellId="0" sqref="O43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="28" width="8.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="12.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="28" width="8.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="28" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="15.2"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="28" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15465,10 +15696,10 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="M14" s="29" t="n">
         <v>13.75</v>
@@ -15482,10 +15713,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L15" s="30" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="M15" s="29" t="n">
         <v>12</v>
@@ -15499,10 +15730,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L16" s="30" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M16" s="29" t="n">
         <v>26.5</v>
@@ -15514,10 +15745,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L17" s="30" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="M17" s="29" t="n">
         <v>17</v>
@@ -15529,10 +15760,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K18" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L18" s="30" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M18" s="29" t="n">
         <v>16.5</v>
@@ -15546,10 +15777,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L19" s="30" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="M19" s="29" t="n">
         <v>17.25</v>
@@ -15561,10 +15792,10 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="29" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="M20" s="29" t="n">
         <v>26.5</v>
@@ -15580,7 +15811,7 @@
       <c r="K21" s="29"/>
       <c r="L21" s="29"/>
       <c r="M21" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N21" s="29" t="n">
         <f aca="false">AVERAGE(N4:N20)</f>
@@ -15594,7 +15825,7 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="29"/>
       <c r="L22" s="29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M22" s="29"/>
       <c r="N22" s="29" t="n">
@@ -15609,7 +15840,7 @@
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="29"/>
       <c r="L23" s="29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M23" s="29"/>
       <c r="N23" s="29" t="n">
@@ -15650,10 +15881,10 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K26" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M26" s="0" t="n">
         <v>160</v>
@@ -15668,10 +15899,10 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M27" s="0" t="n">
         <v>54</v>
@@ -15686,10 +15917,10 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M28" s="0" t="n">
         <v>181</v>
@@ -15704,10 +15935,10 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K29" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>64</v>
@@ -15725,7 +15956,7 @@
         <v>43</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>530</v>
@@ -15743,7 +15974,7 @@
         <v>43</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>38.5</v>
@@ -15761,7 +15992,7 @@
         <v>43</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -15775,7 +16006,7 @@
         <v>43</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>10</v>
@@ -15793,7 +16024,7 @@
         <v>43</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>13</v>
@@ -15811,7 +16042,7 @@
         <v>43</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>375</v>
@@ -15828,7 +16059,7 @@
       <c r="K36" s="0"/>
       <c r="L36" s="0"/>
       <c r="M36" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N36" s="0" t="n">
         <f aca="false">AVERAGE(N26:N35)</f>
@@ -15843,7 +16074,7 @@
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="0"/>
       <c r="L37" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M37" s="0"/>
       <c r="N37" s="0" t="n">
@@ -15859,7 +16090,7 @@
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K38" s="0"/>
       <c r="L38" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M38" s="0"/>
       <c r="N38" s="0" t="n">
@@ -15874,10 +16105,10 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M40" s="29" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N40" s="28" t="n">
         <f aca="false">AVERAGE(N4:N20,N26:N35)</f>
@@ -15890,7 +16121,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L41" s="28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N41" s="28" t="n">
         <f aca="false">AVERAGE(N14:N20,N26:N29)</f>
@@ -15903,7 +16134,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L42" s="28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N42" s="28" t="n">
         <f aca="false">AVERAGE(N4:N13,N30:N35)</f>
@@ -15936,47 +16167,47 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.3671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="12.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="10.49"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="8.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="15.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="13.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>18</v>
@@ -15984,10 +16215,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>50</v>
@@ -16022,10 +16253,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>90</v>
@@ -16060,10 +16291,10 @@
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>100</v>
@@ -16090,10 +16321,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>110</v>
@@ -16116,10 +16347,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>132</v>
@@ -16154,10 +16385,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>150</v>
@@ -16184,10 +16415,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>355</v>
@@ -16225,7 +16456,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>100</v>
@@ -16263,7 +16494,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>100</v>
@@ -16301,7 +16532,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>113</v>
@@ -16339,7 +16570,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>120</v>
@@ -16377,7 +16608,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>120</v>
@@ -16415,7 +16646,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>140</v>
@@ -16449,7 +16680,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>150</v>
@@ -16487,7 +16718,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>150</v>
@@ -16525,7 +16756,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>179</v>
@@ -16563,7 +16794,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>180</v>

--- a/data/flux/2017_2018_flux+rate_MED.xlsx
+++ b/data/flux/2017_2018_flux+rate_MED.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017 P2 rates not ctl sub" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="205">
   <si>
     <t xml:space="preserve">P2 +Particles</t>
   </si>
@@ -571,9 +571,15 @@
     <t xml:space="preserve">Keil 3-36</t>
   </si>
   <si>
+    <t xml:space="preserve">lots of pteropods</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keil 4-34</t>
   </si>
   <si>
+    <t xml:space="preserve">pteropod</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kel 4-31</t>
   </si>
   <si>
@@ -586,7 +592,13 @@
     <t xml:space="preserve">Keil 1-30</t>
   </si>
   <si>
+    <t xml:space="preserve">no zoops</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keil 2-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lanternfish</t>
   </si>
   <si>
     <t xml:space="preserve">To copy into 2018_fluxes.xlsx for plotting with maplotlib in jupyter notebooks</t>
@@ -1075,7 +1087,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1087,10 +1099,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101492537313433"/>
-          <c:y val="0.164556002123303"/>
-          <c:w val="0.855909640984268"/>
-          <c:h val="0.784712216576932"/>
+          <c:x val="0.101482104718141"/>
+          <c:y val="0.16456848172304"/>
+          <c:w val="0.855866934179018"/>
+          <c:h val="0.784620051569847"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1246,11 +1258,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="29945789"/>
-        <c:axId val="46551912"/>
+        <c:axId val="97603809"/>
+        <c:axId val="10473286"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="29945789"/>
+        <c:axId val="97603809"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1316,13 +1328,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46551912"/>
+        <c:crossAx val="10473286"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46551912"/>
+        <c:axId val="10473286"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1355,7 +1367,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29945789"/>
+        <c:crossAx val="97603809"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1382,7 +1394,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1394,10 +1406,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101510128913444"/>
-          <c:y val="0.164579876301101"/>
-          <c:w val="0.855911602209945"/>
-          <c:h val="0.784658319505204"/>
+          <c:x val="0.101498878791455"/>
+          <c:y val="0.164592290865203"/>
+          <c:w val="0.855836185530509"/>
+          <c:h val="0.784566644037113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1549,11 +1561,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7253022"/>
-        <c:axId val="86235472"/>
+        <c:axId val="33118937"/>
+        <c:axId val="39967880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7253022"/>
+        <c:axId val="33118937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -1620,13 +1632,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86235472"/>
+        <c:crossAx val="39967880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86235472"/>
+        <c:axId val="39967880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -1659,7 +1671,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7253022"/>
+        <c:crossAx val="33118937"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1686,7 +1698,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1698,10 +1710,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206261510128913"/>
-          <c:y val="0.164482937301059"/>
-          <c:w val="0.731123388581952"/>
-          <c:h val="0.784736101858021"/>
+          <c:x val="0.206240614049725"/>
+          <c:y val="0.164495114006515"/>
+          <c:w val="0.731075143222649"/>
+          <c:h val="0.784646135623334"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1853,11 +1865,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57755841"/>
-        <c:axId val="16720403"/>
+        <c:axId val="85280306"/>
+        <c:axId val="54146051"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57755841"/>
+        <c:axId val="85280306"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1925,12 +1937,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16720403"/>
+        <c:crossAx val="54146051"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="16720403"/>
+        <c:axId val="54146051"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -1997,7 +2009,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57755841"/>
+        <c:crossAx val="85280306"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2024,7 +2036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart120.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2036,10 +2048,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206365809922295"/>
-          <c:y val="0.196842554401934"/>
-          <c:w val="0.731171548117155"/>
-          <c:h val="0.752382306926468"/>
+          <c:x val="0.206335213916314"/>
+          <c:y val="0.196856553587938"/>
+          <c:w val="0.731135401974612"/>
+          <c:h val="0.752293577981651"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2325,11 +2337,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="31068688"/>
-        <c:axId val="21719439"/>
+        <c:axId val="27153068"/>
+        <c:axId val="47174141"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="31068688"/>
+        <c:axId val="27153068"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2367,8 +2379,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.170277943813509"/>
-              <c:y val="0.00533352296970559"/>
+              <c:x val="0.170310296191819"/>
+              <c:y val="0.00533390228291018"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2405,13 +2417,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21719439"/>
+        <c:crossAx val="47174141"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21719439"/>
+        <c:axId val="47174141"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -2478,7 +2490,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31068688"/>
+        <c:crossAx val="27153068"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2505,7 +2517,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart121.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2517,10 +2529,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206327372764787"/>
-          <c:y val="0.164554147209251"/>
-          <c:w val="0.731149180942854"/>
-          <c:h val="0.784523015343562"/>
+          <c:x val="0.206330768113838"/>
+          <c:y val="0.164572445235183"/>
+          <c:w val="0.731135956633271"/>
+          <c:h val="0.784387857222284"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2672,11 +2684,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86328198"/>
-        <c:axId val="69781040"/>
+        <c:axId val="1578169"/>
+        <c:axId val="53562164"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86328198"/>
+        <c:axId val="1578169"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2744,12 +2756,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69781040"/>
+        <c:crossAx val="53562164"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69781040"/>
+        <c:axId val="53562164"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -2816,7 +2828,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86328198"/>
+        <c:crossAx val="1578169"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2843,7 +2855,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart122.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2855,10 +2867,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101513599635826"/>
-          <c:y val="0.164545274681791"/>
-          <c:w val="0.856094230112666"/>
-          <c:h val="0.784739167710875"/>
+          <c:x val="0.101488560139667"/>
+          <c:y val="0.164556127160005"/>
+          <c:w val="0.8560599099513"/>
+          <c:h val="0.784659015960955"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2999,11 +3011,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="40717422"/>
-        <c:axId val="4436703"/>
+        <c:axId val="71702069"/>
+        <c:axId val="6293587"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="40717422"/>
+        <c:axId val="71702069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3035,13 +3047,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4436703"/>
+        <c:crossAx val="6293587"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="4436703"/>
+        <c:axId val="6293587"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -3074,7 +3086,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="40717422"/>
+        <c:crossAx val="71702069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -3102,7 +3114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3114,10 +3126,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101556463185782"/>
-          <c:y val="0.164491218478781"/>
-          <c:w val="0.856054752180152"/>
-          <c:h val="0.784801476115629"/>
+          <c:x val="0.101540067867398"/>
+          <c:y val="0.164502460360853"/>
+          <c:w val="0.855999303924128"/>
+          <c:h val="0.784718425369054"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3415,11 +3427,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96217218"/>
-        <c:axId val="61252130"/>
+        <c:axId val="14761127"/>
+        <c:axId val="90923199"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96217218"/>
+        <c:axId val="14761127"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -3452,13 +3464,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61252130"/>
+        <c:crossAx val="90923199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61252130"/>
+        <c:axId val="90923199"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3491,7 +3503,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96217218"/>
+        <c:crossAx val="14761127"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -3519,7 +3531,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3531,10 +3543,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206279378088466"/>
-          <c:y val="0.196911998892197"/>
-          <c:w val="0.73116789200916"/>
-          <c:h val="0.752406009831752"/>
+          <c:x val="0.206271178351549"/>
+          <c:y val="0.196925633568758"/>
+          <c:w val="0.731112489858254"/>
+          <c:h val="0.75231962332087"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3680,11 +3692,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="2900974"/>
-        <c:axId val="20471881"/>
+        <c:axId val="90351545"/>
+        <c:axId val="45127834"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2900974"/>
+        <c:axId val="90351545"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -3718,13 +3730,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20471881"/>
+        <c:crossAx val="45127834"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20471881"/>
+        <c:axId val="45127834"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -3757,7 +3769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2900974"/>
+        <c:crossAx val="90351545"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3784,7 +3796,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3796,10 +3808,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206320571924901"/>
-          <c:y val="0.164532019704433"/>
-          <c:w val="0.731141845393198"/>
-          <c:h val="0.784691170898067"/>
+          <c:x val="0.206328133643102"/>
+          <c:y val="0.16454448991966"/>
+          <c:w val="0.731109636021684"/>
+          <c:h val="0.784599060178869"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3951,11 +3963,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="30601671"/>
-        <c:axId val="37286723"/>
+        <c:axId val="90862957"/>
+        <c:axId val="77554160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="30601671"/>
+        <c:axId val="90862957"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4023,13 +4035,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37286723"/>
+        <c:crossAx val="77554160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="37286723"/>
+        <c:axId val="77554160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -4096,7 +4108,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30601671"/>
+        <c:crossAx val="90862957"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4123,7 +4135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4135,10 +4147,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206356116673922"/>
-          <c:y val="0.196853171523319"/>
-          <c:w val="0.73120218919087"/>
-          <c:h val="0.75234601001905"/>
+          <c:x val="0.206321022727273"/>
+          <c:y val="0.196867061812024"/>
+          <c:w val="0.731178977272727"/>
+          <c:h val="0.752257973468812"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4356,11 +4368,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="61038267"/>
-        <c:axId val="46880951"/>
+        <c:axId val="24096534"/>
+        <c:axId val="67520418"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="61038267"/>
+        <c:axId val="24096534"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -4394,13 +4406,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46880951"/>
+        <c:crossAx val="67520418"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46880951"/>
+        <c:axId val="67520418"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -4433,7 +4445,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61038267"/>
+        <c:crossAx val="24096534"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4460,7 +4472,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4472,10 +4484,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101579986833443"/>
-          <c:y val="0.164486692015209"/>
-          <c:w val="0.855957867017775"/>
-          <c:h val="0.784714828897338"/>
+          <c:x val="0.101590874213515"/>
+          <c:y val="0.164499201460187"/>
+          <c:w val="0.855900557573277"/>
+          <c:h val="0.784622404745608"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4619,11 +4631,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="23013407"/>
-        <c:axId val="74767458"/>
+        <c:axId val="96063075"/>
+        <c:axId val="24988268"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="23013407"/>
+        <c:axId val="96063075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -4660,8 +4672,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.232455562870309"/>
-              <c:y val="0.0248669201520913"/>
+              <c:x val="0.232441557112896"/>
+              <c:y val="0.0249448627272036"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4698,13 +4710,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74767458"/>
+        <c:crossAx val="24988268"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74767458"/>
+        <c:axId val="24988268"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="700"/>
@@ -4737,7 +4749,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23013407"/>
+        <c:crossAx val="96063075"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4764,7 +4776,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4776,10 +4788,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101517107811491"/>
-          <c:y val="0.164556002123303"/>
-          <c:w val="0.855874757908328"/>
-          <c:h val="0.784712216576932"/>
+          <c:x val="0.101520259525475"/>
+          <c:y val="0.16456848172304"/>
+          <c:w val="0.855797977227912"/>
+          <c:h val="0.784620051569847"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4935,11 +4947,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7452326"/>
-        <c:axId val="64146388"/>
+        <c:axId val="79829533"/>
+        <c:axId val="28286821"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7452326"/>
+        <c:axId val="79829533"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5005,13 +5017,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64146388"/>
+        <c:crossAx val="28286821"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64146388"/>
+        <c:axId val="28286821"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5044,7 +5056,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7452326"/>
+        <c:crossAx val="79829533"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5071,7 +5083,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart129.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5083,10 +5095,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101532567049808"/>
-          <c:y val="0.164579876301101"/>
-          <c:w val="0.855879752431476"/>
-          <c:h val="0.784658319505204"/>
+          <c:x val="0.10151250727167"/>
+          <c:y val="0.164592290865203"/>
+          <c:w val="0.855846422338569"/>
+          <c:h val="0.784566644037113"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5238,11 +5250,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96429784"/>
-        <c:axId val="25192437"/>
+        <c:axId val="30231324"/>
+        <c:axId val="15290303"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96429784"/>
+        <c:axId val="30231324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -5309,13 +5321,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25192437"/>
+        <c:crossAx val="15290303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="25192437"/>
+        <c:axId val="15290303"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -5348,7 +5360,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96429784"/>
+        <c:crossAx val="30231324"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5375,7 +5387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart130.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5387,10 +5399,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206313712594541"/>
-          <c:y val="0.164482937301059"/>
-          <c:w val="0.731141072015784"/>
-          <c:h val="0.784736101858021"/>
+          <c:x val="0.206296234495801"/>
+          <c:y val="0.164495114006515"/>
+          <c:w val="0.731075143222649"/>
+          <c:h val="0.784646135623334"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5542,11 +5554,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20680081"/>
-        <c:axId val="61653272"/>
+        <c:axId val="15058329"/>
+        <c:axId val="55445130"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20680081"/>
+        <c:axId val="15058329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -5614,12 +5626,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61653272"/>
+        <c:crossAx val="55445130"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61653272"/>
+        <c:axId val="55445130"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -5686,7 +5698,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20680081"/>
+        <c:crossAx val="15058329"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5713,7 +5725,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart131.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5725,10 +5737,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206327372764787"/>
-          <c:y val="0.164554147209251"/>
-          <c:w val="0.731149180942854"/>
-          <c:h val="0.784523015343562"/>
+          <c:x val="0.206330768113838"/>
+          <c:y val="0.164572445235183"/>
+          <c:w val="0.731135956633271"/>
+          <c:h val="0.784387857222284"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5880,11 +5892,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="46193895"/>
-        <c:axId val="29383154"/>
+        <c:axId val="16739977"/>
+        <c:axId val="29933677"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46193895"/>
+        <c:axId val="16739977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -5952,12 +5964,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29383154"/>
+        <c:crossAx val="29933677"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="29383154"/>
+        <c:axId val="29933677"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6024,7 +6036,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46193895"/>
+        <c:crossAx val="16739977"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6051,7 +6063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart132.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6063,10 +6075,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101530931648739"/>
-          <c:y val="0.164545274681791"/>
-          <c:w val="0.856069660235615"/>
-          <c:h val="0.784739167710875"/>
+          <c:x val="0.101544437251457"/>
+          <c:y val="0.164556127160005"/>
+          <c:w val="0.856052899287894"/>
+          <c:h val="0.784659015960955"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6207,11 +6219,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="11819657"/>
-        <c:axId val="57343140"/>
+        <c:axId val="64542862"/>
+        <c:axId val="23105639"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="11819657"/>
+        <c:axId val="64542862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6243,13 +6255,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57343140"/>
+        <c:crossAx val="23105639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57343140"/>
+        <c:axId val="23105639"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -6282,7 +6294,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11819657"/>
+        <c:crossAx val="64542862"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200"/>
@@ -6310,7 +6322,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart133.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6322,10 +6334,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.101562068775184"/>
-          <c:y val="0.164491218478781"/>
-          <c:w val="0.855991610089971"/>
-          <c:h val="0.784801476115629"/>
+          <c:x val="0.101550454000343"/>
+          <c:y val="0.164502460360853"/>
+          <c:w val="0.855961966763748"/>
+          <c:h val="0.784718425369054"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6623,11 +6635,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="16658294"/>
-        <c:axId val="59529950"/>
+        <c:axId val="15071915"/>
+        <c:axId val="14487281"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16658294"/>
+        <c:axId val="15071915"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -6660,13 +6672,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59529950"/>
+        <c:crossAx val="14487281"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59529950"/>
+        <c:axId val="14487281"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="300"/>
@@ -6699,7 +6711,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16658294"/>
+        <c:crossAx val="15071915"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -6727,7 +6739,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart134.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6739,10 +6751,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.206334357877856"/>
-          <c:y val="0.164532019704433"/>
-          <c:w val="0.731190698917546"/>
-          <c:h val="0.784691170898067"/>
+          <c:x val="0.206328133643102"/>
+          <c:y val="0.16454448991966"/>
+          <c:w val="0.731164951875207"/>
+          <c:h val="0.784599060178869"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6894,11 +6906,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="44147987"/>
-        <c:axId val="10327543"/>
+        <c:axId val="65972070"/>
+        <c:axId val="77468680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44147987"/>
+        <c:axId val="65972070"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -6966,13 +6978,13 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10327543"/>
+        <c:crossAx val="77468680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10327543"/>
+        <c:axId val="77468680"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="1000"/>
@@ -7039,7 +7051,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44147987"/>
+        <c:crossAx val="65972070"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7066,7 +7078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart135.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7194,11 +7206,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17377496"/>
-        <c:axId val="36084150"/>
+        <c:axId val="87572247"/>
+        <c:axId val="68603954"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17377496"/>
+        <c:axId val="87572247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7254,12 +7266,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36084150"/>
+        <c:crossAx val="68603954"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="36084150"/>
+        <c:axId val="68603954"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7315,7 +7327,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17377496"/>
+        <c:crossAx val="87572247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7342,7 +7354,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart136.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7484,11 +7496,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="16668324"/>
-        <c:axId val="96886109"/>
+        <c:axId val="35294344"/>
+        <c:axId val="29840827"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="16668324"/>
+        <c:axId val="35294344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7544,12 +7556,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96886109"/>
+        <c:crossAx val="29840827"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96886109"/>
+        <c:axId val="29840827"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -7606,7 +7618,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16668324"/>
+        <c:crossAx val="35294344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7633,7 +7645,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7856,11 +7868,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="69946572"/>
-        <c:axId val="20473058"/>
+        <c:axId val="97056200"/>
+        <c:axId val="73526956"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69946572"/>
+        <c:axId val="97056200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,12 +7928,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20473058"/>
+        <c:crossAx val="73526956"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="20473058"/>
+        <c:axId val="73526956"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7977,7 +7989,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69946572"/>
+        <c:crossAx val="97056200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8004,7 +8016,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8209,11 +8221,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="96359597"/>
-        <c:axId val="31500163"/>
+        <c:axId val="84897435"/>
+        <c:axId val="13862497"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96359597"/>
+        <c:axId val="84897435"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8269,12 +8281,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31500163"/>
+        <c:crossAx val="13862497"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="31500163"/>
+        <c:axId val="13862497"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8331,7 +8343,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96359597"/>
+        <c:crossAx val="84897435"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8358,7 +8370,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8518,11 +8530,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="27769924"/>
-        <c:axId val="30594039"/>
+        <c:axId val="87709801"/>
+        <c:axId val="44230978"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27769924"/>
+        <c:axId val="87709801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8578,12 +8590,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30594039"/>
+        <c:crossAx val="44230978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30594039"/>
+        <c:axId val="44230978"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="400"/>
@@ -8640,7 +8652,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27769924"/>
+        <c:crossAx val="87709801"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8678,9 +8690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>766080</xdr:colOff>
+      <xdr:colOff>765720</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8688,8 +8700,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1626480" y="7784640"/>
-        <a:ext cx="4461840" cy="4746960"/>
+        <a:off x="1888200" y="7784640"/>
+        <a:ext cx="5562000" cy="4746600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8708,9 +8720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>970920</xdr:colOff>
+      <xdr:colOff>970560</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8718,8 +8730,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5250240" y="7679160"/>
-        <a:ext cx="4886640" cy="4772520"/>
+        <a:off x="6381000" y="7679160"/>
+        <a:ext cx="6100200" cy="4772160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8738,9 +8750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1672200</xdr:colOff>
+      <xdr:colOff>1671840</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8748,8 +8760,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10478880" y="7679160"/>
-        <a:ext cx="5473080" cy="4862880"/>
+        <a:off x="13132440" y="7679160"/>
+        <a:ext cx="6472080" cy="4862520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8768,9 +8780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
+      <xdr:colOff>131760</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8778,8 +8790,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="44038800" y="5068440"/>
-        <a:ext cx="4817880" cy="5061960"/>
+        <a:off x="55209240" y="5068440"/>
+        <a:ext cx="6125400" cy="5061600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8798,9 +8810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>576720</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8808,8 +8820,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15659640" y="7636680"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:off x="19312560" y="7636680"/>
+        <a:ext cx="7437600" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8828,9 +8840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8838,8 +8850,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1943280" y="10492920"/>
-        <a:ext cx="6326280" cy="5458320"/>
+        <a:off x="2438640" y="10492920"/>
+        <a:ext cx="7835400" cy="5457960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8858,9 +8870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>646560</xdr:colOff>
+      <xdr:colOff>646200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8868,8 +8880,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7286400" y="10683360"/>
-        <a:ext cx="6522120" cy="5267520"/>
+        <a:off x="8901000" y="10683360"/>
+        <a:ext cx="8274600" cy="5267160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8888,9 +8900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>574560</xdr:colOff>
+      <xdr:colOff>574200</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8898,8 +8910,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="43325640" y="4538520"/>
-        <a:ext cx="5973480" cy="5199120"/>
+        <a:off x="54234360" y="4538520"/>
+        <a:ext cx="7542720" cy="5198760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8918,9 +8930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1013760</xdr:colOff>
+      <xdr:colOff>1013400</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8928,8 +8940,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14279760" y="10683360"/>
-        <a:ext cx="5387760" cy="4749840"/>
+        <a:off x="17932680" y="10683360"/>
+        <a:ext cx="6507720" cy="4749480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8948,9 +8960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>690120</xdr:colOff>
+      <xdr:colOff>689760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8958,8 +8970,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="49745520" y="4334400"/>
-        <a:ext cx="5788080" cy="5101920"/>
+        <a:off x="62485560" y="4334400"/>
+        <a:ext cx="7095960" cy="5101560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8983,9 +8995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8993,8 +9005,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3846600" y="5970240"/>
-        <a:ext cx="5468040" cy="4733640"/>
+        <a:off x="4631400" y="5970240"/>
+        <a:ext cx="7037280" cy="4733280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9018,9 +9030,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>441720</xdr:colOff>
+      <xdr:colOff>441360</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9028,8 +9040,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1680480" y="3014640"/>
-        <a:ext cx="4460760" cy="4746960"/>
+        <a:off x="1942200" y="3014640"/>
+        <a:ext cx="5659200" cy="4746600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9048,9 +9060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>631440</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9058,8 +9070,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6532200" y="3555000"/>
-        <a:ext cx="4885560" cy="4772520"/>
+        <a:off x="7992720" y="3555000"/>
+        <a:ext cx="6188040" cy="4772160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9078,9 +9090,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1672560</xdr:colOff>
+      <xdr:colOff>1672200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9088,8 +9100,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12413160" y="3555000"/>
-        <a:ext cx="5473440" cy="4862880"/>
+        <a:off x="15566760" y="3555000"/>
+        <a:ext cx="6472080" cy="4862520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9108,9 +9120,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>576720</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>8280</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9118,8 +9130,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17593920" y="3512520"/>
-        <a:ext cx="5757480" cy="3237480"/>
+        <a:off x="21746520" y="3512520"/>
+        <a:ext cx="7437600" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9138,9 +9150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>633240</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9148,8 +9160,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2047680" y="6369120"/>
-        <a:ext cx="6325200" cy="5458320"/>
+        <a:off x="2571120" y="6369120"/>
+        <a:ext cx="7785000" cy="5457960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9168,9 +9180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>136800</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9178,8 +9190,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8711640" y="6559920"/>
-        <a:ext cx="6521760" cy="5267520"/>
+        <a:off x="10695240" y="6559920"/>
+        <a:ext cx="8404920" cy="5267160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9198,9 +9210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1013760</xdr:colOff>
+      <xdr:colOff>1013400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>186120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9208,8 +9220,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16214040" y="6559920"/>
-        <a:ext cx="5387400" cy="4749840"/>
+        <a:off x="20366640" y="6559920"/>
+        <a:ext cx="6507720" cy="4749480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9233,9 +9245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>254160</xdr:colOff>
+      <xdr:colOff>253800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9243,8 +9255,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8112600" y="364680"/>
-        <a:ext cx="3520440" cy="4038480"/>
+        <a:off x="9981360" y="364680"/>
+        <a:ext cx="4558320" cy="4038120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9268,9 +9280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9278,8 +9290,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10267200" y="4659120"/>
-        <a:ext cx="3195720" cy="4123080"/>
+        <a:off x="12759120" y="4659120"/>
+        <a:ext cx="4025880" cy="4122720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9298,9 +9310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>446040</xdr:colOff>
+      <xdr:colOff>445680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9308,8 +9320,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10275120" y="467640"/>
-        <a:ext cx="3195720" cy="4123080"/>
+        <a:off x="12767040" y="467640"/>
+        <a:ext cx="4025880" cy="4122720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9328,9 +9340,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>494640</xdr:colOff>
+      <xdr:colOff>494280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9338,8 +9350,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7067160" y="467640"/>
-        <a:ext cx="3196080" cy="4127400"/>
+        <a:off x="8728200" y="467640"/>
+        <a:ext cx="4026600" cy="4127040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9358,9 +9370,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9368,8 +9380,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7108200" y="4689000"/>
-        <a:ext cx="3195720" cy="4123080"/>
+        <a:off x="8769240" y="4689000"/>
+        <a:ext cx="4026240" cy="4122720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9393,31 +9405,31 @@
       <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="18.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="23" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="31" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="31" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11763,16 +11775,16 @@
       <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="1" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="21.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="19" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="19" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13058,28 +13070,28 @@
   </sheetPr>
   <dimension ref="A1:AS29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA4" activeCellId="0" sqref="AA4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB8" activeCellId="0" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="28.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="18.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="39.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="23.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="23.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="30" style="0" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="30" style="0" width="13.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13596,6 +13608,9 @@
         <f aca="false">N8/$AD$2</f>
         <v>0.163540598537405</v>
       </c>
+      <c r="V8" s="0" t="s">
+        <v>171</v>
+      </c>
       <c r="W8" s="0" t="n">
         <v>2018</v>
       </c>
@@ -13637,7 +13652,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>40</v>
@@ -13671,6 +13686,9 @@
         <f aca="false">N9/$AD$2</f>
         <v>0.0778291809494656</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>173</v>
+      </c>
       <c r="W9" s="0" t="n">
         <v>2018</v>
       </c>
@@ -13698,7 +13716,7 @@
         <v>35</v>
       </c>
       <c r="AF9" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>55</v>
@@ -13712,7 +13730,7 @@
         <v>121</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -13741,7 +13759,7 @@
         <v>0.201890863996947</v>
       </c>
       <c r="V10" s="26" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W10" s="0" t="n">
         <v>2018</v>
@@ -13760,7 +13778,7 @@
         <v>15</v>
       </c>
       <c r="AF10" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AS10" s="5" t="s">
         <v>58</v>
@@ -13774,7 +13792,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>40</v>
@@ -13808,6 +13826,9 @@
         <f aca="false">N11/$AD$2</f>
         <v>0.162546630155725</v>
       </c>
+      <c r="V11" s="0" t="s">
+        <v>178</v>
+      </c>
       <c r="W11" s="0" t="n">
         <v>2018</v>
       </c>
@@ -13835,7 +13856,7 @@
         <v>15</v>
       </c>
       <c r="AF11" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>60</v>
@@ -13849,7 +13870,7 @@
         <v>221</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>40</v>
@@ -13883,6 +13904,9 @@
         <f aca="false">N12/$AD$2</f>
         <v>0.413103197931298</v>
       </c>
+      <c r="V12" s="0" t="s">
+        <v>178</v>
+      </c>
       <c r="W12" s="0" t="n">
         <v>2018</v>
       </c>
@@ -13910,7 +13934,7 @@
         <v>35</v>
       </c>
       <c r="AF12" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13921,7 +13945,7 @@
         <v>368</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>53</v>
@@ -13955,6 +13979,9 @@
         <f aca="false">N13/$AD$2</f>
         <v>0.0522191884712977</v>
       </c>
+      <c r="V13" s="0" t="s">
+        <v>180</v>
+      </c>
       <c r="W13" s="0" t="n">
         <v>2018</v>
       </c>
@@ -13982,12 +14009,12 @@
         <v>50</v>
       </c>
       <c r="AF13" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="X15" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14001,10 +14028,10 @@
         <v>18</v>
       </c>
       <c r="Z16" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AA16" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14112,7 +14139,7 @@
         <v>43</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>87</v>
@@ -14132,13 +14159,13 @@
         <v>43</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>121</v>
       </c>
       <c r="Z23" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB23" s="0" t="n">
         <v>4.2</v>
@@ -14149,7 +14176,7 @@
         <v>43</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>150</v>
@@ -14169,7 +14196,7 @@
         <v>43</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>221</v>
@@ -14189,7 +14216,7 @@
         <v>43</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>368</v>
@@ -14206,7 +14233,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Z27" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AA27" s="0" t="n">
         <f aca="false">AVERAGE(AA17:AA26)</f>
@@ -14266,14 +14293,14 @@
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1016" min="1" style="27" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="27" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>81</v>
@@ -14282,16 +14309,16 @@
         <v>18</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14852,23 +14879,23 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M48" activeCellId="0" sqref="M48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>81</v>
@@ -14883,7 +14910,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14972,7 +14999,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15096,12 +15123,12 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>81</v>
@@ -15116,7 +15143,7 @@
         <v>36</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15247,7 +15274,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F25" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15441,7 +15468,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">AVERAGE(E26:E27)</f>
@@ -15450,7 +15477,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">AVERAGE(E3:E13,E26:E34)</f>
@@ -15480,7 +15507,7 @@
       <selection pane="topLeft" activeCell="O28" activeCellId="0" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="1" style="28" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="15.2"/>
@@ -15489,13 +15516,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15974,7 +16001,7 @@
         <v>43</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M31" s="0" t="n">
         <v>38.5</v>
@@ -15992,7 +16019,7 @@
         <v>43</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -16006,7 +16033,7 @@
         <v>43</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M33" s="0" t="n">
         <v>10</v>
@@ -16024,7 +16051,7 @@
         <v>43</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M34" s="0" t="n">
         <v>13</v>
@@ -16042,7 +16069,7 @@
         <v>43</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M35" s="0" t="n">
         <v>375</v>
@@ -16105,7 +16132,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>98</v>
@@ -16167,20 +16194,20 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="31" width="15.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="13.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="13.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>18</v>
@@ -16456,7 +16483,7 @@
         <v>42</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>100</v>
@@ -16494,7 +16521,7 @@
         <v>46</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>100</v>
@@ -16532,7 +16559,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>113</v>
@@ -16570,7 +16597,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>120</v>
@@ -16608,7 +16635,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>120</v>
@@ -16646,7 +16673,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>140</v>
@@ -16680,7 +16707,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>150</v>
@@ -16718,7 +16745,7 @@
         <v>63</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>150</v>
@@ -16756,7 +16783,7 @@
         <v>65</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>179</v>
@@ -16794,7 +16821,7 @@
         <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>180</v>
